--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\ENGGEO_program\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0175CC0E-2D6D-4307-AC67-22E5A726DB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED95EC-5954-4561-AE21-C6DA597C11F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4210,28 +4210,13 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4241,6 +4226,21 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5852,8 +5852,8 @@
   <dimension ref="A1:AY377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U17" sqref="U17"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH11" sqref="AH11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,172 +5881,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="72" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="76" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75" t="s">
+      <c r="W1" s="73"/>
+      <c r="X1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75" t="s">
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75" t="s">
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="74" t="s">
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -6056,20 +6056,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -6151,11 +6151,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -41119,6 +41119,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AV1:AV3"/>
@@ -41130,22 +41146,6 @@
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="M1:N2"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41454,8 +41454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48D2D4F-22DC-4FD5-96C9-2DF095040BD8}">
   <dimension ref="A1:AY377"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="T181" workbookViewId="0">
+      <selection activeCell="T181" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41483,172 +41483,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="70" t="s">
+      <c r="G1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="72" t="s">
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="78" t="s">
+      <c r="M1" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="76" t="s">
+      <c r="N1" s="74"/>
+      <c r="O1" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="76" t="s">
+      <c r="P1" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="76" t="s">
+      <c r="Q1" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="T1" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75" t="s">
+      <c r="U1" s="73"/>
+      <c r="V1" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75" t="s">
+      <c r="W1" s="73"/>
+      <c r="X1" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75" t="s">
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="75"/>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
-      <c r="AI1" s="75"/>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75" t="s">
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
+      <c r="AI1" s="73"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="75"/>
-      <c r="AM1" s="75"/>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="75"/>
-      <c r="AQ1" s="75" t="s">
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="73"/>
+      <c r="AP1" s="73"/>
+      <c r="AQ1" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="74" t="s">
+      <c r="AR1" s="73"/>
+      <c r="AS1" s="73"/>
+      <c r="AT1" s="73"/>
+      <c r="AU1" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="73" t="s">
+      <c r="AV1" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="73" t="s">
+      <c r="AW1" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="73" t="s">
+      <c r="AX1" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="70" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="76"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="73"/>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="73"/>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="76"/>
+      <c r="AV2" s="70"/>
+      <c r="AW2" s="70"/>
+      <c r="AX2" s="70"/>
+      <c r="AY2" s="70"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -41658,20 +41658,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="68"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="76"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -41753,11 +41753,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
+      <c r="AU3" s="76"/>
+      <c r="AV3" s="70"/>
+      <c r="AW3" s="70"/>
+      <c r="AX3" s="70"/>
+      <c r="AY3" s="70"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -76721,12 +76721,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -76739,15 +76742,12 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAED95EC-5954-4561-AE21-C6DA597C11F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C55A2-69B8-44BD-BD78-14D6A0B15BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4210,13 +4210,28 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4226,21 +4241,6 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AY377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH11" sqref="AH11"/>
+    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH223" sqref="AH223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5881,172 +5881,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="69" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="W1" s="75"/>
+      <c r="X1" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73" t="s">
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73" t="s">
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="76" t="s">
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="70" t="s">
+      <c r="AV1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="70" t="s">
+      <c r="AW1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="70" t="s">
+      <c r="AX1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="70" t="s">
+      <c r="AY1" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -6056,20 +6056,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -6151,11 +6151,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -7652,7 +7652,6 @@
       <c r="S17" s="15"/>
       <c r="T17" s="39"/>
       <c r="U17" s="38"/>
-      <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="15"/>
       <c r="Y17" s="15"/>
@@ -41119,22 +41118,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AV1:AV3"/>
@@ -41146,6 +41129,22 @@
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="M1:N2"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41454,7 +41453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48D2D4F-22DC-4FD5-96C9-2DF095040BD8}">
   <dimension ref="A1:AY377"/>
   <sheetViews>
-    <sheetView topLeftCell="T181" workbookViewId="0">
+    <sheetView topLeftCell="T133" workbookViewId="0">
       <selection activeCell="T181" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -41483,172 +41482,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="68" t="s">
+      <c r="C1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="68" t="s">
+      <c r="F1" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="78" t="s">
+      <c r="G1" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="69" t="s">
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="68" t="s">
+      <c r="L1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="74"/>
-      <c r="O1" s="71" t="s">
+      <c r="N1" s="78"/>
+      <c r="O1" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="R1" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="U1" s="75"/>
+      <c r="V1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="W1" s="75"/>
+      <c r="X1" s="75" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Y1" s="75"/>
+      <c r="Z1" s="75" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73" t="s">
+      <c r="AA1" s="75"/>
+      <c r="AB1" s="75"/>
+      <c r="AC1" s="75"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
+      <c r="AI1" s="75"/>
+      <c r="AJ1" s="75"/>
+      <c r="AK1" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73" t="s">
+      <c r="AL1" s="75"/>
+      <c r="AM1" s="75"/>
+      <c r="AN1" s="75"/>
+      <c r="AO1" s="75"/>
+      <c r="AP1" s="75"/>
+      <c r="AQ1" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="76" t="s">
+      <c r="AR1" s="75"/>
+      <c r="AS1" s="75"/>
+      <c r="AT1" s="75"/>
+      <c r="AU1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="70" t="s">
+      <c r="AV1" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="70" t="s">
+      <c r="AW1" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="70" t="s">
+      <c r="AX1" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="70" t="s">
+      <c r="AY1" s="73" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
-      <c r="AX2" s="70"/>
-      <c r="AY2" s="70"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="76"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="71"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="69"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -41658,20 +41657,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="68"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="69"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="72"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="75"/>
-      <c r="S3" s="75"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -41753,11 +41752,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="76"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
-      <c r="AX3" s="70"/>
-      <c r="AY3" s="70"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -76721,15 +76720,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -76742,12 +76738,15 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C55A2-69B8-44BD-BD78-14D6A0B15BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35B2C83-59BE-422F-95AE-81431872BFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5851,9 +5851,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:AY377"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH223" sqref="AH223"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG17" sqref="AG17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6669,7 +6669,7 @@
       <c r="X7" s="15"/>
       <c r="Y7" s="15"/>
       <c r="Z7" s="18">
-        <v>0.05</v>
+        <v>0.125</v>
       </c>
       <c r="AA7" s="18"/>
       <c r="AB7" s="18">
@@ -6681,10 +6681,10 @@
       </c>
       <c r="AE7" s="18"/>
       <c r="AG7" s="19">
-        <v>5.9</v>
+        <v>15</v>
       </c>
       <c r="AH7" s="19">
-        <v>4.1300000000000008</v>
+        <v>10</v>
       </c>
       <c r="AI7" s="15">
         <v>9</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC6CBC0-51FB-49A4-9B3E-6A66711A7DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A65E1B-C966-4113-8D44-1E966DF05717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4173,28 +4173,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4204,6 +4189,21 @@
       <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4941,7 +4941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R14" sqref="R14"/>
+      <selection pane="topRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4969,172 +4969,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="70" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="W1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73" t="s">
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73" t="s">
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="72" t="s">
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AV1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="71" t="s">
+      <c r="AW1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="AX1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="AY1" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5144,20 +5144,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5239,11 +5239,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -5739,7 +5739,9 @@
       <c r="N7" s="37">
         <v>0.29227899999999996</v>
       </c>
-      <c r="O7" s="12"/>
+      <c r="O7" s="12">
+        <v>10</v>
+      </c>
       <c r="P7" s="41">
         <v>1.0820000000000001</v>
       </c>
@@ -5835,7 +5837,9 @@
       <c r="N8" s="37">
         <v>0.24765700000000002</v>
       </c>
-      <c r="O8" s="12"/>
+      <c r="O8" s="12">
+        <v>10</v>
+      </c>
       <c r="P8" s="41">
         <v>0.89200000000000002</v>
       </c>
@@ -5929,7 +5933,9 @@
       <c r="N9" s="37">
         <v>0.22106099999999998</v>
       </c>
-      <c r="O9" s="12"/>
+      <c r="O9" s="12">
+        <v>10</v>
+      </c>
       <c r="P9" s="41">
         <v>1.0609999999999999</v>
       </c>
@@ -6035,7 +6041,9 @@
       <c r="N10" s="37">
         <v>0.21430399999999999</v>
       </c>
-      <c r="O10" s="12"/>
+      <c r="O10" s="12">
+        <v>10</v>
+      </c>
       <c r="P10" s="41">
         <v>0.92300000000000004</v>
       </c>
@@ -6131,7 +6139,9 @@
       <c r="N11" s="37">
         <v>0.29838999999999999</v>
       </c>
-      <c r="O11" s="12"/>
+      <c r="O11" s="12">
+        <v>10</v>
+      </c>
       <c r="P11" s="41">
         <v>1.038</v>
       </c>
@@ -6228,7 +6238,7 @@
         <v>0.25406099999999993</v>
       </c>
       <c r="O12" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P12" s="41">
         <v>0.92700000000000005</v>
@@ -6336,7 +6346,7 @@
         <v>0.27173300000000006</v>
       </c>
       <c r="O13" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P13" s="41">
         <v>0.85499999999999998</v>
@@ -6444,7 +6454,7 @@
         <v>0.29035100000000003</v>
       </c>
       <c r="O14" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P14" s="41">
         <v>1.0900000000000001</v>
@@ -6542,7 +6552,7 @@
         <v>0.241919</v>
       </c>
       <c r="O15" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P15" s="41">
         <v>1.0309999999999999</v>
@@ -6650,7 +6660,7 @@
         <v>0.30689499999999997</v>
       </c>
       <c r="O16" s="12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P16" s="41">
         <v>0.97699999999999998</v>
@@ -7297,7 +7307,7 @@
         <v>0.271476</v>
       </c>
       <c r="O22" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P22" s="41">
         <v>2.2879999999999998</v>
@@ -7405,7 +7415,7 @@
         <v>0.25354100000000002</v>
       </c>
       <c r="O23" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P23" s="41">
         <v>2.6</v>
@@ -7513,7 +7523,7 @@
         <v>0.18111199999999997</v>
       </c>
       <c r="O24" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P24" s="41">
         <v>3.153</v>
@@ -7621,7 +7631,7 @@
         <v>0.26766299999999998</v>
       </c>
       <c r="O25" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P25" s="41">
         <v>2.6509999999999998</v>
@@ -7729,7 +7739,7 @@
         <v>0.26874700000000001</v>
       </c>
       <c r="O26" s="12">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P26" s="41">
         <v>2.488</v>
@@ -16743,6 +16753,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
     <mergeCell ref="K1:K3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="AV1:AV3"/>
@@ -16754,22 +16780,6 @@
     <mergeCell ref="X1:Y2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="M1:N2"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16810,172 +16820,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="70" t="s">
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="67" t="s">
+      <c r="K1" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="67" t="s">
+      <c r="L1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="72"/>
+      <c r="O1" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="69" t="s">
+      <c r="R1" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="69" t="s">
+      <c r="S1" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="73" t="s">
+      <c r="T1" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73" t="s">
+      <c r="U1" s="71"/>
+      <c r="V1" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73" t="s">
+      <c r="W1" s="71"/>
+      <c r="X1" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73" t="s">
+      <c r="Y1" s="71"/>
+      <c r="Z1" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="73"/>
-      <c r="AJ1" s="73"/>
-      <c r="AK1" s="73" t="s">
+      <c r="AA1" s="71"/>
+      <c r="AB1" s="71"/>
+      <c r="AC1" s="71"/>
+      <c r="AD1" s="71"/>
+      <c r="AE1" s="71"/>
+      <c r="AF1" s="71"/>
+      <c r="AG1" s="71"/>
+      <c r="AH1" s="71"/>
+      <c r="AI1" s="71"/>
+      <c r="AJ1" s="71"/>
+      <c r="AK1" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="73"/>
-      <c r="AP1" s="73"/>
-      <c r="AQ1" s="73" t="s">
+      <c r="AL1" s="71"/>
+      <c r="AM1" s="71"/>
+      <c r="AN1" s="71"/>
+      <c r="AO1" s="71"/>
+      <c r="AP1" s="71"/>
+      <c r="AQ1" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="73"/>
-      <c r="AS1" s="73"/>
-      <c r="AT1" s="73"/>
-      <c r="AU1" s="72" t="s">
+      <c r="AR1" s="71"/>
+      <c r="AS1" s="71"/>
+      <c r="AT1" s="71"/>
+      <c r="AU1" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AV1" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="71" t="s">
+      <c r="AW1" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="AX1" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="AY1" s="68" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="73"/>
-      <c r="AJ2" s="73"/>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="73"/>
-      <c r="AP2" s="73"/>
-      <c r="AQ2" s="73"/>
-      <c r="AR2" s="73"/>
-      <c r="AS2" s="73"/>
-      <c r="AT2" s="73"/>
-      <c r="AU2" s="72"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="70"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="73"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="71"/>
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AK2" s="71"/>
+      <c r="AL2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AP2" s="71"/>
+      <c r="AQ2" s="71"/>
+      <c r="AR2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="74"/>
+      <c r="AV2" s="68"/>
+      <c r="AW2" s="68"/>
+      <c r="AX2" s="68"/>
+      <c r="AY2" s="68"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -16985,20 +16995,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="75"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -17080,11 +17090,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
+      <c r="AU3" s="74"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -52048,12 +52058,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -52066,15 +52079,12 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A65E1B-C966-4113-8D44-1E966DF05717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905D665-D70D-4A95-A944-6AFDDFD7435F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4941,7 +4941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T13" sqref="T13"/>
+      <selection pane="topRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5728,7 +5728,7 @@
         <v>53.923197857175388</v>
       </c>
       <c r="K7" s="40">
-        <v>1.1702895025142859</v>
+        <v>0.6</v>
       </c>
       <c r="L7" s="40">
         <v>0.93823504956765735</v>
@@ -5740,7 +5740,7 @@
         <v>0.29227899999999996</v>
       </c>
       <c r="O7" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P7" s="41">
         <v>1.0820000000000001</v>
@@ -5750,36 +5750,24 @@
       </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="21"/>
+      <c r="T7" s="15">
+        <v>9</v>
+      </c>
+      <c r="U7" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V7" s="15"/>
       <c r="W7" s="15"/>
       <c r="X7" s="19"/>
       <c r="Y7" s="19"/>
-      <c r="Z7" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
-      <c r="AB7" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB7" s="18"/>
       <c r="AC7" s="18"/>
-      <c r="AD7" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD7" s="18"/>
       <c r="AE7" s="18"/>
-      <c r="AG7" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH7" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI7" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ7" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
       <c r="AK7" s="15"/>
       <c r="AL7" s="15"/>
       <c r="AM7" s="15"/>
@@ -5829,7 +5817,9 @@
       <c r="H8" s="40"/>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="40">
+        <v>0.6</v>
+      </c>
       <c r="L8" s="40"/>
       <c r="M8" s="37">
         <v>0.33200000000000002</v>
@@ -5838,7 +5828,7 @@
         <v>0.24765700000000002</v>
       </c>
       <c r="O8" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P8" s="41">
         <v>0.89200000000000002</v>
@@ -5846,36 +5836,24 @@
       <c r="Q8" s="40"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="15"/>
-      <c r="U8" s="21"/>
+      <c r="T8" s="15">
+        <v>9</v>
+      </c>
+      <c r="U8" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V8" s="15"/>
       <c r="W8" s="15"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
-      <c r="Z8" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z8" s="18"/>
       <c r="AA8" s="18"/>
-      <c r="AB8" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB8" s="18"/>
       <c r="AC8" s="18"/>
-      <c r="AD8" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD8" s="18"/>
       <c r="AE8" s="18"/>
-      <c r="AG8" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH8" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI8" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ8" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
       <c r="AK8" s="15"/>
       <c r="AL8" s="15"/>
       <c r="AM8" s="15"/>
@@ -5925,7 +5903,9 @@
       <c r="H9" s="40"/>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="40">
+        <v>0.6</v>
+      </c>
       <c r="L9" s="40"/>
       <c r="M9" s="37">
         <v>0.317</v>
@@ -5934,7 +5914,7 @@
         <v>0.22106099999999998</v>
       </c>
       <c r="O9" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P9" s="41">
         <v>1.0609999999999999</v>
@@ -5944,36 +5924,24 @@
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="21"/>
+      <c r="T9" s="15">
+        <v>9</v>
+      </c>
+      <c r="U9" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V9" s="15"/>
       <c r="W9" s="15"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
-      <c r="Z9" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z9" s="18"/>
       <c r="AA9" s="18"/>
-      <c r="AB9" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB9" s="18"/>
       <c r="AC9" s="18"/>
-      <c r="AD9" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD9" s="18"/>
       <c r="AE9" s="18"/>
-      <c r="AG9" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH9" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI9" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ9" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
       <c r="AK9" s="15"/>
       <c r="AL9" s="15"/>
       <c r="AM9" s="15"/>
@@ -6030,7 +5998,7 @@
         <v>48.343575577258136</v>
       </c>
       <c r="K10" s="40">
-        <v>0.93586763151912555</v>
+        <v>0.6</v>
       </c>
       <c r="L10" s="40">
         <v>0.88969608269113865</v>
@@ -6042,7 +6010,7 @@
         <v>0.21430399999999999</v>
       </c>
       <c r="O10" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P10" s="41">
         <v>0.92300000000000004</v>
@@ -6052,36 +6020,24 @@
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="21"/>
+      <c r="T10" s="15">
+        <v>9</v>
+      </c>
+      <c r="U10" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V10" s="15"/>
       <c r="W10" s="15"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
-      <c r="Z10" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z10" s="18"/>
       <c r="AA10" s="18"/>
-      <c r="AB10" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB10" s="18"/>
       <c r="AC10" s="18"/>
-      <c r="AD10" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD10" s="18"/>
       <c r="AE10" s="18"/>
-      <c r="AG10" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH10" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI10" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ10" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
       <c r="AK10" s="15"/>
       <c r="AL10" s="15"/>
       <c r="AM10" s="15"/>
@@ -6131,7 +6087,9 @@
       <c r="H11" s="40"/>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>0.6</v>
+      </c>
       <c r="L11" s="40"/>
       <c r="M11" s="37">
         <v>0.39799999999999996</v>
@@ -6140,7 +6098,7 @@
         <v>0.29838999999999999</v>
       </c>
       <c r="O11" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P11" s="41">
         <v>1.038</v>
@@ -6150,36 +6108,24 @@
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="21"/>
+      <c r="T11" s="15">
+        <v>9</v>
+      </c>
+      <c r="U11" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V11" s="15"/>
       <c r="W11" s="15"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
-      <c r="Z11" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
-      <c r="AB11" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB11" s="18"/>
       <c r="AC11" s="18"/>
-      <c r="AD11" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD11" s="18"/>
       <c r="AE11" s="18"/>
-      <c r="AG11" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH11" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI11" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ11" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
       <c r="AK11" s="15"/>
       <c r="AL11" s="15"/>
       <c r="AM11" s="15"/>
@@ -6238,7 +6184,7 @@
         <v>0.25406099999999993</v>
       </c>
       <c r="O12" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P12" s="41">
         <v>0.92700000000000005</v>
@@ -6248,36 +6194,24 @@
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="21"/>
+      <c r="T12" s="15">
+        <v>9</v>
+      </c>
+      <c r="U12" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V12" s="15"/>
       <c r="W12" s="15"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
-      <c r="Z12" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z12" s="18"/>
       <c r="AA12" s="18"/>
-      <c r="AB12" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB12" s="18"/>
       <c r="AC12" s="18"/>
-      <c r="AD12" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD12" s="18"/>
       <c r="AE12" s="18"/>
-      <c r="AG12" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH12" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI12" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ12" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
       <c r="AK12" s="15"/>
       <c r="AL12" s="15"/>
       <c r="AM12" s="15"/>
@@ -6346,7 +6280,7 @@
         <v>0.27173300000000006</v>
       </c>
       <c r="O13" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P13" s="41">
         <v>0.85499999999999998</v>
@@ -6356,36 +6290,24 @@
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="21"/>
+      <c r="T13" s="15">
+        <v>9</v>
+      </c>
+      <c r="U13" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V13" s="15"/>
       <c r="W13" s="15"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
-      <c r="Z13" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z13" s="18"/>
       <c r="AA13" s="18"/>
-      <c r="AB13" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB13" s="18"/>
       <c r="AC13" s="18"/>
-      <c r="AD13" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD13" s="18"/>
       <c r="AE13" s="18"/>
-      <c r="AG13" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH13" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI13" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ13" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
       <c r="AK13" s="15"/>
       <c r="AL13" s="15"/>
       <c r="AM13" s="15"/>
@@ -6454,7 +6376,7 @@
         <v>0.29035100000000003</v>
       </c>
       <c r="O14" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P14" s="41">
         <v>1.0900000000000001</v>
@@ -6464,36 +6386,24 @@
       </c>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="21"/>
+      <c r="T14" s="15">
+        <v>9</v>
+      </c>
+      <c r="U14" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V14" s="15"/>
       <c r="W14" s="15"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
-      <c r="Z14" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z14" s="18"/>
       <c r="AA14" s="18"/>
-      <c r="AB14" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB14" s="18"/>
       <c r="AC14" s="18"/>
-      <c r="AD14" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD14" s="18"/>
       <c r="AE14" s="18"/>
-      <c r="AG14" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH14" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI14" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ14" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
       <c r="AK14" s="15"/>
       <c r="AL14" s="15"/>
       <c r="AM14" s="15"/>
@@ -6552,7 +6462,7 @@
         <v>0.241919</v>
       </c>
       <c r="O15" s="12">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="P15" s="41">
         <v>1.0309999999999999</v>
@@ -6562,36 +6472,24 @@
       </c>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="21"/>
+      <c r="T15" s="15">
+        <v>9</v>
+      </c>
+      <c r="U15" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
-      <c r="Z15" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z15" s="18"/>
       <c r="AA15" s="18"/>
-      <c r="AB15" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB15" s="18"/>
       <c r="AC15" s="18"/>
-      <c r="AD15" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD15" s="18"/>
       <c r="AE15" s="18"/>
-      <c r="AG15" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH15" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI15" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ15" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
       <c r="AK15" s="15"/>
       <c r="AL15" s="15"/>
       <c r="AM15" s="15"/>
@@ -6670,36 +6568,24 @@
       </c>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
+      <c r="T16" s="15">
+        <v>9</v>
+      </c>
+      <c r="U16" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V16" s="15"/>
       <c r="W16" s="15"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
-      <c r="Z16" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z16" s="18"/>
       <c r="AA16" s="18"/>
-      <c r="AB16" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB16" s="18"/>
       <c r="AC16" s="18"/>
-      <c r="AD16" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD16" s="18"/>
       <c r="AE16" s="18"/>
-      <c r="AG16" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH16" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI16" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ16" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
       <c r="AK16" s="15"/>
       <c r="AL16" s="15"/>
       <c r="AM16" s="15"/>
@@ -6778,35 +6664,23 @@
       </c>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="T17" s="15">
+        <v>9</v>
+      </c>
+      <c r="U17" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="W17" s="15"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
-      <c r="Z17" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z17" s="18"/>
       <c r="AA17" s="18"/>
-      <c r="AB17" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB17" s="18"/>
       <c r="AC17" s="18"/>
-      <c r="AD17" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD17" s="18"/>
       <c r="AE17" s="18"/>
-      <c r="AG17" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH17" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI17" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ17" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
       <c r="AK17" s="15"/>
       <c r="AL17" s="15"/>
       <c r="AM17" s="15"/>
@@ -6885,36 +6759,24 @@
       </c>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
+      <c r="T18" s="15">
+        <v>9</v>
+      </c>
+      <c r="U18" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="65"/>
       <c r="Y18" s="65"/>
-      <c r="Z18" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z18" s="18"/>
       <c r="AA18" s="18"/>
-      <c r="AB18" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB18" s="18"/>
       <c r="AC18" s="18"/>
-      <c r="AD18" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD18" s="18"/>
       <c r="AE18" s="18"/>
-      <c r="AG18" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH18" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI18" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ18" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
       <c r="AK18" s="15"/>
       <c r="AL18" s="15"/>
       <c r="AM18" s="15"/>
@@ -6993,36 +6855,24 @@
       </c>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
+      <c r="T19" s="15">
+        <v>9</v>
+      </c>
+      <c r="U19" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V19" s="15"/>
       <c r="W19" s="15"/>
       <c r="X19" s="65"/>
       <c r="Y19" s="65"/>
-      <c r="Z19" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z19" s="18"/>
       <c r="AA19" s="18"/>
-      <c r="AB19" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB19" s="18"/>
       <c r="AC19" s="18"/>
-      <c r="AD19" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD19" s="18"/>
       <c r="AE19" s="18"/>
-      <c r="AG19" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH19" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI19" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ19" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
       <c r="AK19" s="15"/>
       <c r="AL19" s="15"/>
       <c r="AM19" s="15"/>
@@ -7101,36 +6951,24 @@
       </c>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
+      <c r="T20" s="15">
+        <v>9</v>
+      </c>
+      <c r="U20" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
-      <c r="Z20" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z20" s="18"/>
       <c r="AA20" s="18"/>
-      <c r="AB20" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB20" s="18"/>
       <c r="AC20" s="18"/>
-      <c r="AD20" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD20" s="18"/>
       <c r="AE20" s="18"/>
-      <c r="AG20" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH20" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI20" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ20" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
       <c r="AK20" s="15"/>
       <c r="AL20" s="15"/>
       <c r="AM20" s="15"/>
@@ -7199,7 +7037,7 @@
         <v>0.29053199999999996</v>
       </c>
       <c r="O21" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P21" s="41">
         <v>2.3650000000000002</v>
@@ -7209,36 +7047,24 @@
       </c>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
+      <c r="T21" s="15">
+        <v>9</v>
+      </c>
+      <c r="U21" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V21" s="15"/>
       <c r="W21" s="15"/>
       <c r="X21" s="65"/>
       <c r="Y21" s="65"/>
-      <c r="Z21" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z21" s="18"/>
       <c r="AA21" s="18"/>
-      <c r="AB21" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB21" s="18"/>
       <c r="AC21" s="18"/>
-      <c r="AD21" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD21" s="18"/>
       <c r="AE21" s="18"/>
-      <c r="AG21" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH21" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI21" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ21" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
       <c r="AK21" s="15"/>
       <c r="AL21" s="15"/>
       <c r="AM21" s="15"/>
@@ -7307,7 +7133,7 @@
         <v>0.271476</v>
       </c>
       <c r="O22" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P22" s="41">
         <v>2.2879999999999998</v>
@@ -7317,36 +7143,24 @@
       </c>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
+      <c r="T22" s="15">
+        <v>9</v>
+      </c>
+      <c r="U22" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
-      <c r="Z22" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z22" s="18"/>
       <c r="AA22" s="18"/>
-      <c r="AB22" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB22" s="18"/>
       <c r="AC22" s="18"/>
-      <c r="AD22" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD22" s="18"/>
       <c r="AE22" s="18"/>
-      <c r="AG22" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH22" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI22" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ22" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
       <c r="AK22" s="15"/>
       <c r="AL22" s="15"/>
       <c r="AM22" s="15"/>
@@ -7415,7 +7229,7 @@
         <v>0.25354100000000002</v>
       </c>
       <c r="O23" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P23" s="41">
         <v>2.6</v>
@@ -7425,36 +7239,24 @@
       </c>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
+      <c r="T23" s="15">
+        <v>9</v>
+      </c>
+      <c r="U23" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V23" s="15"/>
       <c r="W23" s="15"/>
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
-      <c r="Z23" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z23" s="18"/>
       <c r="AA23" s="18"/>
-      <c r="AB23" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB23" s="18"/>
       <c r="AC23" s="18"/>
-      <c r="AD23" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD23" s="18"/>
       <c r="AE23" s="18"/>
-      <c r="AG23" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH23" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI23" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ23" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
       <c r="AK23" s="15"/>
       <c r="AL23" s="15"/>
       <c r="AM23" s="15"/>
@@ -7523,7 +7325,7 @@
         <v>0.18111199999999997</v>
       </c>
       <c r="O24" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P24" s="41">
         <v>3.153</v>
@@ -7533,36 +7335,24 @@
       </c>
       <c r="R24" s="56"/>
       <c r="S24" s="56"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
+      <c r="T24" s="15">
+        <v>9</v>
+      </c>
+      <c r="U24" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V24" s="56"/>
       <c r="W24" s="56"/>
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
-      <c r="Z24" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z24" s="18"/>
       <c r="AA24" s="18"/>
-      <c r="AB24" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
-      <c r="AD24" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD24" s="18"/>
       <c r="AE24" s="58"/>
-      <c r="AG24" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH24" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI24" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ24" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
       <c r="AK24" s="56"/>
       <c r="AL24" s="56"/>
       <c r="AM24" s="56"/>
@@ -7631,7 +7421,7 @@
         <v>0.26766299999999998</v>
       </c>
       <c r="O25" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P25" s="41">
         <v>2.6509999999999998</v>
@@ -7641,36 +7431,24 @@
       </c>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
+      <c r="T25" s="15">
+        <v>9</v>
+      </c>
+      <c r="U25" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V25" s="15"/>
       <c r="W25" s="15"/>
       <c r="X25" s="65"/>
       <c r="Y25" s="65"/>
-      <c r="Z25" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z25" s="18"/>
       <c r="AA25" s="18"/>
-      <c r="AB25" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB25" s="18"/>
       <c r="AC25" s="18"/>
-      <c r="AD25" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD25" s="18"/>
       <c r="AE25" s="18"/>
-      <c r="AG25" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH25" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI25" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ25" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
       <c r="AK25" s="15"/>
       <c r="AL25" s="15"/>
       <c r="AM25" s="15"/>
@@ -7739,7 +7517,7 @@
         <v>0.26874700000000001</v>
       </c>
       <c r="O26" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P26" s="41">
         <v>2.488</v>
@@ -7749,36 +7527,24 @@
       </c>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="21"/>
+      <c r="T26" s="15">
+        <v>9</v>
+      </c>
+      <c r="U26" s="21">
+        <v>7.0000000000000001E-3</v>
+      </c>
       <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
-      <c r="Z26" s="18">
-        <v>0.05</v>
-      </c>
+      <c r="Z26" s="18"/>
       <c r="AA26" s="18"/>
-      <c r="AB26" s="18">
-        <v>0.15000000000000002</v>
-      </c>
+      <c r="AB26" s="18"/>
       <c r="AC26" s="18"/>
-      <c r="AD26" s="18">
-        <v>0.25</v>
-      </c>
+      <c r="AD26" s="18"/>
       <c r="AE26" s="18"/>
-      <c r="AG26" s="19">
-        <v>15</v>
-      </c>
-      <c r="AH26" s="19">
-        <v>10</v>
-      </c>
-      <c r="AI26" s="15">
-        <v>9</v>
-      </c>
-      <c r="AJ26" s="21">
-        <v>7.0000000000000001E-3</v>
-      </c>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
       <c r="AK26" s="15"/>
       <c r="AL26" s="15"/>
       <c r="AM26" s="15"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750198A-010D-4196-AD60-E0365E6563D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E44C4-141F-496D-841F-B83D0ECA2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4743" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1083">
   <si>
     <t>№ скважины</t>
   </si>
@@ -4329,7 +4329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4529,65 +4529,11 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4596,13 +4542,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4624,17 +4564,10 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4656,66 +4589,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4753,12 +4626,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4768,7 +4635,129 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="381">
     <cellStyle name="Гиперссылка" xfId="41" builtinId="8"/>
@@ -5502,9 +5491,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BN377"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R15" sqref="R15"/>
+      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,206 +5521,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="105" t="s">
         <v>53</v>
       </c>
       <c r="B1" s="109" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="110" t="s">
+      <c r="D1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="110" t="s">
+      <c r="F1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="111" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="113" t="s">
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="107" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="110" t="s">
+      <c r="L1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="114" t="s">
+      <c r="M1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="114"/>
-      <c r="O1" s="115" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="115" t="s">
+      <c r="P1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="115" t="s">
+      <c r="Q1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="111" t="s">
+      <c r="R1" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="116" t="s">
+      <c r="T1" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="116"/>
-      <c r="V1" s="116" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="116"/>
-      <c r="X1" s="117" t="s">
+      <c r="W1" s="124"/>
+      <c r="X1" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="116" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="116"/>
-      <c r="AO1" s="116"/>
-      <c r="AP1" s="116"/>
-      <c r="AQ1" s="116"/>
-      <c r="AR1" s="116"/>
-      <c r="AS1" s="116" t="s">
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="116"/>
-      <c r="AU1" s="116"/>
-      <c r="AV1" s="116"/>
-      <c r="AW1" s="120" t="s">
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="134" t="s">
         <v>1048</v>
       </c>
-      <c r="AX1" s="121"/>
-      <c r="AY1" s="121"/>
-      <c r="AZ1" s="121"/>
-      <c r="BA1" s="121"/>
-      <c r="BB1" s="121"/>
-      <c r="BC1" s="121"/>
-      <c r="BD1" s="121"/>
-      <c r="BE1" s="121"/>
-      <c r="BF1" s="121"/>
-      <c r="BG1" s="122"/>
-      <c r="BH1" s="123" t="s">
+      <c r="AX1" s="135"/>
+      <c r="AY1" s="135"/>
+      <c r="AZ1" s="135"/>
+      <c r="BA1" s="135"/>
+      <c r="BB1" s="135"/>
+      <c r="BC1" s="135"/>
+      <c r="BD1" s="135"/>
+      <c r="BE1" s="135"/>
+      <c r="BF1" s="135"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="BI1" s="124" t="s">
+      <c r="BI1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="124" t="s">
+      <c r="BJ1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="124" t="s">
+      <c r="BK1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="125" t="s">
+      <c r="BL1" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="140" t="s">
+      <c r="BM1" s="103" t="s">
         <v>1077</v>
       </c>
-      <c r="BN1" s="140" t="s">
+      <c r="BN1" s="103" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="126"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="77"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="78"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="78"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="78"/>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="79"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="82"/>
-      <c r="AX2" s="83"/>
-      <c r="AY2" s="83"/>
-      <c r="AZ2" s="83"/>
-      <c r="BA2" s="83"/>
-      <c r="BB2" s="83"/>
-      <c r="BC2" s="83"/>
-      <c r="BD2" s="83"/>
-      <c r="BE2" s="83"/>
-      <c r="BF2" s="83"/>
-      <c r="BG2" s="84"/>
-      <c r="BH2" s="74"/>
-      <c r="BI2" s="68"/>
-      <c r="BJ2" s="68"/>
-      <c r="BK2" s="68"/>
-      <c r="BL2" s="127"/>
-      <c r="BM2" s="141"/>
-      <c r="BN2" s="141"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="139"/>
+      <c r="BH2" s="119"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="104"/>
     </row>
     <row r="3" spans="1:66" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="126"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5741,20 +5730,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="66"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5842,37 +5831,37 @@
       <c r="AV3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AW3" s="85" t="s">
+      <c r="AW3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="AX3" s="86" t="s">
+      <c r="AX3" s="140" t="s">
         <v>1050</v>
       </c>
-      <c r="AY3" s="86"/>
-      <c r="AZ3" s="87" t="s">
+      <c r="AY3" s="140"/>
+      <c r="AZ3" s="102" t="s">
         <v>1051</v>
       </c>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87" t="s">
+      <c r="BA3" s="102"/>
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102" t="s">
         <v>1052</v>
       </c>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="88" t="s">
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BH3" s="74"/>
-      <c r="BI3" s="68"/>
-      <c r="BJ3" s="68"/>
-      <c r="BK3" s="68"/>
-      <c r="BL3" s="127"/>
-      <c r="BM3" s="141"/>
-      <c r="BN3" s="141"/>
+      <c r="BH3" s="119"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="117"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
     </row>
     <row r="4" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="85" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -6014,37 +6003,37 @@
       <c r="AV4" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AW4" s="89" t="s">
+      <c r="AW4" s="70" t="s">
         <v>1054</v>
       </c>
-      <c r="AX4" s="89" t="s">
+      <c r="AX4" s="70" t="s">
         <v>1055</v>
       </c>
-      <c r="AY4" s="89" t="s">
+      <c r="AY4" s="70" t="s">
         <v>1056</v>
       </c>
-      <c r="AZ4" s="89" t="s">
+      <c r="AZ4" s="70" t="s">
         <v>1057</v>
       </c>
-      <c r="BA4" s="89" t="s">
+      <c r="BA4" s="70" t="s">
         <v>1058</v>
       </c>
-      <c r="BB4" s="89" t="s">
+      <c r="BB4" s="70" t="s">
         <v>1059</v>
       </c>
-      <c r="BC4" s="89" t="s">
+      <c r="BC4" s="70" t="s">
         <v>1060</v>
       </c>
-      <c r="BD4" s="89" t="s">
+      <c r="BD4" s="70" t="s">
         <v>1061</v>
       </c>
-      <c r="BE4" s="89" t="s">
+      <c r="BE4" s="70" t="s">
         <v>1062</v>
       </c>
-      <c r="BF4" s="89" t="s">
+      <c r="BF4" s="70" t="s">
         <v>1063</v>
       </c>
-      <c r="BG4" s="89" t="s">
+      <c r="BG4" s="70" t="s">
         <v>1064</v>
       </c>
       <c r="BH4" s="30"/>
@@ -6057,18 +6046,18 @@
       <c r="BK4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BL4" s="129" t="s">
+      <c r="BL4" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="BM4" s="143" t="s">
+      <c r="BM4" s="98" t="s">
         <v>1079</v>
       </c>
-      <c r="BN4" s="143" t="s">
+      <c r="BN4" s="98" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:66" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="85" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -6210,359 +6199,357 @@
       <c r="AV5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AW5" s="87" t="s">
+      <c r="AW5" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
       <c r="BH5" s="30"/>
       <c r="BI5" s="32"/>
       <c r="BJ5" s="32"/>
       <c r="BK5" s="32"/>
-      <c r="BL5" s="130"/>
-      <c r="BM5" s="142"/>
-      <c r="BN5" s="142"/>
+      <c r="BL5" s="87"/>
+      <c r="BM5" s="97"/>
+      <c r="BN5" s="97"/>
     </row>
     <row r="6" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="132" t="s">
+      <c r="C6" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="132" t="s">
+      <c r="D6" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="133" t="s">
+      <c r="E6" s="90" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="134" t="s">
+      <c r="F6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="132" t="s">
+      <c r="G6" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="134" t="s">
+      <c r="H6" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="134" t="s">
+      <c r="I6" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="134" t="s">
+      <c r="J6" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="134" t="s">
+      <c r="K6" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="134" t="s">
+      <c r="L6" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="135" t="s">
+      <c r="M6" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="135" t="s">
+      <c r="N6" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="135" t="s">
+      <c r="O6" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="135" t="s">
+      <c r="P6" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="135" t="s">
+      <c r="Q6" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="136" t="s">
+      <c r="R6" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="136" t="s">
+      <c r="S6" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="135" t="s">
+      <c r="T6" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="135" t="s">
+      <c r="U6" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="137" t="s">
+      <c r="V6" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="137" t="s">
+      <c r="W6" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="137"/>
-      <c r="Y6" s="137" t="s">
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94" t="s">
         <v>1042</v>
       </c>
-      <c r="Z6" s="137" t="s">
+      <c r="Z6" s="94" t="s">
         <v>1045</v>
       </c>
-      <c r="AA6" s="137" t="s">
+      <c r="AA6" s="94" t="s">
         <v>1047</v>
       </c>
-      <c r="AB6" s="137" t="s">
+      <c r="AB6" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="AC6" s="137" t="s">
+      <c r="AC6" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="AD6" s="137" t="s">
+      <c r="AD6" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="AE6" s="137" t="s">
+      <c r="AE6" s="94" t="s">
         <v>105</v>
       </c>
-      <c r="AF6" s="137" t="s">
+      <c r="AF6" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" s="137" t="s">
+      <c r="AG6" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="AH6" s="137" t="s">
+      <c r="AH6" s="94" t="s">
         <v>95</v>
       </c>
-      <c r="AI6" s="137" t="s">
+      <c r="AI6" s="94" t="s">
         <v>102</v>
       </c>
-      <c r="AJ6" s="137" t="s">
+      <c r="AJ6" s="94" t="s">
         <v>78</v>
       </c>
-      <c r="AK6" s="137" t="s">
+      <c r="AK6" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="AL6" s="137" t="s">
+      <c r="AL6" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="AM6" s="137" t="s">
+      <c r="AM6" s="94" t="s">
         <v>84</v>
       </c>
-      <c r="AN6" s="137" t="s">
+      <c r="AN6" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="AO6" s="137" t="s">
+      <c r="AO6" s="94" t="s">
         <v>86</v>
       </c>
-      <c r="AP6" s="137" t="s">
+      <c r="AP6" s="94" t="s">
         <v>97</v>
       </c>
-      <c r="AQ6" s="137" t="s">
+      <c r="AQ6" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="AR6" s="137" t="s">
+      <c r="AR6" s="94" t="s">
         <v>88</v>
       </c>
-      <c r="AS6" s="137" t="s">
+      <c r="AS6" s="94" t="s">
         <v>92</v>
       </c>
-      <c r="AT6" s="137" t="s">
+      <c r="AT6" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="AU6" s="137" t="s">
+      <c r="AU6" s="94" t="s">
         <v>94</v>
       </c>
-      <c r="AV6" s="137" t="s">
+      <c r="AV6" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="AW6" s="137" t="s">
+      <c r="AW6" s="94" t="s">
         <v>1066</v>
       </c>
-      <c r="AX6" s="137" t="s">
+      <c r="AX6" s="94" t="s">
         <v>1067</v>
       </c>
-      <c r="AY6" s="137" t="s">
+      <c r="AY6" s="94" t="s">
         <v>1068</v>
       </c>
-      <c r="AZ6" s="137" t="s">
+      <c r="AZ6" s="94" t="s">
         <v>1069</v>
       </c>
-      <c r="BA6" s="137" t="s">
+      <c r="BA6" s="94" t="s">
         <v>1070</v>
       </c>
-      <c r="BB6" s="137" t="s">
+      <c r="BB6" s="94" t="s">
         <v>1071</v>
       </c>
-      <c r="BC6" s="137" t="s">
+      <c r="BC6" s="94" t="s">
         <v>1072</v>
       </c>
-      <c r="BD6" s="137" t="s">
+      <c r="BD6" s="94" t="s">
         <v>1073</v>
       </c>
-      <c r="BE6" s="137" t="s">
+      <c r="BE6" s="94" t="s">
         <v>1074</v>
       </c>
-      <c r="BF6" s="137" t="s">
+      <c r="BF6" s="94" t="s">
         <v>1075</v>
       </c>
-      <c r="BG6" s="137" t="s">
+      <c r="BG6" s="94" t="s">
         <v>1076</v>
       </c>
-      <c r="BH6" s="134" t="s">
+      <c r="BH6" s="91" t="s">
         <v>49</v>
       </c>
-      <c r="BI6" s="138" t="s">
+      <c r="BI6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="BJ6" s="138" t="s">
+      <c r="BJ6" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="BK6" s="138" t="s">
+      <c r="BK6" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="BL6" s="139" t="s">
+      <c r="BL6" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="BM6" s="143" t="s">
+      <c r="BM6" s="98" t="s">
         <v>1079</v>
       </c>
-      <c r="BN6" s="143" t="s">
+      <c r="BN6" s="98" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="71">
         <v>1057</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="73" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="93">
+      <c r="D7" s="73">
         <v>1.7</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="95">
+      <c r="E7" s="74"/>
+      <c r="F7" s="75">
         <v>0.40666912199999999</v>
       </c>
-      <c r="G7" s="96">
+      <c r="G7" s="76">
         <v>2.7</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="76">
         <v>1.9</v>
       </c>
-      <c r="I7" s="96">
+      <c r="I7" s="76">
         <v>1.2440736578562646</v>
       </c>
-      <c r="J7" s="96">
+      <c r="J7" s="76">
         <v>53.923197857175388</v>
       </c>
-      <c r="K7" s="96">
-        <v>0.6</v>
-      </c>
-      <c r="L7" s="96">
+      <c r="K7" s="76">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7" s="76">
         <v>0.93823504956765735</v>
       </c>
-      <c r="M7" s="95">
+      <c r="M7" s="75">
         <v>0.39799999999999996</v>
       </c>
-      <c r="N7" s="95">
+      <c r="N7" s="75">
         <v>0.29227899999999996</v>
       </c>
-      <c r="O7" s="97"/>
-      <c r="P7" s="98">
+      <c r="O7" s="12"/>
+      <c r="P7" s="77">
         <v>1.0820000000000001</v>
       </c>
-      <c r="Q7" s="96">
+      <c r="Q7" s="76">
         <v>6.7349999999999993E-2</v>
       </c>
-      <c r="R7" s="99"/>
-      <c r="S7" s="99"/>
-      <c r="T7" s="100"/>
-      <c r="U7" s="100"/>
-      <c r="V7" s="80">
-        <v>10</v>
-      </c>
-      <c r="W7" s="80">
-        <v>5</v>
-      </c>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="81"/>
-      <c r="AC7" s="81"/>
-      <c r="AD7" s="81"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="81"/>
-      <c r="AG7" s="81"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="99"/>
-      <c r="AL7" s="101"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="99"/>
-      <c r="AO7" s="99"/>
-      <c r="AP7" s="99"/>
-      <c r="AQ7" s="102"/>
-      <c r="AR7" s="99"/>
-      <c r="AS7" s="99"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="99"/>
-      <c r="AV7" s="99"/>
-      <c r="AW7" s="145">
+      <c r="R7" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S7" s="78">
+        <v>2</v>
+      </c>
+      <c r="V7" s="66"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="67"/>
+      <c r="AE7" s="67"/>
+      <c r="AF7" s="67"/>
+      <c r="AG7" s="67"/>
+      <c r="AI7" s="66"/>
+      <c r="AJ7" s="66"/>
+      <c r="AK7" s="66"/>
+      <c r="AL7" s="66"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="78"/>
+      <c r="AP7" s="78"/>
+      <c r="AQ7" s="79"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="78"/>
+      <c r="AW7" s="17">
         <v>0</v>
       </c>
-      <c r="AX7" s="145">
+      <c r="AX7" s="17">
         <v>0</v>
       </c>
-      <c r="AY7" s="145">
+      <c r="AY7" s="17">
         <v>0</v>
       </c>
-      <c r="AZ7" s="145">
+      <c r="AZ7" s="17">
         <v>0</v>
       </c>
-      <c r="BA7" s="145">
+      <c r="BA7" s="17">
         <v>0</v>
       </c>
-      <c r="BB7" s="145">
+      <c r="BB7" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC7" s="145">
+      <c r="BC7" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD7" s="145">
+      <c r="BD7" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE7" s="145">
+      <c r="BE7" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF7" s="145">
+      <c r="BF7" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG7" s="145">
+      <c r="BG7" s="17">
         <v>6.95</v>
       </c>
-      <c r="BH7" s="103" t="s">
+      <c r="BH7" s="80" t="s">
         <v>280</v>
       </c>
-      <c r="BI7" s="104" t="s">
+      <c r="BI7" s="81" t="s">
         <v>281</v>
       </c>
-      <c r="BJ7" s="105" t="s">
+      <c r="BJ7" s="82" t="s">
         <v>282</v>
       </c>
-      <c r="BK7" s="106">
+      <c r="BK7" s="83">
         <v>44885</v>
       </c>
-      <c r="BL7" s="107" t="s">
+      <c r="BL7" s="84" t="s">
         <v>283</v>
       </c>
-      <c r="BM7" s="144" t="s">
+      <c r="BM7" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN7" s="144" t="s">
+      <c r="BN7" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6586,13 +6573,13 @@
       <c r="G8" s="40">
         <v>2.72</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="76">
         <v>1.9</v>
       </c>
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
-      <c r="K8" s="40">
-        <v>0.6</v>
+      <c r="K8" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L8" s="40"/>
       <c r="M8" s="37">
@@ -6606,30 +6593,28 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="Q8" s="40"/>
-      <c r="R8" s="15"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="80">
-        <v>11</v>
-      </c>
-      <c r="W8" s="80">
-        <v>6</v>
-      </c>
+      <c r="R8" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S8" s="78">
+        <v>3</v>
+      </c>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="18"/>
-      <c r="AC8" s="18"/>
-      <c r="AD8" s="18"/>
-      <c r="AE8" s="18"/>
-      <c r="AF8" s="18"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
       <c r="AG8" s="18"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="15"/>
-      <c r="AL8" s="21"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
@@ -6640,37 +6625,37 @@
       <c r="AT8" s="15"/>
       <c r="AU8" s="15"/>
       <c r="AV8" s="15"/>
-      <c r="AW8" s="145">
+      <c r="AW8" s="17">
         <v>0</v>
       </c>
-      <c r="AX8" s="145">
+      <c r="AX8" s="17">
         <v>0</v>
       </c>
-      <c r="AY8" s="145">
+      <c r="AY8" s="17">
         <v>0</v>
       </c>
-      <c r="AZ8" s="145">
+      <c r="AZ8" s="17">
         <v>0</v>
       </c>
-      <c r="BA8" s="145">
+      <c r="BA8" s="17">
         <v>0</v>
       </c>
-      <c r="BB8" s="145">
+      <c r="BB8" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC8" s="145">
+      <c r="BC8" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD8" s="145">
+      <c r="BD8" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE8" s="145">
+      <c r="BE8" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF8" s="145">
+      <c r="BF8" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG8" s="145">
+      <c r="BG8" s="17">
         <v>6.95</v>
       </c>
       <c r="BH8" s="34" t="s">
@@ -6688,10 +6673,10 @@
       <c r="BL8" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="BM8" s="144" t="s">
+      <c r="BM8" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN8" s="144" t="s">
+      <c r="BN8" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6715,13 +6700,13 @@
       <c r="G9" s="40">
         <v>2.74</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="76">
         <v>1.9</v>
       </c>
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
-      <c r="K9" s="40">
-        <v>0.6</v>
+      <c r="K9" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L9" s="40"/>
       <c r="M9" s="37">
@@ -6737,30 +6722,28 @@
       <c r="Q9" s="40">
         <v>9.8729999999999998E-2</v>
       </c>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="80">
-        <v>12</v>
-      </c>
-      <c r="W9" s="80">
-        <v>7</v>
-      </c>
+      <c r="R9" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S9" s="78">
+        <v>4</v>
+      </c>
+      <c r="V9" s="66"/>
+      <c r="W9" s="66"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18"/>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="67"/>
+      <c r="AE9" s="67"/>
+      <c r="AF9" s="67"/>
       <c r="AG9" s="18"/>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="15"/>
-      <c r="AL9" s="21"/>
+      <c r="AI9" s="66"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
+      <c r="AL9" s="66"/>
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
@@ -6771,37 +6754,37 @@
       <c r="AT9" s="15"/>
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
-      <c r="AW9" s="145">
+      <c r="AW9" s="17">
         <v>0</v>
       </c>
-      <c r="AX9" s="145">
+      <c r="AX9" s="17">
         <v>0</v>
       </c>
-      <c r="AY9" s="145">
+      <c r="AY9" s="17">
         <v>0</v>
       </c>
-      <c r="AZ9" s="145">
+      <c r="AZ9" s="17">
         <v>0</v>
       </c>
-      <c r="BA9" s="145">
+      <c r="BA9" s="17">
         <v>0</v>
       </c>
-      <c r="BB9" s="145">
+      <c r="BB9" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC9" s="145">
+      <c r="BC9" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD9" s="145">
+      <c r="BD9" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE9" s="145">
+      <c r="BE9" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF9" s="145">
+      <c r="BF9" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG9" s="145">
+      <c r="BG9" s="17">
         <v>6.95</v>
       </c>
       <c r="BH9" s="34" t="s">
@@ -6819,10 +6802,10 @@
       <c r="BL9" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="BM9" s="144" t="s">
+      <c r="BM9" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN9" s="144" t="s">
+      <c r="BN9" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6846,7 +6829,7 @@
       <c r="G10" s="40">
         <v>2.71</v>
       </c>
-      <c r="H10" s="96">
+      <c r="H10" s="76">
         <v>1.9</v>
       </c>
       <c r="I10" s="40">
@@ -6855,8 +6838,8 @@
       <c r="J10" s="40">
         <v>48.343575577258136</v>
       </c>
-      <c r="K10" s="40">
-        <v>0.6</v>
+      <c r="K10" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L10" s="40">
         <v>0.88969608269113865</v>
@@ -6874,30 +6857,28 @@
       <c r="Q10" s="40">
         <v>7.5109999999999996E-2</v>
       </c>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="80">
-        <v>13</v>
-      </c>
-      <c r="W10" s="80">
-        <v>8</v>
-      </c>
+      <c r="R10" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S10" s="78">
+        <v>5</v>
+      </c>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="18"/>
-      <c r="AD10" s="18"/>
-      <c r="AE10" s="18"/>
-      <c r="AF10" s="18"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="67"/>
+      <c r="AE10" s="67"/>
+      <c r="AF10" s="67"/>
       <c r="AG10" s="18"/>
-      <c r="AI10" s="19"/>
-      <c r="AJ10" s="19"/>
-      <c r="AK10" s="15"/>
-      <c r="AL10" s="21"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
@@ -6908,37 +6889,37 @@
       <c r="AT10" s="15"/>
       <c r="AU10" s="15"/>
       <c r="AV10" s="15"/>
-      <c r="AW10" s="145">
+      <c r="AW10" s="17">
         <v>0</v>
       </c>
-      <c r="AX10" s="145">
+      <c r="AX10" s="17">
         <v>0</v>
       </c>
-      <c r="AY10" s="145">
+      <c r="AY10" s="17">
         <v>0</v>
       </c>
-      <c r="AZ10" s="145">
+      <c r="AZ10" s="17">
         <v>0</v>
       </c>
-      <c r="BA10" s="145">
+      <c r="BA10" s="17">
         <v>0</v>
       </c>
-      <c r="BB10" s="145">
+      <c r="BB10" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC10" s="145">
+      <c r="BC10" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD10" s="145">
+      <c r="BD10" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE10" s="145">
+      <c r="BE10" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF10" s="145">
+      <c r="BF10" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG10" s="145">
+      <c r="BG10" s="17">
         <v>6.95</v>
       </c>
       <c r="BH10" s="34" t="s">
@@ -6956,10 +6937,10 @@
       <c r="BL10" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="BM10" s="144" t="s">
+      <c r="BM10" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN10" s="144" t="s">
+      <c r="BN10" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6983,13 +6964,13 @@
       <c r="G11" s="40">
         <v>2.73</v>
       </c>
-      <c r="H11" s="96">
+      <c r="H11" s="76">
         <v>1.9</v>
       </c>
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
-      <c r="K11" s="40">
-        <v>0.6</v>
+      <c r="K11" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L11" s="40"/>
       <c r="M11" s="37">
@@ -7005,30 +6986,28 @@
       <c r="Q11" s="40">
         <v>7.0250000000000007E-2</v>
       </c>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="80">
-        <v>14</v>
-      </c>
-      <c r="W11" s="80">
-        <v>9</v>
-      </c>
+      <c r="R11" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S11" s="78">
+        <v>6</v>
+      </c>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="18"/>
-      <c r="AC11" s="18"/>
-      <c r="AD11" s="18"/>
-      <c r="AE11" s="18"/>
-      <c r="AF11" s="18"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="67"/>
+      <c r="AE11" s="67"/>
+      <c r="AF11" s="67"/>
       <c r="AG11" s="18"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="15"/>
-      <c r="AL11" s="21"/>
+      <c r="AI11" s="66"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
+      <c r="AL11" s="66"/>
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
@@ -7039,37 +7018,37 @@
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
       <c r="AV11" s="15"/>
-      <c r="AW11" s="145">
+      <c r="AW11" s="17">
         <v>0</v>
       </c>
-      <c r="AX11" s="145">
+      <c r="AX11" s="17">
         <v>0</v>
       </c>
-      <c r="AY11" s="145">
+      <c r="AY11" s="17">
         <v>0</v>
       </c>
-      <c r="AZ11" s="145">
+      <c r="AZ11" s="17">
         <v>0</v>
       </c>
-      <c r="BA11" s="145">
+      <c r="BA11" s="17">
         <v>0</v>
       </c>
-      <c r="BB11" s="145">
+      <c r="BB11" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC11" s="145">
+      <c r="BC11" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD11" s="145">
+      <c r="BD11" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE11" s="145">
+      <c r="BE11" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF11" s="145">
+      <c r="BF11" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG11" s="145">
+      <c r="BG11" s="17">
         <v>6.95</v>
       </c>
       <c r="BH11" s="34" t="s">
@@ -7087,10 +7066,10 @@
       <c r="BL11" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="BM11" s="144" t="s">
+      <c r="BM11" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN11" s="144" t="s">
+      <c r="BN11" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7114,12 +7093,14 @@
       <c r="G12" s="40">
         <v>2.71</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="76">
         <v>1.9</v>
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="76">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L12" s="40"/>
       <c r="M12" s="37">
         <v>0.32799999999999996</v>
@@ -7136,30 +7117,28 @@
       <c r="Q12" s="40">
         <v>3.5180000000000003E-2</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="80">
-        <v>15</v>
-      </c>
-      <c r="W12" s="80">
-        <v>10</v>
-      </c>
+      <c r="R12" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S12" s="78">
+        <v>7</v>
+      </c>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="18"/>
-      <c r="AC12" s="18"/>
-      <c r="AD12" s="18"/>
-      <c r="AE12" s="18"/>
-      <c r="AF12" s="18"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="67"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
       <c r="AG12" s="18"/>
-      <c r="AI12" s="19"/>
-      <c r="AJ12" s="19"/>
-      <c r="AK12" s="15"/>
-      <c r="AL12" s="21"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="15"/>
@@ -7170,37 +7149,37 @@
       <c r="AT12" s="15"/>
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
-      <c r="AW12" s="145">
+      <c r="AW12" s="17">
         <v>0</v>
       </c>
-      <c r="AX12" s="145">
+      <c r="AX12" s="17">
         <v>0</v>
       </c>
-      <c r="AY12" s="145">
+      <c r="AY12" s="17">
         <v>0</v>
       </c>
-      <c r="AZ12" s="145">
+      <c r="AZ12" s="17">
         <v>0</v>
       </c>
-      <c r="BA12" s="145">
+      <c r="BA12" s="17">
         <v>0</v>
       </c>
-      <c r="BB12" s="145">
+      <c r="BB12" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC12" s="145">
+      <c r="BC12" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD12" s="145">
+      <c r="BD12" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE12" s="145">
+      <c r="BE12" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF12" s="145">
+      <c r="BF12" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG12" s="145">
+      <c r="BG12" s="17">
         <v>6.95</v>
       </c>
       <c r="BH12" s="34" t="s">
@@ -7218,10 +7197,10 @@
       <c r="BL12" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="BM12" s="144" t="s">
+      <c r="BM12" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN12" s="144" t="s">
+      <c r="BN12" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7245,7 +7224,7 @@
       <c r="G13" s="40">
         <v>2.7</v>
       </c>
-      <c r="H13" s="96">
+      <c r="H13" s="76">
         <v>1.9</v>
       </c>
       <c r="I13" s="40">
@@ -7254,8 +7233,8 @@
       <c r="J13" s="40">
         <v>49.108572257083878</v>
       </c>
-      <c r="K13" s="40">
-        <v>0.96496746967213132</v>
+      <c r="K13" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L13" s="40">
         <v>0.92841520326524429</v>
@@ -7275,30 +7254,28 @@
       <c r="Q13" s="40">
         <v>6.9349999999999995E-2</v>
       </c>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="80">
-        <v>16</v>
-      </c>
-      <c r="W13" s="80">
-        <v>11</v>
-      </c>
+      <c r="R13" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S13" s="78">
+        <v>8</v>
+      </c>
+      <c r="V13" s="66"/>
+      <c r="W13" s="66"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="18"/>
-      <c r="AC13" s="18"/>
-      <c r="AD13" s="18"/>
-      <c r="AE13" s="18"/>
-      <c r="AF13" s="18"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="67"/>
       <c r="AG13" s="18"/>
-      <c r="AI13" s="19"/>
-      <c r="AJ13" s="19"/>
-      <c r="AK13" s="15"/>
-      <c r="AL13" s="21"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
+      <c r="AL13" s="66"/>
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
@@ -7309,37 +7286,37 @@
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
-      <c r="AW13" s="145">
+      <c r="AW13" s="17">
         <v>0</v>
       </c>
-      <c r="AX13" s="145">
+      <c r="AX13" s="17">
         <v>0</v>
       </c>
-      <c r="AY13" s="145">
+      <c r="AY13" s="17">
         <v>0</v>
       </c>
-      <c r="AZ13" s="145">
+      <c r="AZ13" s="17">
         <v>0</v>
       </c>
-      <c r="BA13" s="145">
+      <c r="BA13" s="17">
         <v>0</v>
       </c>
-      <c r="BB13" s="145">
+      <c r="BB13" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC13" s="145">
+      <c r="BC13" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD13" s="145">
+      <c r="BD13" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE13" s="145">
+      <c r="BE13" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF13" s="145">
+      <c r="BF13" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG13" s="145">
+      <c r="BG13" s="17">
         <v>6.95</v>
       </c>
       <c r="BH13" s="34" t="s">
@@ -7357,10 +7334,10 @@
       <c r="BL13" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="BM13" s="144" t="s">
+      <c r="BM13" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN13" s="144" t="s">
+      <c r="BN13" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7384,7 +7361,7 @@
       <c r="G14" s="40">
         <v>2.7</v>
       </c>
-      <c r="H14" s="96">
+      <c r="H14" s="76">
         <v>1.9</v>
       </c>
       <c r="I14" s="40">
@@ -7393,8 +7370,8 @@
       <c r="J14" s="40">
         <v>54.412173119565985</v>
       </c>
-      <c r="K14" s="40">
-        <v>1.1935680387283236</v>
+      <c r="K14" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L14" s="40">
         <v>0.91731067812985534</v>
@@ -7414,30 +7391,28 @@
       <c r="Q14" s="40">
         <v>4.317E-2</v>
       </c>
-      <c r="R14" s="15"/>
-      <c r="S14" s="15"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="80">
-        <v>17</v>
-      </c>
-      <c r="W14" s="80">
-        <v>12</v>
-      </c>
+      <c r="R14" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S14" s="78">
+        <v>9</v>
+      </c>
+      <c r="V14" s="66"/>
+      <c r="W14" s="66"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
-      <c r="AB14" s="18"/>
-      <c r="AC14" s="18"/>
-      <c r="AD14" s="18"/>
-      <c r="AE14" s="18"/>
-      <c r="AF14" s="18"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="67"/>
       <c r="AG14" s="18"/>
-      <c r="AI14" s="19"/>
-      <c r="AJ14" s="19"/>
-      <c r="AK14" s="15"/>
-      <c r="AL14" s="21"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
+      <c r="AL14" s="66"/>
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
@@ -7448,37 +7423,37 @@
       <c r="AT14" s="15"/>
       <c r="AU14" s="15"/>
       <c r="AV14" s="15"/>
-      <c r="AW14" s="145">
+      <c r="AW14" s="17">
         <v>0</v>
       </c>
-      <c r="AX14" s="145">
+      <c r="AX14" s="17">
         <v>0</v>
       </c>
-      <c r="AY14" s="145">
+      <c r="AY14" s="17">
         <v>0</v>
       </c>
-      <c r="AZ14" s="145">
+      <c r="AZ14" s="17">
         <v>0</v>
       </c>
-      <c r="BA14" s="145">
+      <c r="BA14" s="17">
         <v>0</v>
       </c>
-      <c r="BB14" s="145">
+      <c r="BB14" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC14" s="145">
+      <c r="BC14" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD14" s="145">
+      <c r="BD14" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE14" s="145">
+      <c r="BE14" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF14" s="145">
+      <c r="BF14" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG14" s="145">
+      <c r="BG14" s="17">
         <v>6.95</v>
       </c>
       <c r="BH14" s="34" t="s">
@@ -7496,10 +7471,10 @@
       <c r="BL14" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="BM14" s="144" t="s">
+      <c r="BM14" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN14" s="144" t="s">
+      <c r="BN14" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7523,12 +7498,14 @@
       <c r="G15" s="40">
         <v>2.72</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="76">
         <v>1.9</v>
       </c>
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
+      <c r="K15" s="76">
+        <v>1.1000000000000001</v>
+      </c>
       <c r="L15" s="40"/>
       <c r="M15" s="37">
         <v>0.33</v>
@@ -7545,30 +7522,28 @@
       <c r="Q15" s="40">
         <v>4.8779999999999997E-2</v>
       </c>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="80">
-        <v>18</v>
-      </c>
-      <c r="W15" s="80">
-        <v>13</v>
-      </c>
+      <c r="R15" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S15" s="78">
+        <v>10</v>
+      </c>
+      <c r="V15" s="66"/>
+      <c r="W15" s="66"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="18"/>
-      <c r="AE15" s="18"/>
-      <c r="AF15" s="18"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
       <c r="AG15" s="18"/>
-      <c r="AI15" s="19"/>
-      <c r="AJ15" s="19"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="21"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
+      <c r="AL15" s="66"/>
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
@@ -7579,37 +7554,37 @@
       <c r="AT15" s="15"/>
       <c r="AU15" s="15"/>
       <c r="AV15" s="15"/>
-      <c r="AW15" s="145">
+      <c r="AW15" s="17">
         <v>0</v>
       </c>
-      <c r="AX15" s="145">
+      <c r="AX15" s="17">
         <v>0</v>
       </c>
-      <c r="AY15" s="145">
+      <c r="AY15" s="17">
         <v>0</v>
       </c>
-      <c r="AZ15" s="145">
+      <c r="AZ15" s="17">
         <v>0</v>
       </c>
-      <c r="BA15" s="145">
+      <c r="BA15" s="17">
         <v>0</v>
       </c>
-      <c r="BB15" s="145">
+      <c r="BB15" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC15" s="145">
+      <c r="BC15" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD15" s="145">
+      <c r="BD15" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE15" s="145">
+      <c r="BE15" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF15" s="145">
+      <c r="BF15" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG15" s="145">
+      <c r="BG15" s="17">
         <v>6.95</v>
       </c>
       <c r="BH15" s="34" t="s">
@@ -7627,10 +7602,10 @@
       <c r="BL15" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="BM15" s="144" t="s">
+      <c r="BM15" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN15" s="144" t="s">
+      <c r="BN15" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7654,7 +7629,7 @@
       <c r="G16" s="40">
         <v>2.71</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="76">
         <v>1.9</v>
       </c>
       <c r="I16" s="40">
@@ -7663,8 +7638,8 @@
       <c r="J16" s="40">
         <v>53.679359305200038</v>
       </c>
-      <c r="K16" s="40">
-        <v>1.158864784683908</v>
+      <c r="K16" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L16" s="40">
         <v>0.90297396139742281</v>
@@ -7684,30 +7659,28 @@
       <c r="Q16" s="40">
         <v>6.6449999999999995E-2</v>
       </c>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="80">
-        <v>19</v>
-      </c>
-      <c r="W16" s="80">
-        <v>14</v>
-      </c>
+      <c r="R16" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S16" s="78">
+        <v>11</v>
+      </c>
+      <c r="V16" s="66"/>
+      <c r="W16" s="66"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="67"/>
       <c r="AG16" s="18"/>
-      <c r="AI16" s="19"/>
-      <c r="AJ16" s="19"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="21"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
+      <c r="AL16" s="66"/>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
@@ -7718,37 +7691,37 @@
       <c r="AT16" s="15"/>
       <c r="AU16" s="15"/>
       <c r="AV16" s="15"/>
-      <c r="AW16" s="145">
+      <c r="AW16" s="17">
         <v>0</v>
       </c>
-      <c r="AX16" s="145">
+      <c r="AX16" s="17">
         <v>0</v>
       </c>
-      <c r="AY16" s="145">
+      <c r="AY16" s="17">
         <v>0</v>
       </c>
-      <c r="AZ16" s="145">
+      <c r="AZ16" s="17">
         <v>0</v>
       </c>
-      <c r="BA16" s="145">
+      <c r="BA16" s="17">
         <v>0</v>
       </c>
-      <c r="BB16" s="145">
+      <c r="BB16" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC16" s="145">
+      <c r="BC16" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD16" s="145">
+      <c r="BD16" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE16" s="145">
+      <c r="BE16" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF16" s="145">
+      <c r="BF16" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG16" s="145">
+      <c r="BG16" s="17">
         <v>6.95</v>
       </c>
       <c r="BH16" s="34" t="s">
@@ -7766,10 +7739,10 @@
       <c r="BL16" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="BM16" s="144" t="s">
+      <c r="BM16" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN16" s="144" t="s">
+      <c r="BN16" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7793,7 +7766,7 @@
       <c r="G17" s="40">
         <v>2.7</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="76">
         <v>1.9</v>
       </c>
       <c r="I17" s="40">
@@ -7802,8 +7775,8 @@
       <c r="J17" s="40">
         <v>51.538646308481326</v>
       </c>
-      <c r="K17" s="40">
-        <v>1.0634999310285715</v>
+      <c r="K17" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L17" s="40">
         <v>0.85672302622417584</v>
@@ -7823,30 +7796,28 @@
       <c r="Q17" s="40">
         <v>8.974E-2</v>
       </c>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="80">
-        <v>20</v>
-      </c>
-      <c r="W17" s="80">
-        <v>15</v>
-      </c>
+      <c r="R17" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S17" s="78">
+        <v>12</v>
+      </c>
+      <c r="V17" s="66"/>
+      <c r="W17" s="66"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="18"/>
-      <c r="AC17" s="18"/>
-      <c r="AD17" s="18"/>
-      <c r="AE17" s="18"/>
-      <c r="AF17" s="18"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="67"/>
       <c r="AG17" s="18"/>
-      <c r="AI17" s="19"/>
-      <c r="AJ17" s="19"/>
-      <c r="AK17" s="15"/>
-      <c r="AL17" s="21"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
+      <c r="AL17" s="66"/>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
@@ -7857,37 +7828,37 @@
       <c r="AT17" s="15"/>
       <c r="AU17" s="15"/>
       <c r="AV17" s="15"/>
-      <c r="AW17" s="145">
+      <c r="AW17" s="17">
         <v>0</v>
       </c>
-      <c r="AX17" s="145">
+      <c r="AX17" s="17">
         <v>0</v>
       </c>
-      <c r="AY17" s="145">
+      <c r="AY17" s="17">
         <v>0</v>
       </c>
-      <c r="AZ17" s="145">
+      <c r="AZ17" s="17">
         <v>0</v>
       </c>
-      <c r="BA17" s="145">
+      <c r="BA17" s="17">
         <v>0</v>
       </c>
-      <c r="BB17" s="145">
+      <c r="BB17" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC17" s="145">
+      <c r="BC17" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD17" s="145">
+      <c r="BD17" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE17" s="145">
+      <c r="BE17" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF17" s="145">
+      <c r="BF17" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG17" s="145">
+      <c r="BG17" s="17">
         <v>6.95</v>
       </c>
       <c r="BH17" s="34" t="s">
@@ -7905,10 +7876,10 @@
       <c r="BL17" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="BM17" s="144" t="s">
+      <c r="BM17" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN17" s="144" t="s">
+      <c r="BN17" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7932,7 +7903,7 @@
       <c r="G18" s="40">
         <v>2.74</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="76">
         <v>1.9</v>
       </c>
       <c r="I18" s="40" t="s">
@@ -7941,8 +7912,8 @@
       <c r="J18" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K18" s="40" t="s">
-        <v>120</v>
+      <c r="K18" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L18" s="40" t="s">
         <v>120</v>
@@ -7962,30 +7933,28 @@
       <c r="Q18" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="80">
-        <v>21</v>
-      </c>
-      <c r="W18" s="80">
-        <v>16</v>
-      </c>
+      <c r="R18" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S18" s="78">
+        <v>13</v>
+      </c>
+      <c r="V18" s="66"/>
+      <c r="W18" s="66"/>
       <c r="X18" s="65"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="65"/>
       <c r="AA18" s="65"/>
-      <c r="AB18" s="18"/>
-      <c r="AC18" s="18"/>
-      <c r="AD18" s="18"/>
-      <c r="AE18" s="18"/>
-      <c r="AF18" s="18"/>
+      <c r="AB18" s="67"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="67"/>
       <c r="AG18" s="18"/>
-      <c r="AI18" s="19"/>
-      <c r="AJ18" s="19"/>
-      <c r="AK18" s="15"/>
-      <c r="AL18" s="21"/>
+      <c r="AI18" s="66"/>
+      <c r="AJ18" s="66"/>
+      <c r="AK18" s="66"/>
+      <c r="AL18" s="66"/>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
@@ -7996,37 +7965,37 @@
       <c r="AT18" s="15"/>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
-      <c r="AW18" s="145">
+      <c r="AW18" s="17">
         <v>0</v>
       </c>
-      <c r="AX18" s="145">
+      <c r="AX18" s="17">
         <v>0</v>
       </c>
-      <c r="AY18" s="145">
+      <c r="AY18" s="17">
         <v>0</v>
       </c>
-      <c r="AZ18" s="145">
+      <c r="AZ18" s="17">
         <v>0</v>
       </c>
-      <c r="BA18" s="145">
+      <c r="BA18" s="17">
         <v>0</v>
       </c>
-      <c r="BB18" s="145">
+      <c r="BB18" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC18" s="145">
+      <c r="BC18" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD18" s="145">
+      <c r="BD18" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE18" s="145">
+      <c r="BE18" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF18" s="145">
+      <c r="BF18" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG18" s="145">
+      <c r="BG18" s="17">
         <v>6.95</v>
       </c>
       <c r="BH18" s="34" t="s">
@@ -8044,10 +8013,10 @@
       <c r="BL18" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="BM18" s="144" t="s">
+      <c r="BM18" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN18" s="144" t="s">
+      <c r="BN18" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8071,7 +8040,7 @@
       <c r="G19" s="40">
         <v>2.72</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="76">
         <v>1.9</v>
       </c>
       <c r="I19" s="40" t="s">
@@ -8080,8 +8049,8 @@
       <c r="J19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="40" t="s">
-        <v>120</v>
+      <c r="K19" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L19" s="40" t="s">
         <v>120</v>
@@ -8101,30 +8070,28 @@
       <c r="Q19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="80">
-        <v>22</v>
-      </c>
-      <c r="W19" s="80">
-        <v>17</v>
-      </c>
+      <c r="R19" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S19" s="78">
+        <v>14</v>
+      </c>
+      <c r="V19" s="66"/>
+      <c r="W19" s="66"/>
       <c r="X19" s="65"/>
       <c r="Y19" s="65"/>
       <c r="Z19" s="65"/>
       <c r="AA19" s="65"/>
-      <c r="AB19" s="18"/>
-      <c r="AC19" s="18"/>
-      <c r="AD19" s="18"/>
-      <c r="AE19" s="18"/>
-      <c r="AF19" s="18"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="67"/>
       <c r="AG19" s="18"/>
-      <c r="AI19" s="19"/>
-      <c r="AJ19" s="19"/>
-      <c r="AK19" s="15"/>
-      <c r="AL19" s="21"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66"/>
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
@@ -8135,37 +8102,37 @@
       <c r="AT19" s="15"/>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
-      <c r="AW19" s="145">
+      <c r="AW19" s="17">
         <v>0</v>
       </c>
-      <c r="AX19" s="145">
+      <c r="AX19" s="17">
         <v>0</v>
       </c>
-      <c r="AY19" s="145">
+      <c r="AY19" s="17">
         <v>0</v>
       </c>
-      <c r="AZ19" s="145">
+      <c r="AZ19" s="17">
         <v>0</v>
       </c>
-      <c r="BA19" s="145">
+      <c r="BA19" s="17">
         <v>0</v>
       </c>
-      <c r="BB19" s="145">
+      <c r="BB19" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC19" s="145">
+      <c r="BC19" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD19" s="145">
+      <c r="BD19" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE19" s="145">
+      <c r="BE19" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF19" s="145">
+      <c r="BF19" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG19" s="145">
+      <c r="BG19" s="17">
         <v>6.95</v>
       </c>
       <c r="BH19" s="34" t="s">
@@ -8183,10 +8150,10 @@
       <c r="BL19" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="BM19" s="144" t="s">
+      <c r="BM19" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN19" s="144" t="s">
+      <c r="BN19" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8210,7 +8177,7 @@
       <c r="G20" s="40">
         <v>2.7</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="76">
         <v>1.9</v>
       </c>
       <c r="I20" s="40" t="s">
@@ -8219,8 +8186,8 @@
       <c r="J20" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K20" s="40" t="s">
-        <v>120</v>
+      <c r="K20" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L20" s="40" t="s">
         <v>120</v>
@@ -8240,30 +8207,28 @@
       <c r="Q20" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="80">
-        <v>23</v>
-      </c>
-      <c r="W20" s="80">
-        <v>18</v>
-      </c>
+      <c r="R20" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S20" s="78">
+        <v>15</v>
+      </c>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
       <c r="AA20" s="65"/>
-      <c r="AB20" s="18"/>
-      <c r="AC20" s="18"/>
-      <c r="AD20" s="18"/>
-      <c r="AE20" s="18"/>
-      <c r="AF20" s="18"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="67"/>
       <c r="AG20" s="18"/>
-      <c r="AI20" s="19"/>
-      <c r="AJ20" s="19"/>
-      <c r="AK20" s="15"/>
-      <c r="AL20" s="21"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66"/>
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
@@ -8274,37 +8239,37 @@
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
-      <c r="AW20" s="145">
+      <c r="AW20" s="17">
         <v>0</v>
       </c>
-      <c r="AX20" s="145">
+      <c r="AX20" s="17">
         <v>0</v>
       </c>
-      <c r="AY20" s="145">
+      <c r="AY20" s="17">
         <v>0</v>
       </c>
-      <c r="AZ20" s="145">
+      <c r="AZ20" s="17">
         <v>0</v>
       </c>
-      <c r="BA20" s="145">
+      <c r="BA20" s="17">
         <v>0</v>
       </c>
-      <c r="BB20" s="145">
+      <c r="BB20" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC20" s="145">
+      <c r="BC20" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD20" s="145">
+      <c r="BD20" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE20" s="145">
+      <c r="BE20" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF20" s="145">
+      <c r="BF20" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG20" s="145">
+      <c r="BG20" s="17">
         <v>6.95</v>
       </c>
       <c r="BH20" s="34" t="s">
@@ -8322,10 +8287,10 @@
       <c r="BL20" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="BM20" s="144" t="s">
+      <c r="BM20" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN20" s="144" t="s">
+      <c r="BN20" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8349,7 +8314,7 @@
       <c r="G21" s="40">
         <v>2.73</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="76">
         <v>1.9</v>
       </c>
       <c r="I21" s="40">
@@ -8358,8 +8323,8 @@
       <c r="J21" s="40">
         <v>64.155409629210837</v>
       </c>
-      <c r="K21" s="40">
-        <v>1.7898212523999999</v>
+      <c r="K21" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L21" s="40">
         <v>0.81278053696665342</v>
@@ -8379,30 +8344,28 @@
       <c r="Q21" s="40">
         <v>7.1940000000000004E-2</v>
       </c>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="80">
-        <v>24</v>
-      </c>
-      <c r="W21" s="80">
-        <v>19</v>
-      </c>
+      <c r="R21" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S21" s="78">
+        <v>16</v>
+      </c>
+      <c r="V21" s="66"/>
+      <c r="W21" s="66"/>
       <c r="X21" s="65"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
-      <c r="AB21" s="18"/>
-      <c r="AC21" s="18"/>
-      <c r="AD21" s="18"/>
-      <c r="AE21" s="18"/>
-      <c r="AF21" s="18"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
       <c r="AG21" s="18"/>
-      <c r="AI21" s="19"/>
-      <c r="AJ21" s="19"/>
-      <c r="AK21" s="15"/>
-      <c r="AL21" s="21"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="66"/>
+      <c r="AL21" s="66"/>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
@@ -8413,37 +8376,37 @@
       <c r="AT21" s="15"/>
       <c r="AU21" s="15"/>
       <c r="AV21" s="15"/>
-      <c r="AW21" s="145">
+      <c r="AW21" s="17">
         <v>0</v>
       </c>
-      <c r="AX21" s="145">
+      <c r="AX21" s="17">
         <v>0</v>
       </c>
-      <c r="AY21" s="145">
+      <c r="AY21" s="17">
         <v>0</v>
       </c>
-      <c r="AZ21" s="145">
+      <c r="AZ21" s="17">
         <v>0</v>
       </c>
-      <c r="BA21" s="145">
+      <c r="BA21" s="17">
         <v>0</v>
       </c>
-      <c r="BB21" s="145">
+      <c r="BB21" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC21" s="145">
+      <c r="BC21" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD21" s="145">
+      <c r="BD21" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE21" s="145">
+      <c r="BE21" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF21" s="145">
+      <c r="BF21" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG21" s="145">
+      <c r="BG21" s="17">
         <v>6.95</v>
       </c>
       <c r="BH21" s="34" t="s">
@@ -8461,10 +8424,10 @@
       <c r="BL21" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="BM21" s="144" t="s">
+      <c r="BM21" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN21" s="144" t="s">
+      <c r="BN21" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8488,7 +8451,7 @@
       <c r="G22" s="40">
         <v>2.72</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="76">
         <v>1.9</v>
       </c>
       <c r="I22" s="40">
@@ -8497,8 +8460,8 @@
       <c r="J22" s="40">
         <v>61.918325124675079</v>
       </c>
-      <c r="K22" s="40">
-        <v>1.6259349234871794</v>
+      <c r="K22" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L22" s="40">
         <v>0.84656431248052544</v>
@@ -8518,30 +8481,28 @@
       <c r="Q22" s="40">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="80">
-        <v>25</v>
-      </c>
-      <c r="W22" s="80">
-        <v>20</v>
-      </c>
+      <c r="R22" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S22" s="78">
+        <v>17</v>
+      </c>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
       <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="18"/>
+      <c r="AB22" s="67"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="67"/>
       <c r="AG22" s="18"/>
-      <c r="AI22" s="19"/>
-      <c r="AJ22" s="19"/>
-      <c r="AK22" s="15"/>
-      <c r="AL22" s="21"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="66"/>
+      <c r="AK22" s="66"/>
+      <c r="AL22" s="66"/>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
@@ -8552,37 +8513,37 @@
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
       <c r="AV22" s="15"/>
-      <c r="AW22" s="145">
+      <c r="AW22" s="17">
         <v>0</v>
       </c>
-      <c r="AX22" s="145">
+      <c r="AX22" s="17">
         <v>0</v>
       </c>
-      <c r="AY22" s="145">
+      <c r="AY22" s="17">
         <v>0</v>
       </c>
-      <c r="AZ22" s="145">
+      <c r="AZ22" s="17">
         <v>0</v>
       </c>
-      <c r="BA22" s="145">
+      <c r="BA22" s="17">
         <v>0</v>
       </c>
-      <c r="BB22" s="145">
+      <c r="BB22" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC22" s="145">
+      <c r="BC22" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD22" s="145">
+      <c r="BD22" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE22" s="145">
+      <c r="BE22" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF22" s="145">
+      <c r="BF22" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG22" s="145">
+      <c r="BG22" s="17">
         <v>6.95</v>
       </c>
       <c r="BH22" s="34" t="s">
@@ -8600,10 +8561,10 @@
       <c r="BL22" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="BM22" s="144" t="s">
+      <c r="BM22" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN22" s="144" t="s">
+      <c r="BN22" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8627,7 +8588,7 @@
       <c r="G23" s="40">
         <v>2.7</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H23" s="76">
         <v>1.9</v>
       </c>
       <c r="I23" s="40">
@@ -8636,8 +8597,8 @@
       <c r="J23" s="40">
         <v>59.869048816293521</v>
       </c>
-      <c r="K23" s="40">
-        <v>1.491842257668712</v>
+      <c r="K23" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L23" s="40">
         <v>0.9127659931874571</v>
@@ -8657,30 +8618,28 @@
       <c r="Q23" s="40">
         <v>7.5719999999999996E-2</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="80">
-        <v>26</v>
-      </c>
-      <c r="W23" s="80">
-        <v>21</v>
-      </c>
+      <c r="R23" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S23" s="78">
+        <v>18</v>
+      </c>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="18"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
       <c r="AG23" s="18"/>
-      <c r="AI23" s="19"/>
-      <c r="AJ23" s="19"/>
-      <c r="AK23" s="15"/>
-      <c r="AL23" s="21"/>
+      <c r="AI23" s="66"/>
+      <c r="AJ23" s="66"/>
+      <c r="AK23" s="66"/>
+      <c r="AL23" s="66"/>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
@@ -8691,37 +8650,37 @@
       <c r="AT23" s="15"/>
       <c r="AU23" s="15"/>
       <c r="AV23" s="15"/>
-      <c r="AW23" s="145">
+      <c r="AW23" s="17">
         <v>0</v>
       </c>
-      <c r="AX23" s="145">
+      <c r="AX23" s="17">
         <v>0</v>
       </c>
-      <c r="AY23" s="145">
+      <c r="AY23" s="17">
         <v>0</v>
       </c>
-      <c r="AZ23" s="145">
+      <c r="AZ23" s="17">
         <v>0</v>
       </c>
-      <c r="BA23" s="145">
+      <c r="BA23" s="17">
         <v>0</v>
       </c>
-      <c r="BB23" s="145">
+      <c r="BB23" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC23" s="145">
+      <c r="BC23" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD23" s="145">
+      <c r="BD23" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE23" s="145">
+      <c r="BE23" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF23" s="145">
+      <c r="BF23" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG23" s="145">
+      <c r="BG23" s="17">
         <v>6.95</v>
       </c>
       <c r="BH23" s="34" t="s">
@@ -8739,10 +8698,10 @@
       <c r="BL23" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="BM23" s="144" t="s">
+      <c r="BM23" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN23" s="144" t="s">
+      <c r="BN23" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8766,7 +8725,7 @@
       <c r="G24" s="55">
         <v>2.73</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="76">
         <v>1.9</v>
       </c>
       <c r="I24" s="55">
@@ -8775,8 +8734,8 @@
       <c r="J24" s="55">
         <v>64.504372428364405</v>
       </c>
-      <c r="K24" s="55">
-        <v>1.817248400473684</v>
+      <c r="K24" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L24" s="55">
         <v>0.85415817029493535</v>
@@ -8796,30 +8755,28 @@
       <c r="Q24" s="55">
         <v>3.134E-2</v>
       </c>
-      <c r="R24" s="56"/>
-      <c r="S24" s="56"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="80">
-        <v>27</v>
-      </c>
-      <c r="W24" s="80">
-        <v>22</v>
-      </c>
+      <c r="R24" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S24" s="78">
+        <v>19</v>
+      </c>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
       <c r="AA24" s="65"/>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="18"/>
-      <c r="AD24" s="18"/>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="18"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
       <c r="AG24" s="58"/>
-      <c r="AI24" s="19"/>
-      <c r="AJ24" s="19"/>
-      <c r="AK24" s="15"/>
-      <c r="AL24" s="21"/>
+      <c r="AI24" s="66"/>
+      <c r="AJ24" s="66"/>
+      <c r="AK24" s="66"/>
+      <c r="AL24" s="66"/>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
@@ -8830,37 +8787,37 @@
       <c r="AT24" s="56"/>
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
-      <c r="AW24" s="145">
+      <c r="AW24" s="17">
         <v>0</v>
       </c>
-      <c r="AX24" s="145">
+      <c r="AX24" s="17">
         <v>0</v>
       </c>
-      <c r="AY24" s="145">
+      <c r="AY24" s="17">
         <v>0</v>
       </c>
-      <c r="AZ24" s="145">
+      <c r="AZ24" s="17">
         <v>0</v>
       </c>
-      <c r="BA24" s="145">
+      <c r="BA24" s="17">
         <v>0</v>
       </c>
-      <c r="BB24" s="145">
+      <c r="BB24" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC24" s="145">
+      <c r="BC24" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD24" s="145">
+      <c r="BD24" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE24" s="145">
+      <c r="BE24" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF24" s="145">
+      <c r="BF24" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG24" s="145">
+      <c r="BG24" s="17">
         <v>6.95</v>
       </c>
       <c r="BH24" s="34" t="s">
@@ -8878,10 +8835,10 @@
       <c r="BL24" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="BM24" s="144" t="s">
+      <c r="BM24" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN24" s="144" t="s">
+      <c r="BN24" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8905,7 +8862,7 @@
       <c r="G25" s="40">
         <v>2.72</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H25" s="76">
         <v>1.9</v>
       </c>
       <c r="I25" s="40">
@@ -8914,8 +8871,8 @@
       <c r="J25" s="40">
         <v>63.92709097835214</v>
       </c>
-      <c r="K25" s="40">
-        <v>1.7721634520794707</v>
+      <c r="K25" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L25" s="40">
         <v>0.82721873703005389</v>
@@ -8935,30 +8892,28 @@
       <c r="Q25" s="40">
         <v>7.5310000000000002E-2</v>
       </c>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="80">
-        <v>28</v>
-      </c>
-      <c r="W25" s="80">
-        <v>23</v>
-      </c>
+      <c r="R25" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S25" s="78">
+        <v>20</v>
+      </c>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
       <c r="X25" s="65"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
       <c r="AA25" s="65"/>
-      <c r="AB25" s="18"/>
-      <c r="AC25" s="18"/>
-      <c r="AD25" s="18"/>
-      <c r="AE25" s="18"/>
-      <c r="AF25" s="18"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
       <c r="AG25" s="18"/>
-      <c r="AI25" s="19"/>
-      <c r="AJ25" s="19"/>
-      <c r="AK25" s="15"/>
-      <c r="AL25" s="21"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="66"/>
+      <c r="AK25" s="66"/>
+      <c r="AL25" s="66"/>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="15"/>
@@ -8969,37 +8924,37 @@
       <c r="AT25" s="15"/>
       <c r="AU25" s="15"/>
       <c r="AV25" s="15"/>
-      <c r="AW25" s="145">
+      <c r="AW25" s="17">
         <v>0</v>
       </c>
-      <c r="AX25" s="145">
+      <c r="AX25" s="17">
         <v>0</v>
       </c>
-      <c r="AY25" s="145">
+      <c r="AY25" s="17">
         <v>0</v>
       </c>
-      <c r="AZ25" s="145">
+      <c r="AZ25" s="17">
         <v>0</v>
       </c>
-      <c r="BA25" s="145">
+      <c r="BA25" s="17">
         <v>0</v>
       </c>
-      <c r="BB25" s="145">
+      <c r="BB25" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC25" s="145">
+      <c r="BC25" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD25" s="145">
+      <c r="BD25" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE25" s="145">
+      <c r="BE25" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF25" s="145">
+      <c r="BF25" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG25" s="145">
+      <c r="BG25" s="17">
         <v>6.95</v>
       </c>
       <c r="BH25" s="34" t="s">
@@ -9017,10 +8972,10 @@
       <c r="BL25" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="BM25" s="144" t="s">
+      <c r="BM25" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN25" s="144" t="s">
+      <c r="BN25" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9044,7 +8999,7 @@
       <c r="G26" s="40">
         <v>2.71</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="76">
         <v>1.9</v>
       </c>
       <c r="I26" s="40" t="s">
@@ -9053,8 +9008,8 @@
       <c r="J26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="40" t="s">
-        <v>120</v>
+      <c r="K26" s="76">
+        <v>1.1000000000000001</v>
       </c>
       <c r="L26" s="40" t="s">
         <v>120</v>
@@ -9074,30 +9029,28 @@
       <c r="Q26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="80">
-        <v>29</v>
-      </c>
-      <c r="W26" s="80">
-        <v>24</v>
-      </c>
+      <c r="R26" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="S26" s="78">
+        <v>21</v>
+      </c>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
-      <c r="AB26" s="18"/>
-      <c r="AC26" s="18"/>
-      <c r="AD26" s="18"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="18"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="67"/>
       <c r="AG26" s="18"/>
-      <c r="AI26" s="19"/>
-      <c r="AJ26" s="19"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="21"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="66"/>
+      <c r="AL26" s="66"/>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="15"/>
@@ -9108,37 +9061,37 @@
       <c r="AT26" s="15"/>
       <c r="AU26" s="15"/>
       <c r="AV26" s="15"/>
-      <c r="AW26" s="145">
+      <c r="AW26" s="17">
         <v>0</v>
       </c>
-      <c r="AX26" s="145">
+      <c r="AX26" s="17">
         <v>0</v>
       </c>
-      <c r="AY26" s="145">
+      <c r="AY26" s="17">
         <v>0</v>
       </c>
-      <c r="AZ26" s="145">
+      <c r="AZ26" s="17">
         <v>0</v>
       </c>
-      <c r="BA26" s="145">
+      <c r="BA26" s="17">
         <v>0</v>
       </c>
-      <c r="BB26" s="145">
+      <c r="BB26" s="17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="BC26" s="145">
+      <c r="BC26" s="17">
         <v>4.01</v>
       </c>
-      <c r="BD26" s="145">
+      <c r="BD26" s="17">
         <v>17.86</v>
       </c>
-      <c r="BE26" s="145">
+      <c r="BE26" s="17">
         <v>51.87</v>
       </c>
-      <c r="BF26" s="145">
+      <c r="BF26" s="17">
         <v>19.25</v>
       </c>
-      <c r="BG26" s="145">
+      <c r="BG26" s="17">
         <v>6.95</v>
       </c>
       <c r="BH26" s="34" t="s">
@@ -9156,10 +9109,10 @@
       <c r="BL26" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="BM26" s="144" t="s">
+      <c r="BM26" s="99" t="s">
         <v>1082</v>
       </c>
-      <c r="BN26" s="144" t="s">
+      <c r="BN26" s="99" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -20406,30 +20359,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="AW5:BG5"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="BH1:BH3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="AM1:AR2"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="X1:AL2"/>
-    <mergeCell ref="AW1:BG2"/>
-    <mergeCell ref="AX3:AY3"/>
-    <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="K1:K3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="BI1:BI3"/>
     <mergeCell ref="P1:P3"/>
@@ -20439,6 +20368,30 @@
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="T1:U2"/>
     <mergeCell ref="M1:N2"/>
+    <mergeCell ref="AM1:AR2"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="X1:AL2"/>
+    <mergeCell ref="AW1:BG2"/>
+    <mergeCell ref="AX3:AY3"/>
+    <mergeCell ref="AZ3:BC3"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="AW5:BG5"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="BL1:BL3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20479,172 +20432,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="114" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="76" t="s">
+      <c r="G1" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="67" t="s">
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="72" t="s">
+      <c r="M1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="72"/>
-      <c r="O1" s="69" t="s">
+      <c r="N1" s="127"/>
+      <c r="O1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="69" t="s">
+      <c r="P1" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="69" t="s">
+      <c r="Q1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="73" t="s">
+      <c r="R1" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="73" t="s">
+      <c r="S1" s="114" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71" t="s">
+      <c r="U1" s="125"/>
+      <c r="V1" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71" t="s">
+      <c r="W1" s="125"/>
+      <c r="X1" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
-      <c r="AC1" s="71"/>
-      <c r="AD1" s="71"/>
-      <c r="AE1" s="71"/>
-      <c r="AF1" s="71"/>
-      <c r="AG1" s="71"/>
-      <c r="AH1" s="71"/>
-      <c r="AI1" s="71"/>
-      <c r="AJ1" s="71"/>
-      <c r="AK1" s="71" t="s">
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="71"/>
-      <c r="AN1" s="71"/>
-      <c r="AO1" s="71"/>
-      <c r="AP1" s="71"/>
-      <c r="AQ1" s="71" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="71"/>
-      <c r="AS1" s="71"/>
-      <c r="AT1" s="71"/>
-      <c r="AU1" s="74" t="s">
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="68" t="s">
+      <c r="AV1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="68" t="s">
+      <c r="AW1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="68" t="s">
+      <c r="AX1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="68" t="s">
+      <c r="AY1" s="101" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="75"/>
-      <c r="B2" s="75"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AK2" s="71"/>
-      <c r="AL2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AP2" s="71"/>
-      <c r="AQ2" s="71"/>
-      <c r="AR2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="68"/>
-      <c r="AW2" s="68"/>
-      <c r="AX2" s="68"/>
-      <c r="AY2" s="68"/>
+      <c r="A2" s="110"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="119"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="67"/>
+      <c r="A3" s="110"/>
+      <c r="B3" s="110"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -20654,20 +20607,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="66"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="108"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -20749,11 +20702,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="74"/>
-      <c r="AV3" s="68"/>
-      <c r="AW3" s="68"/>
-      <c r="AX3" s="68"/>
-      <c r="AY3" s="68"/>
+      <c r="AU3" s="119"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -55717,15 +55670,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -55738,12 +55688,15 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5E44C4-141F-496D-841F-B83D0ECA2D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81226D52-51D8-4B01-827C-FF94AF8875DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4635,68 +4635,17 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -4706,6 +4655,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4756,6 +4711,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5492,8 +5492,8 @@
   <dimension ref="A1:BN377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AC25" sqref="AC25"/>
+      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AN10" sqref="AN10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,10 +5521,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="131" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="109" t="s">
+      <c r="B1" s="133" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="107" t="s">
@@ -5533,18 +5533,18 @@
       <c r="D1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="127" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="111" t="s">
+      <c r="G1" s="135" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="120" t="s">
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="100" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="107" t="s">
@@ -5553,174 +5553,174 @@
       <c r="L1" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="126" t="s">
+      <c r="M1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="126"/>
-      <c r="O1" s="121" t="s">
+      <c r="N1" s="111"/>
+      <c r="O1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="121" t="s">
+      <c r="P1" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="121" t="s">
+      <c r="Q1" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="113" t="s">
+      <c r="R1" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="124" t="s">
+      <c r="T1" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="124"/>
-      <c r="V1" s="124" t="s">
+      <c r="U1" s="109"/>
+      <c r="V1" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="124"/>
-      <c r="X1" s="128" t="s">
+      <c r="W1" s="109"/>
+      <c r="X1" s="113" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="129"/>
-      <c r="Z1" s="129"/>
-      <c r="AA1" s="129"/>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="129"/>
-      <c r="AD1" s="129"/>
-      <c r="AE1" s="129"/>
-      <c r="AF1" s="129"/>
-      <c r="AG1" s="129"/>
-      <c r="AH1" s="129"/>
-      <c r="AI1" s="129"/>
-      <c r="AJ1" s="129"/>
-      <c r="AK1" s="129"/>
-      <c r="AL1" s="130"/>
-      <c r="AM1" s="124" t="s">
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="115"/>
+      <c r="AM1" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="124"/>
-      <c r="AO1" s="124"/>
-      <c r="AP1" s="124"/>
-      <c r="AQ1" s="124"/>
-      <c r="AR1" s="124"/>
-      <c r="AS1" s="124" t="s">
+      <c r="AN1" s="109"/>
+      <c r="AO1" s="109"/>
+      <c r="AP1" s="109"/>
+      <c r="AQ1" s="109"/>
+      <c r="AR1" s="109"/>
+      <c r="AS1" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="124"/>
-      <c r="AU1" s="124"/>
-      <c r="AV1" s="124"/>
-      <c r="AW1" s="134" t="s">
+      <c r="AT1" s="109"/>
+      <c r="AU1" s="109"/>
+      <c r="AV1" s="109"/>
+      <c r="AW1" s="119" t="s">
         <v>1048</v>
       </c>
-      <c r="AX1" s="135"/>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="136"/>
-      <c r="BH1" s="118" t="s">
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
+      <c r="BA1" s="120"/>
+      <c r="BB1" s="120"/>
+      <c r="BC1" s="120"/>
+      <c r="BD1" s="120"/>
+      <c r="BE1" s="120"/>
+      <c r="BF1" s="120"/>
+      <c r="BG1" s="121"/>
+      <c r="BH1" s="129" t="s">
         <v>31</v>
       </c>
-      <c r="BI1" s="100" t="s">
+      <c r="BI1" s="102" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="100" t="s">
+      <c r="BJ1" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="100" t="s">
+      <c r="BK1" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="116" t="s">
+      <c r="BL1" s="139" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="103" t="s">
+      <c r="BM1" s="137" t="s">
         <v>1077</v>
       </c>
-      <c r="BN1" s="103" t="s">
+      <c r="BN1" s="137" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="110"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="108"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="131"/>
-      <c r="Y2" s="132"/>
-      <c r="Z2" s="132"/>
-      <c r="AA2" s="132"/>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="132"/>
-      <c r="AD2" s="132"/>
-      <c r="AE2" s="132"/>
-      <c r="AF2" s="132"/>
-      <c r="AG2" s="132"/>
-      <c r="AH2" s="132"/>
-      <c r="AI2" s="132"/>
-      <c r="AJ2" s="132"/>
-      <c r="AK2" s="132"/>
-      <c r="AL2" s="133"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="125"/>
-      <c r="AV2" s="125"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="138"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="139"/>
-      <c r="BH2" s="119"/>
-      <c r="BI2" s="101"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="117"/>
-      <c r="BM2" s="104"/>
-      <c r="BN2" s="104"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="116"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
+      <c r="AA2" s="117"/>
+      <c r="AB2" s="117"/>
+      <c r="AC2" s="117"/>
+      <c r="AD2" s="117"/>
+      <c r="AE2" s="117"/>
+      <c r="AF2" s="117"/>
+      <c r="AG2" s="117"/>
+      <c r="AH2" s="117"/>
+      <c r="AI2" s="117"/>
+      <c r="AJ2" s="117"/>
+      <c r="AK2" s="117"/>
+      <c r="AL2" s="118"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="110"/>
+      <c r="AV2" s="110"/>
+      <c r="AW2" s="122"/>
+      <c r="AX2" s="123"/>
+      <c r="AY2" s="123"/>
+      <c r="AZ2" s="123"/>
+      <c r="BA2" s="123"/>
+      <c r="BB2" s="123"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="124"/>
+      <c r="BH2" s="130"/>
+      <c r="BI2" s="103"/>
+      <c r="BJ2" s="103"/>
+      <c r="BK2" s="103"/>
+      <c r="BL2" s="140"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
     </row>
     <row r="3" spans="1:66" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="132"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5730,8 +5730,8 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="108"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
@@ -5739,11 +5739,11 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5834,31 +5834,31 @@
       <c r="AW3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="AX3" s="140" t="s">
+      <c r="AX3" s="125" t="s">
         <v>1050</v>
       </c>
-      <c r="AY3" s="140"/>
-      <c r="AZ3" s="102" t="s">
+      <c r="AY3" s="125"/>
+      <c r="AZ3" s="126" t="s">
         <v>1051</v>
       </c>
-      <c r="BA3" s="102"/>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102" t="s">
+      <c r="BA3" s="126"/>
+      <c r="BB3" s="126"/>
+      <c r="BC3" s="126"/>
+      <c r="BD3" s="126" t="s">
         <v>1052</v>
       </c>
-      <c r="BE3" s="102"/>
-      <c r="BF3" s="102"/>
+      <c r="BE3" s="126"/>
+      <c r="BF3" s="126"/>
       <c r="BG3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BH3" s="119"/>
-      <c r="BI3" s="101"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="117"/>
-      <c r="BM3" s="104"/>
-      <c r="BN3" s="104"/>
+      <c r="BH3" s="130"/>
+      <c r="BI3" s="103"/>
+      <c r="BJ3" s="103"/>
+      <c r="BK3" s="103"/>
+      <c r="BL3" s="140"/>
+      <c r="BM3" s="138"/>
+      <c r="BN3" s="138"/>
     </row>
     <row r="4" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
@@ -6199,19 +6199,19 @@
       <c r="AV5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AW5" s="102" t="s">
+      <c r="AW5" s="126" t="s">
         <v>1065</v>
       </c>
-      <c r="AX5" s="102"/>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
+      <c r="AX5" s="126"/>
+      <c r="AY5" s="126"/>
+      <c r="AZ5" s="126"/>
+      <c r="BA5" s="126"/>
+      <c r="BB5" s="126"/>
+      <c r="BC5" s="126"/>
+      <c r="BD5" s="126"/>
+      <c r="BE5" s="126"/>
+      <c r="BF5" s="126"/>
+      <c r="BG5" s="126"/>
       <c r="BH5" s="30"/>
       <c r="BI5" s="32"/>
       <c r="BJ5" s="32"/>
@@ -6466,28 +6466,40 @@
       <c r="Q7" s="76">
         <v>6.7349999999999993E-2</v>
       </c>
-      <c r="R7" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S7" s="78">
-        <v>2</v>
-      </c>
+      <c r="R7" s="67"/>
+      <c r="S7" s="78"/>
       <c r="V7" s="66"/>
       <c r="W7" s="66"/>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
-      <c r="AB7" s="67"/>
+      <c r="AB7" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
+      <c r="AD7" s="67">
+        <f>AB7+0.1</f>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
+      <c r="AF7" s="67">
+        <f>AD7+0.1</f>
+        <v>0.25</v>
+      </c>
       <c r="AG7" s="67"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
+      <c r="AI7" s="66">
+        <v>30</v>
+      </c>
+      <c r="AJ7" s="66">
+        <v>20</v>
+      </c>
+      <c r="AK7" s="66">
+        <v>20</v>
+      </c>
+      <c r="AL7" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM7" s="78"/>
       <c r="AN7" s="78"/>
       <c r="AO7" s="78"/>
@@ -6593,28 +6605,40 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="Q8" s="40"/>
-      <c r="R8" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S8" s="78">
-        <v>3</v>
-      </c>
+      <c r="R8" s="67"/>
+      <c r="S8" s="78"/>
       <c r="V8" s="66"/>
       <c r="W8" s="66"/>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
       <c r="AA8" s="19"/>
-      <c r="AB8" s="67"/>
+      <c r="AB8" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
+      <c r="AD8" s="67">
+        <f t="shared" ref="AD8:AD26" si="0">AB8+0.1</f>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
+      <c r="AF8" s="67">
+        <f t="shared" ref="AF8:AF26" si="1">AD8+0.1</f>
+        <v>0.25</v>
+      </c>
       <c r="AG8" s="18"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
+      <c r="AI8" s="66">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="66">
+        <v>21</v>
+      </c>
+      <c r="AK8" s="66">
+        <v>21</v>
+      </c>
+      <c r="AL8" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM8" s="15"/>
       <c r="AN8" s="15"/>
       <c r="AO8" s="15"/>
@@ -6722,28 +6746,40 @@
       <c r="Q9" s="40">
         <v>9.8729999999999998E-2</v>
       </c>
-      <c r="R9" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S9" s="78">
-        <v>4</v>
-      </c>
+      <c r="R9" s="67"/>
+      <c r="S9" s="78"/>
       <c r="V9" s="66"/>
       <c r="W9" s="66"/>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
       <c r="AA9" s="19"/>
-      <c r="AB9" s="67"/>
+      <c r="AB9" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC9" s="67"/>
-      <c r="AD9" s="67"/>
+      <c r="AD9" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE9" s="67"/>
-      <c r="AF9" s="67"/>
+      <c r="AF9" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG9" s="18"/>
-      <c r="AI9" s="66"/>
-      <c r="AJ9" s="66"/>
-      <c r="AK9" s="66"/>
-      <c r="AL9" s="66"/>
+      <c r="AI9" s="66">
+        <v>32</v>
+      </c>
+      <c r="AJ9" s="66">
+        <v>22</v>
+      </c>
+      <c r="AK9" s="66">
+        <v>22</v>
+      </c>
+      <c r="AL9" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM9" s="15"/>
       <c r="AN9" s="15"/>
       <c r="AO9" s="15"/>
@@ -6857,28 +6893,40 @@
       <c r="Q10" s="40">
         <v>7.5109999999999996E-2</v>
       </c>
-      <c r="R10" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S10" s="78">
-        <v>5</v>
-      </c>
+      <c r="R10" s="67"/>
+      <c r="S10" s="78"/>
       <c r="V10" s="66"/>
       <c r="W10" s="66"/>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
-      <c r="AB10" s="67"/>
+      <c r="AB10" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC10" s="67"/>
-      <c r="AD10" s="67"/>
+      <c r="AD10" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE10" s="67"/>
-      <c r="AF10" s="67"/>
+      <c r="AF10" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG10" s="18"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
+      <c r="AI10" s="66">
+        <v>33</v>
+      </c>
+      <c r="AJ10" s="66">
+        <v>23</v>
+      </c>
+      <c r="AK10" s="66">
+        <v>23</v>
+      </c>
+      <c r="AL10" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM10" s="15"/>
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
@@ -6986,28 +7034,40 @@
       <c r="Q11" s="40">
         <v>7.0250000000000007E-2</v>
       </c>
-      <c r="R11" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S11" s="78">
-        <v>6</v>
-      </c>
+      <c r="R11" s="67"/>
+      <c r="S11" s="78"/>
       <c r="V11" s="66"/>
       <c r="W11" s="66"/>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
       <c r="AA11" s="19"/>
-      <c r="AB11" s="67"/>
+      <c r="AB11" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC11" s="67"/>
-      <c r="AD11" s="67"/>
+      <c r="AD11" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE11" s="67"/>
-      <c r="AF11" s="67"/>
+      <c r="AF11" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG11" s="18"/>
-      <c r="AI11" s="66"/>
-      <c r="AJ11" s="66"/>
-      <c r="AK11" s="66"/>
-      <c r="AL11" s="66"/>
+      <c r="AI11" s="66">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="66">
+        <v>24</v>
+      </c>
+      <c r="AK11" s="66">
+        <v>24</v>
+      </c>
+      <c r="AL11" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM11" s="15"/>
       <c r="AN11" s="15"/>
       <c r="AO11" s="15"/>
@@ -7117,28 +7177,40 @@
       <c r="Q12" s="40">
         <v>3.5180000000000003E-2</v>
       </c>
-      <c r="R12" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S12" s="78">
-        <v>7</v>
-      </c>
+      <c r="R12" s="67"/>
+      <c r="S12" s="78"/>
       <c r="V12" s="66"/>
       <c r="W12" s="66"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
       <c r="AA12" s="19"/>
-      <c r="AB12" s="67"/>
+      <c r="AB12" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC12" s="67"/>
-      <c r="AD12" s="67"/>
+      <c r="AD12" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
+      <c r="AF12" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG12" s="18"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
+      <c r="AI12" s="66">
+        <v>35</v>
+      </c>
+      <c r="AJ12" s="66">
+        <v>25</v>
+      </c>
+      <c r="AK12" s="66">
+        <v>25</v>
+      </c>
+      <c r="AL12" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM12" s="15"/>
       <c r="AN12" s="15"/>
       <c r="AO12" s="15"/>
@@ -7254,28 +7326,40 @@
       <c r="Q13" s="40">
         <v>6.9349999999999995E-2</v>
       </c>
-      <c r="R13" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S13" s="78">
-        <v>8</v>
-      </c>
+      <c r="R13" s="67"/>
+      <c r="S13" s="78"/>
       <c r="V13" s="66"/>
       <c r="W13" s="66"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
       <c r="AA13" s="19"/>
-      <c r="AB13" s="67"/>
+      <c r="AB13" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
+      <c r="AD13" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE13" s="67"/>
-      <c r="AF13" s="67"/>
+      <c r="AF13" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG13" s="18"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
+      <c r="AI13" s="66">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="66">
+        <v>26</v>
+      </c>
+      <c r="AK13" s="66">
+        <v>26</v>
+      </c>
+      <c r="AL13" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM13" s="15"/>
       <c r="AN13" s="15"/>
       <c r="AO13" s="15"/>
@@ -7391,28 +7475,40 @@
       <c r="Q14" s="40">
         <v>4.317E-2</v>
       </c>
-      <c r="R14" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S14" s="78">
-        <v>9</v>
-      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="78"/>
       <c r="V14" s="66"/>
       <c r="W14" s="66"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
       <c r="AA14" s="19"/>
-      <c r="AB14" s="67"/>
+      <c r="AB14" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
+      <c r="AD14" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE14" s="67"/>
-      <c r="AF14" s="67"/>
+      <c r="AF14" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG14" s="18"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
+      <c r="AI14" s="66">
+        <v>37</v>
+      </c>
+      <c r="AJ14" s="66">
+        <v>27</v>
+      </c>
+      <c r="AK14" s="66">
+        <v>27</v>
+      </c>
+      <c r="AL14" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM14" s="15"/>
       <c r="AN14" s="15"/>
       <c r="AO14" s="15"/>
@@ -7522,28 +7618,40 @@
       <c r="Q15" s="40">
         <v>4.8779999999999997E-2</v>
       </c>
-      <c r="R15" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S15" s="78">
-        <v>10</v>
-      </c>
+      <c r="R15" s="67"/>
+      <c r="S15" s="78"/>
       <c r="V15" s="66"/>
       <c r="W15" s="66"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
       <c r="AA15" s="19"/>
-      <c r="AB15" s="67"/>
+      <c r="AB15" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
+      <c r="AD15" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
+      <c r="AF15" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG15" s="18"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
+      <c r="AI15" s="66">
+        <v>38</v>
+      </c>
+      <c r="AJ15" s="66">
+        <v>28</v>
+      </c>
+      <c r="AK15" s="66">
+        <v>28</v>
+      </c>
+      <c r="AL15" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM15" s="15"/>
       <c r="AN15" s="15"/>
       <c r="AO15" s="15"/>
@@ -7659,28 +7767,40 @@
       <c r="Q16" s="40">
         <v>6.6449999999999995E-2</v>
       </c>
-      <c r="R16" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S16" s="78">
-        <v>11</v>
-      </c>
+      <c r="R16" s="67"/>
+      <c r="S16" s="78"/>
       <c r="V16" s="66"/>
       <c r="W16" s="66"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
-      <c r="AB16" s="67"/>
+      <c r="AB16" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
+      <c r="AD16" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE16" s="67"/>
-      <c r="AF16" s="67"/>
+      <c r="AF16" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG16" s="18"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
+      <c r="AI16" s="66">
+        <v>39</v>
+      </c>
+      <c r="AJ16" s="66">
+        <v>29</v>
+      </c>
+      <c r="AK16" s="66">
+        <v>29</v>
+      </c>
+      <c r="AL16" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM16" s="15"/>
       <c r="AN16" s="15"/>
       <c r="AO16" s="15"/>
@@ -7796,28 +7916,40 @@
       <c r="Q17" s="40">
         <v>8.974E-2</v>
       </c>
-      <c r="R17" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S17" s="78">
-        <v>12</v>
-      </c>
+      <c r="R17" s="67"/>
+      <c r="S17" s="78"/>
       <c r="V17" s="66"/>
       <c r="W17" s="66"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
-      <c r="AB17" s="67"/>
+      <c r="AB17" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
+      <c r="AD17" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE17" s="67"/>
-      <c r="AF17" s="67"/>
+      <c r="AF17" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG17" s="18"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
+      <c r="AI17" s="66">
+        <v>40</v>
+      </c>
+      <c r="AJ17" s="66">
+        <v>30</v>
+      </c>
+      <c r="AK17" s="66">
+        <v>30</v>
+      </c>
+      <c r="AL17" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM17" s="15"/>
       <c r="AN17" s="15"/>
       <c r="AO17" s="15"/>
@@ -7933,28 +8065,40 @@
       <c r="Q18" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S18" s="78">
-        <v>13</v>
-      </c>
+      <c r="R18" s="67"/>
+      <c r="S18" s="78"/>
       <c r="V18" s="66"/>
       <c r="W18" s="66"/>
       <c r="X18" s="65"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="65"/>
       <c r="AA18" s="65"/>
-      <c r="AB18" s="67"/>
+      <c r="AB18" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
+      <c r="AD18" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE18" s="67"/>
-      <c r="AF18" s="67"/>
+      <c r="AF18" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG18" s="18"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
+      <c r="AI18" s="66">
+        <v>41</v>
+      </c>
+      <c r="AJ18" s="66">
+        <v>31</v>
+      </c>
+      <c r="AK18" s="66">
+        <v>31</v>
+      </c>
+      <c r="AL18" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM18" s="15"/>
       <c r="AN18" s="15"/>
       <c r="AO18" s="15"/>
@@ -8070,28 +8214,40 @@
       <c r="Q19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S19" s="78">
-        <v>14</v>
-      </c>
+      <c r="R19" s="67"/>
+      <c r="S19" s="78"/>
       <c r="V19" s="66"/>
       <c r="W19" s="66"/>
       <c r="X19" s="65"/>
       <c r="Y19" s="65"/>
       <c r="Z19" s="65"/>
       <c r="AA19" s="65"/>
-      <c r="AB19" s="67"/>
+      <c r="AB19" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
+      <c r="AD19" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE19" s="67"/>
-      <c r="AF19" s="67"/>
+      <c r="AF19" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG19" s="18"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
+      <c r="AI19" s="66">
+        <v>42</v>
+      </c>
+      <c r="AJ19" s="66">
+        <v>32</v>
+      </c>
+      <c r="AK19" s="66">
+        <v>32</v>
+      </c>
+      <c r="AL19" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM19" s="15"/>
       <c r="AN19" s="15"/>
       <c r="AO19" s="15"/>
@@ -8207,28 +8363,40 @@
       <c r="Q20" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S20" s="78">
-        <v>15</v>
-      </c>
+      <c r="R20" s="67"/>
+      <c r="S20" s="78"/>
       <c r="V20" s="66"/>
       <c r="W20" s="66"/>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
       <c r="AA20" s="65"/>
-      <c r="AB20" s="67"/>
+      <c r="AB20" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
+      <c r="AD20" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE20" s="67"/>
-      <c r="AF20" s="67"/>
+      <c r="AF20" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG20" s="18"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
+      <c r="AI20" s="66">
+        <v>43</v>
+      </c>
+      <c r="AJ20" s="66">
+        <v>33</v>
+      </c>
+      <c r="AK20" s="66">
+        <v>33</v>
+      </c>
+      <c r="AL20" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM20" s="15"/>
       <c r="AN20" s="15"/>
       <c r="AO20" s="15"/>
@@ -8344,28 +8512,40 @@
       <c r="Q21" s="40">
         <v>7.1940000000000004E-2</v>
       </c>
-      <c r="R21" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S21" s="78">
-        <v>16</v>
-      </c>
+      <c r="R21" s="67"/>
+      <c r="S21" s="78"/>
       <c r="V21" s="66"/>
       <c r="W21" s="66"/>
       <c r="X21" s="65"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="65"/>
       <c r="AA21" s="65"/>
-      <c r="AB21" s="67"/>
+      <c r="AB21" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
+      <c r="AD21" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE21" s="67"/>
-      <c r="AF21" s="67"/>
+      <c r="AF21" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG21" s="18"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
+      <c r="AI21" s="66">
+        <v>44</v>
+      </c>
+      <c r="AJ21" s="66">
+        <v>34</v>
+      </c>
+      <c r="AK21" s="66">
+        <v>34</v>
+      </c>
+      <c r="AL21" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM21" s="15"/>
       <c r="AN21" s="15"/>
       <c r="AO21" s="15"/>
@@ -8481,28 +8661,40 @@
       <c r="Q22" s="40">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="R22" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S22" s="78">
-        <v>17</v>
-      </c>
+      <c r="R22" s="67"/>
+      <c r="S22" s="78"/>
       <c r="V22" s="66"/>
       <c r="W22" s="66"/>
       <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
       <c r="AA22" s="65"/>
-      <c r="AB22" s="67"/>
+      <c r="AB22" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
+      <c r="AD22" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE22" s="67"/>
-      <c r="AF22" s="67"/>
+      <c r="AF22" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG22" s="18"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
+      <c r="AI22" s="66">
+        <v>45</v>
+      </c>
+      <c r="AJ22" s="66">
+        <v>35</v>
+      </c>
+      <c r="AK22" s="66">
+        <v>35</v>
+      </c>
+      <c r="AL22" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM22" s="15"/>
       <c r="AN22" s="15"/>
       <c r="AO22" s="15"/>
@@ -8618,28 +8810,40 @@
       <c r="Q23" s="40">
         <v>7.5719999999999996E-2</v>
       </c>
-      <c r="R23" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S23" s="78">
-        <v>18</v>
-      </c>
+      <c r="R23" s="67"/>
+      <c r="S23" s="78"/>
       <c r="V23" s="66"/>
       <c r="W23" s="66"/>
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
       <c r="AA23" s="65"/>
-      <c r="AB23" s="67"/>
+      <c r="AB23" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
+      <c r="AD23" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
+      <c r="AF23" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG23" s="18"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
+      <c r="AI23" s="66">
+        <v>46</v>
+      </c>
+      <c r="AJ23" s="66">
+        <v>36</v>
+      </c>
+      <c r="AK23" s="66">
+        <v>36</v>
+      </c>
+      <c r="AL23" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM23" s="15"/>
       <c r="AN23" s="15"/>
       <c r="AO23" s="15"/>
@@ -8755,28 +8959,40 @@
       <c r="Q24" s="55">
         <v>3.134E-2</v>
       </c>
-      <c r="R24" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S24" s="78">
-        <v>19</v>
-      </c>
+      <c r="R24" s="67"/>
+      <c r="S24" s="78"/>
       <c r="V24" s="66"/>
       <c r="W24" s="66"/>
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
       <c r="AA24" s="65"/>
-      <c r="AB24" s="67"/>
+      <c r="AB24" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
+      <c r="AD24" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE24" s="67"/>
-      <c r="AF24" s="67"/>
+      <c r="AF24" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG24" s="58"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
+      <c r="AI24" s="66">
+        <v>47</v>
+      </c>
+      <c r="AJ24" s="66">
+        <v>37</v>
+      </c>
+      <c r="AK24" s="66">
+        <v>37</v>
+      </c>
+      <c r="AL24" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM24" s="56"/>
       <c r="AN24" s="56"/>
       <c r="AO24" s="56"/>
@@ -8892,28 +9108,40 @@
       <c r="Q25" s="40">
         <v>7.5310000000000002E-2</v>
       </c>
-      <c r="R25" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S25" s="78">
-        <v>20</v>
-      </c>
+      <c r="R25" s="67"/>
+      <c r="S25" s="78"/>
       <c r="V25" s="66"/>
       <c r="W25" s="66"/>
       <c r="X25" s="65"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
       <c r="AA25" s="65"/>
-      <c r="AB25" s="67"/>
+      <c r="AB25" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
+      <c r="AD25" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE25" s="67"/>
-      <c r="AF25" s="67"/>
+      <c r="AF25" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG25" s="18"/>
-      <c r="AI25" s="66"/>
-      <c r="AJ25" s="66"/>
-      <c r="AK25" s="66"/>
-      <c r="AL25" s="66"/>
+      <c r="AI25" s="66">
+        <v>48</v>
+      </c>
+      <c r="AJ25" s="66">
+        <v>38</v>
+      </c>
+      <c r="AK25" s="66">
+        <v>38</v>
+      </c>
+      <c r="AL25" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM25" s="15"/>
       <c r="AN25" s="15"/>
       <c r="AO25" s="15"/>
@@ -9029,28 +9257,40 @@
       <c r="Q26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="67">
-        <v>0.2</v>
-      </c>
-      <c r="S26" s="78">
-        <v>21</v>
-      </c>
+      <c r="R26" s="67"/>
+      <c r="S26" s="78"/>
       <c r="V26" s="66"/>
       <c r="W26" s="66"/>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
       <c r="AA26" s="19"/>
-      <c r="AB26" s="67"/>
+      <c r="AB26" s="67">
+        <v>0.05</v>
+      </c>
       <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
+      <c r="AD26" s="67">
+        <f t="shared" si="0"/>
+        <v>0.15000000000000002</v>
+      </c>
       <c r="AE26" s="67"/>
-      <c r="AF26" s="67"/>
+      <c r="AF26" s="67">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
       <c r="AG26" s="18"/>
-      <c r="AI26" s="66"/>
-      <c r="AJ26" s="66"/>
-      <c r="AK26" s="66"/>
-      <c r="AL26" s="66"/>
+      <c r="AI26" s="66">
+        <v>49</v>
+      </c>
+      <c r="AJ26" s="66">
+        <v>39</v>
+      </c>
+      <c r="AK26" s="66">
+        <v>39</v>
+      </c>
+      <c r="AL26" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AM26" s="15"/>
       <c r="AN26" s="15"/>
       <c r="AO26" s="15"/>
@@ -9150,7 +9390,7 @@
       <c r="AE27" s="18"/>
       <c r="AF27" s="18"/>
       <c r="AG27" s="18"/>
-      <c r="AI27" s="19"/>
+      <c r="AI27" s="66"/>
       <c r="AJ27" s="19"/>
       <c r="AK27" s="20"/>
       <c r="AL27" s="21"/>
@@ -20359,6 +20599,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="AW5:BG5"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="BI1:BI3"/>
     <mergeCell ref="P1:P3"/>
@@ -20375,23 +20632,6 @@
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BC3"/>
     <mergeCell ref="S1:S3"/>
-    <mergeCell ref="BH1:BH3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="AW5:BG5"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="BL1:BL3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20432,10 +20672,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="134" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="134" t="s">
         <v>51</v>
       </c>
       <c r="C1" s="108" t="s">
@@ -20444,18 +20684,18 @@
       <c r="D1" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="128" t="s">
         <v>68</v>
       </c>
       <c r="F1" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="112" t="s">
+      <c r="G1" s="136" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="115" t="s">
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="101" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="108" t="s">
@@ -20464,140 +20704,140 @@
       <c r="L1" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="127" t="s">
+      <c r="M1" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="127"/>
-      <c r="O1" s="122" t="s">
+      <c r="N1" s="112"/>
+      <c r="O1" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="114" t="s">
+      <c r="R1" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="114" t="s">
+      <c r="S1" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="125" t="s">
+      <c r="T1" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="125"/>
-      <c r="V1" s="125" t="s">
+      <c r="U1" s="110"/>
+      <c r="V1" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="125"/>
-      <c r="X1" s="125" t="s">
+      <c r="W1" s="110"/>
+      <c r="X1" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="125"/>
-      <c r="Z1" s="125" t="s">
+      <c r="Y1" s="110"/>
+      <c r="Z1" s="110" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="125"/>
-      <c r="AB1" s="125"/>
-      <c r="AC1" s="125"/>
-      <c r="AD1" s="125"/>
-      <c r="AE1" s="125"/>
-      <c r="AF1" s="125"/>
-      <c r="AG1" s="125"/>
-      <c r="AH1" s="125"/>
-      <c r="AI1" s="125"/>
-      <c r="AJ1" s="125"/>
-      <c r="AK1" s="125" t="s">
+      <c r="AA1" s="110"/>
+      <c r="AB1" s="110"/>
+      <c r="AC1" s="110"/>
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="110"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="125"/>
-      <c r="AM1" s="125"/>
-      <c r="AN1" s="125"/>
-      <c r="AO1" s="125"/>
-      <c r="AP1" s="125"/>
-      <c r="AQ1" s="125" t="s">
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="110"/>
+      <c r="AP1" s="110"/>
+      <c r="AQ1" s="110" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="125"/>
-      <c r="AS1" s="125"/>
-      <c r="AT1" s="125"/>
-      <c r="AU1" s="119" t="s">
+      <c r="AR1" s="110"/>
+      <c r="AS1" s="110"/>
+      <c r="AT1" s="110"/>
+      <c r="AU1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="101" t="s">
+      <c r="AV1" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="101" t="s">
+      <c r="AW1" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="101" t="s">
+      <c r="AX1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="101" t="s">
+      <c r="AY1" s="103" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="110"/>
-      <c r="B2" s="110"/>
+      <c r="A2" s="134"/>
+      <c r="B2" s="134"/>
       <c r="C2" s="108"/>
       <c r="D2" s="108"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="112"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="112"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
       <c r="L2" s="108"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="125"/>
-      <c r="U2" s="125"/>
-      <c r="V2" s="125"/>
-      <c r="W2" s="125"/>
-      <c r="X2" s="125"/>
-      <c r="Y2" s="125"/>
-      <c r="Z2" s="125"/>
-      <c r="AA2" s="125"/>
-      <c r="AB2" s="125"/>
-      <c r="AC2" s="125"/>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="125"/>
-      <c r="AG2" s="125"/>
-      <c r="AH2" s="125"/>
-      <c r="AI2" s="125"/>
-      <c r="AJ2" s="125"/>
-      <c r="AK2" s="125"/>
-      <c r="AL2" s="125"/>
-      <c r="AM2" s="125"/>
-      <c r="AN2" s="125"/>
-      <c r="AO2" s="125"/>
-      <c r="AP2" s="125"/>
-      <c r="AQ2" s="125"/>
-      <c r="AR2" s="125"/>
-      <c r="AS2" s="125"/>
-      <c r="AT2" s="125"/>
-      <c r="AU2" s="119"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="128"/>
+      <c r="S2" s="128"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="110"/>
+      <c r="X2" s="110"/>
+      <c r="Y2" s="110"/>
+      <c r="Z2" s="110"/>
+      <c r="AA2" s="110"/>
+      <c r="AB2" s="110"/>
+      <c r="AC2" s="110"/>
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="110"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="110"/>
+      <c r="AK2" s="110"/>
+      <c r="AL2" s="110"/>
+      <c r="AM2" s="110"/>
+      <c r="AN2" s="110"/>
+      <c r="AO2" s="110"/>
+      <c r="AP2" s="110"/>
+      <c r="AQ2" s="110"/>
+      <c r="AR2" s="110"/>
+      <c r="AS2" s="110"/>
+      <c r="AT2" s="110"/>
+      <c r="AU2" s="130"/>
+      <c r="AV2" s="103"/>
+      <c r="AW2" s="103"/>
+      <c r="AX2" s="103"/>
+      <c r="AY2" s="103"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="110"/>
-      <c r="B3" s="110"/>
+      <c r="A3" s="134"/>
+      <c r="B3" s="134"/>
       <c r="C3" s="108"/>
       <c r="D3" s="108"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="101"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -20607,8 +20847,8 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="101"/>
       <c r="L3" s="108"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
@@ -20616,11 +20856,11 @@
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="123"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
+      <c r="O3" s="106"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="128"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -20702,11 +20942,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="119"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="103"/>
+      <c r="AW3" s="103"/>
+      <c r="AX3" s="103"/>
+      <c r="AY3" s="103"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -55670,12 +55910,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -55688,15 +55931,12 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81226D52-51D8-4B01-827C-FF94AF8875DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D861612-41EB-445D-983C-4BC77AEC44E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4739" uniqueCount="1084">
   <si>
     <t>№ скважины</t>
   </si>
@@ -3463,6 +3463,9 @@
   </si>
   <si>
     <t>ООО Регионстрой</t>
+  </si>
+  <si>
+    <t>Касательный модуль МПа</t>
   </si>
 </sst>
 </file>
@@ -4635,17 +4638,68 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
@@ -4655,12 +4709,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4711,51 +4759,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5492,8 +5495,8 @@
   <dimension ref="A1:BN377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AN10" sqref="AN10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5521,206 +5524,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="116" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="107" t="s">
+      <c r="D1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="127" t="s">
+      <c r="E1" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="107" t="s">
+      <c r="F1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="100" t="s">
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="107" t="s">
+      <c r="K1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="111" t="s">
+      <c r="M1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="111"/>
-      <c r="O1" s="104" t="s">
+      <c r="N1" s="126"/>
+      <c r="O1" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="104" t="s">
+      <c r="P1" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="104" t="s">
+      <c r="Q1" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="127" t="s">
+      <c r="R1" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="127" t="s">
+      <c r="S1" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="109" t="s">
+      <c r="T1" s="124" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="109"/>
-      <c r="V1" s="109" t="s">
+      <c r="U1" s="124"/>
+      <c r="V1" s="124" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="109"/>
-      <c r="X1" s="113" t="s">
+      <c r="W1" s="124"/>
+      <c r="X1" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="115"/>
-      <c r="AM1" s="109" t="s">
+      <c r="Y1" s="129"/>
+      <c r="Z1" s="129"/>
+      <c r="AA1" s="129"/>
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="129"/>
+      <c r="AD1" s="129"/>
+      <c r="AE1" s="129"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="129"/>
+      <c r="AH1" s="129"/>
+      <c r="AI1" s="129"/>
+      <c r="AJ1" s="129"/>
+      <c r="AK1" s="129"/>
+      <c r="AL1" s="130"/>
+      <c r="AM1" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="AN1" s="109"/>
-      <c r="AO1" s="109"/>
-      <c r="AP1" s="109"/>
-      <c r="AQ1" s="109"/>
-      <c r="AR1" s="109"/>
-      <c r="AS1" s="109" t="s">
+      <c r="AN1" s="124"/>
+      <c r="AO1" s="124"/>
+      <c r="AP1" s="124"/>
+      <c r="AQ1" s="124"/>
+      <c r="AR1" s="124"/>
+      <c r="AS1" s="124" t="s">
         <v>89</v>
       </c>
-      <c r="AT1" s="109"/>
-      <c r="AU1" s="109"/>
-      <c r="AV1" s="109"/>
-      <c r="AW1" s="119" t="s">
+      <c r="AT1" s="124"/>
+      <c r="AU1" s="124"/>
+      <c r="AV1" s="124"/>
+      <c r="AW1" s="134" t="s">
         <v>1048</v>
       </c>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
-      <c r="BA1" s="120"/>
-      <c r="BB1" s="120"/>
-      <c r="BC1" s="120"/>
-      <c r="BD1" s="120"/>
-      <c r="BE1" s="120"/>
-      <c r="BF1" s="120"/>
-      <c r="BG1" s="121"/>
-      <c r="BH1" s="129" t="s">
+      <c r="AX1" s="135"/>
+      <c r="AY1" s="135"/>
+      <c r="AZ1" s="135"/>
+      <c r="BA1" s="135"/>
+      <c r="BB1" s="135"/>
+      <c r="BC1" s="135"/>
+      <c r="BD1" s="135"/>
+      <c r="BE1" s="135"/>
+      <c r="BF1" s="135"/>
+      <c r="BG1" s="136"/>
+      <c r="BH1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="BI1" s="102" t="s">
+      <c r="BI1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="BJ1" s="102" t="s">
+      <c r="BJ1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="102" t="s">
+      <c r="BK1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="139" t="s">
+      <c r="BL1" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="137" t="s">
+      <c r="BM1" s="103" t="s">
         <v>1077</v>
       </c>
-      <c r="BN1" s="137" t="s">
+      <c r="BN1" s="103" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.25">
-      <c r="A2" s="132"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="116"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="117"/>
-      <c r="AK2" s="117"/>
-      <c r="AL2" s="118"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
-      <c r="AO2" s="110"/>
-      <c r="AP2" s="110"/>
-      <c r="AQ2" s="110"/>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="110"/>
-      <c r="AU2" s="110"/>
-      <c r="AV2" s="110"/>
-      <c r="AW2" s="122"/>
-      <c r="AX2" s="123"/>
-      <c r="AY2" s="123"/>
-      <c r="AZ2" s="123"/>
-      <c r="BA2" s="123"/>
-      <c r="BB2" s="123"/>
-      <c r="BC2" s="123"/>
-      <c r="BD2" s="123"/>
-      <c r="BE2" s="123"/>
-      <c r="BF2" s="123"/>
-      <c r="BG2" s="124"/>
-      <c r="BH2" s="130"/>
-      <c r="BI2" s="103"/>
-      <c r="BJ2" s="103"/>
-      <c r="BK2" s="103"/>
-      <c r="BL2" s="140"/>
-      <c r="BM2" s="138"/>
-      <c r="BN2" s="138"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="132"/>
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="132"/>
+      <c r="AI2" s="132"/>
+      <c r="AJ2" s="132"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="133"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="125"/>
+      <c r="AV2" s="125"/>
+      <c r="AW2" s="137"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="139"/>
+      <c r="BH2" s="108"/>
+      <c r="BI2" s="101"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="106"/>
+      <c r="BM2" s="104"/>
+      <c r="BN2" s="104"/>
     </row>
     <row r="3" spans="1:66" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="101"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5730,20 +5733,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5754,7 +5757,7 @@
         <v>57</v>
       </c>
       <c r="W3" s="3" t="s">
-        <v>58</v>
+        <v>1083</v>
       </c>
       <c r="X3" s="3" t="s">
         <v>1040</v>
@@ -5834,31 +5837,31 @@
       <c r="AW3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="AX3" s="125" t="s">
+      <c r="AX3" s="140" t="s">
         <v>1050</v>
       </c>
-      <c r="AY3" s="125"/>
-      <c r="AZ3" s="126" t="s">
+      <c r="AY3" s="140"/>
+      <c r="AZ3" s="102" t="s">
         <v>1051</v>
       </c>
-      <c r="BA3" s="126"/>
-      <c r="BB3" s="126"/>
-      <c r="BC3" s="126"/>
-      <c r="BD3" s="126" t="s">
+      <c r="BA3" s="102"/>
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102" t="s">
         <v>1052</v>
       </c>
-      <c r="BE3" s="126"/>
-      <c r="BF3" s="126"/>
+      <c r="BE3" s="102"/>
+      <c r="BF3" s="102"/>
       <c r="BG3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="103"/>
-      <c r="BJ3" s="103"/>
-      <c r="BK3" s="103"/>
-      <c r="BL3" s="140"/>
-      <c r="BM3" s="138"/>
-      <c r="BN3" s="138"/>
+      <c r="BH3" s="108"/>
+      <c r="BI3" s="101"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="106"/>
+      <c r="BM3" s="104"/>
+      <c r="BN3" s="104"/>
     </row>
     <row r="4" spans="1:66" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
@@ -6199,19 +6202,19 @@
       <c r="AV5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AW5" s="126" t="s">
+      <c r="AW5" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="AX5" s="126"/>
-      <c r="AY5" s="126"/>
-      <c r="AZ5" s="126"/>
-      <c r="BA5" s="126"/>
-      <c r="BB5" s="126"/>
-      <c r="BC5" s="126"/>
-      <c r="BD5" s="126"/>
-      <c r="BE5" s="126"/>
-      <c r="BF5" s="126"/>
-      <c r="BG5" s="126"/>
+      <c r="AX5" s="102"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
       <c r="BH5" s="30"/>
       <c r="BI5" s="32"/>
       <c r="BJ5" s="32"/>
@@ -6431,7 +6434,9 @@
       <c r="D7" s="73">
         <v>1.7</v>
       </c>
-      <c r="E7" s="74"/>
+      <c r="E7" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F7" s="75">
         <v>0.40666912199999999</v>
       </c>
@@ -6467,9 +6472,21 @@
         <v>6.7349999999999993E-2</v>
       </c>
       <c r="R7" s="67"/>
-      <c r="S7" s="78"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
+      <c r="S7" s="66">
+        <v>3</v>
+      </c>
+      <c r="T7" s="66">
+        <v>20</v>
+      </c>
+      <c r="U7" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V7" s="66">
+        <v>5</v>
+      </c>
+      <c r="W7" s="66">
+        <v>3</v>
+      </c>
       <c r="X7" s="66"/>
       <c r="Y7" s="66"/>
       <c r="Z7" s="66"/>
@@ -6578,7 +6595,9 @@
       <c r="D8" s="10">
         <v>0.9</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F8" s="37">
         <v>0.32289095600000001</v>
       </c>
@@ -6606,9 +6625,21 @@
       </c>
       <c r="Q8" s="40"/>
       <c r="R8" s="67"/>
-      <c r="S8" s="78"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
+      <c r="S8" s="66">
+        <v>4</v>
+      </c>
+      <c r="T8" s="66">
+        <v>21</v>
+      </c>
+      <c r="U8" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V8" s="66">
+        <v>6</v>
+      </c>
+      <c r="W8" s="66">
+        <v>4</v>
+      </c>
       <c r="X8" s="19"/>
       <c r="Y8" s="19"/>
       <c r="Z8" s="19"/>
@@ -6717,7 +6748,9 @@
       <c r="D9" s="10">
         <v>3</v>
       </c>
-      <c r="E9" s="11"/>
+      <c r="E9" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F9" s="37">
         <v>0.32285227899999996</v>
       </c>
@@ -6747,9 +6780,21 @@
         <v>9.8729999999999998E-2</v>
       </c>
       <c r="R9" s="67"/>
-      <c r="S9" s="78"/>
-      <c r="V9" s="66"/>
-      <c r="W9" s="66"/>
+      <c r="S9" s="66">
+        <v>5</v>
+      </c>
+      <c r="T9" s="66">
+        <v>22</v>
+      </c>
+      <c r="U9" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V9" s="66">
+        <v>7</v>
+      </c>
+      <c r="W9" s="66">
+        <v>5</v>
+      </c>
       <c r="X9" s="19"/>
       <c r="Y9" s="19"/>
       <c r="Z9" s="19"/>
@@ -6858,7 +6903,9 @@
       <c r="D10" s="10">
         <v>3.9</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F10" s="37">
         <v>0.30724640799999997</v>
       </c>
@@ -6894,9 +6941,21 @@
         <v>7.5109999999999996E-2</v>
       </c>
       <c r="R10" s="67"/>
-      <c r="S10" s="78"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
+      <c r="S10" s="66">
+        <v>6</v>
+      </c>
+      <c r="T10" s="66">
+        <v>23</v>
+      </c>
+      <c r="U10" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V10" s="66">
+        <v>8</v>
+      </c>
+      <c r="W10" s="66">
+        <v>6</v>
+      </c>
       <c r="X10" s="19"/>
       <c r="Y10" s="19"/>
       <c r="Z10" s="19"/>
@@ -7005,7 +7064,9 @@
       <c r="D11" s="10">
         <v>0.7</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F11" s="37">
         <v>0.40178517999999996</v>
       </c>
@@ -7035,9 +7096,21 @@
         <v>7.0250000000000007E-2</v>
       </c>
       <c r="R11" s="67"/>
-      <c r="S11" s="78"/>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
+      <c r="S11" s="66">
+        <v>7</v>
+      </c>
+      <c r="T11" s="66">
+        <v>24</v>
+      </c>
+      <c r="U11" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V11" s="66">
+        <v>9</v>
+      </c>
+      <c r="W11" s="66">
+        <v>7</v>
+      </c>
       <c r="X11" s="19"/>
       <c r="Y11" s="19"/>
       <c r="Z11" s="19"/>
@@ -7146,7 +7219,9 @@
       <c r="D12" s="10">
         <v>2.7</v>
       </c>
-      <c r="E12" s="11"/>
+      <c r="E12" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F12" s="37">
         <v>0.32260245299999996</v>
       </c>
@@ -7178,9 +7253,21 @@
         <v>3.5180000000000003E-2</v>
       </c>
       <c r="R12" s="67"/>
-      <c r="S12" s="78"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
+      <c r="S12" s="66">
+        <v>8</v>
+      </c>
+      <c r="T12" s="66">
+        <v>25</v>
+      </c>
+      <c r="U12" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V12" s="66">
+        <v>10</v>
+      </c>
+      <c r="W12" s="66">
+        <v>8</v>
+      </c>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
       <c r="Z12" s="19"/>
@@ -7289,7 +7376,9 @@
       <c r="D13" s="10">
         <v>3.4</v>
       </c>
-      <c r="E13" s="11"/>
+      <c r="E13" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F13" s="37">
         <v>0.33181128500000007</v>
       </c>
@@ -7327,9 +7416,21 @@
         <v>6.9349999999999995E-2</v>
       </c>
       <c r="R13" s="67"/>
-      <c r="S13" s="78"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
+      <c r="S13" s="66">
+        <v>9</v>
+      </c>
+      <c r="T13" s="66">
+        <v>26</v>
+      </c>
+      <c r="U13" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V13" s="66">
+        <v>11</v>
+      </c>
+      <c r="W13" s="66">
+        <v>9</v>
+      </c>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
       <c r="Z13" s="19"/>
@@ -7438,7 +7539,9 @@
       <c r="D14" s="10">
         <v>2.4</v>
       </c>
-      <c r="E14" s="11"/>
+      <c r="E14" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F14" s="37">
         <v>0.40550840999999999</v>
       </c>
@@ -7476,9 +7579,21 @@
         <v>4.317E-2</v>
       </c>
       <c r="R14" s="67"/>
-      <c r="S14" s="78"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
+      <c r="S14" s="66">
+        <v>10</v>
+      </c>
+      <c r="T14" s="66">
+        <v>27</v>
+      </c>
+      <c r="U14" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V14" s="66">
+        <v>12</v>
+      </c>
+      <c r="W14" s="66">
+        <v>10</v>
+      </c>
       <c r="X14" s="19"/>
       <c r="Y14" s="19"/>
       <c r="Z14" s="19"/>
@@ -7587,7 +7702,9 @@
       <c r="D15" s="10">
         <v>0.7</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F15" s="37">
         <v>0.33273051100000006</v>
       </c>
@@ -7619,9 +7736,21 @@
         <v>4.8779999999999997E-2</v>
       </c>
       <c r="R15" s="67"/>
-      <c r="S15" s="78"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
+      <c r="S15" s="66">
+        <v>11</v>
+      </c>
+      <c r="T15" s="66">
+        <v>28</v>
+      </c>
+      <c r="U15" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V15" s="66">
+        <v>13</v>
+      </c>
+      <c r="W15" s="66">
+        <v>11</v>
+      </c>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
       <c r="Z15" s="19"/>
@@ -7730,7 +7859,9 @@
       <c r="D16" s="10">
         <v>1.4</v>
       </c>
-      <c r="E16" s="11"/>
+      <c r="E16" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F16" s="37">
         <v>0.38613458499999992</v>
       </c>
@@ -7768,9 +7899,21 @@
         <v>6.6449999999999995E-2</v>
       </c>
       <c r="R16" s="67"/>
-      <c r="S16" s="78"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
+      <c r="S16" s="66">
+        <v>12</v>
+      </c>
+      <c r="T16" s="66">
+        <v>29</v>
+      </c>
+      <c r="U16" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V16" s="66">
+        <v>14</v>
+      </c>
+      <c r="W16" s="66">
+        <v>12</v>
+      </c>
       <c r="X16" s="17"/>
       <c r="Y16" s="17"/>
       <c r="Z16" s="17"/>
@@ -7879,7 +8022,9 @@
       <c r="D17" s="10">
         <v>2.1</v>
       </c>
-      <c r="E17" s="11"/>
+      <c r="E17" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F17" s="37">
         <v>0.33745365900000002</v>
       </c>
@@ -7917,9 +8062,21 @@
         <v>8.974E-2</v>
       </c>
       <c r="R17" s="67"/>
-      <c r="S17" s="78"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
+      <c r="S17" s="66">
+        <v>13</v>
+      </c>
+      <c r="T17" s="66">
+        <v>30</v>
+      </c>
+      <c r="U17" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V17" s="66">
+        <v>15</v>
+      </c>
+      <c r="W17" s="66">
+        <v>13</v>
+      </c>
       <c r="X17" s="17"/>
       <c r="Y17" s="17"/>
       <c r="Z17" s="17"/>
@@ -8028,7 +8185,9 @@
       <c r="D18" s="10">
         <v>1.3</v>
       </c>
-      <c r="E18" s="11"/>
+      <c r="E18" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F18" s="37">
         <v>0.59878420999999993</v>
       </c>
@@ -8066,9 +8225,21 @@
         <v>120</v>
       </c>
       <c r="R18" s="67"/>
-      <c r="S18" s="78"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
+      <c r="S18" s="66">
+        <v>14</v>
+      </c>
+      <c r="T18" s="66">
+        <v>31</v>
+      </c>
+      <c r="U18" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V18" s="66">
+        <v>16</v>
+      </c>
+      <c r="W18" s="66">
+        <v>14</v>
+      </c>
       <c r="X18" s="65"/>
       <c r="Y18" s="65"/>
       <c r="Z18" s="65"/>
@@ -8177,7 +8348,9 @@
       <c r="D19" s="10">
         <v>2.1</v>
       </c>
-      <c r="E19" s="11"/>
+      <c r="E19" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F19" s="37">
         <v>0.55399931999999996</v>
       </c>
@@ -8215,9 +8388,21 @@
         <v>120</v>
       </c>
       <c r="R19" s="67"/>
-      <c r="S19" s="78"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
+      <c r="S19" s="66">
+        <v>15</v>
+      </c>
+      <c r="T19" s="66">
+        <v>32</v>
+      </c>
+      <c r="U19" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V19" s="66">
+        <v>17</v>
+      </c>
+      <c r="W19" s="66">
+        <v>15</v>
+      </c>
       <c r="X19" s="65"/>
       <c r="Y19" s="65"/>
       <c r="Z19" s="65"/>
@@ -8326,7 +8511,9 @@
       <c r="D20" s="10">
         <v>4</v>
       </c>
-      <c r="E20" s="11"/>
+      <c r="E20" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F20" s="37">
         <v>0.44425754999999995</v>
       </c>
@@ -8364,9 +8551,21 @@
         <v>120</v>
       </c>
       <c r="R20" s="67"/>
-      <c r="S20" s="78"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
+      <c r="S20" s="66">
+        <v>16</v>
+      </c>
+      <c r="T20" s="66">
+        <v>33</v>
+      </c>
+      <c r="U20" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V20" s="66">
+        <v>18</v>
+      </c>
+      <c r="W20" s="66">
+        <v>16</v>
+      </c>
       <c r="X20" s="65"/>
       <c r="Y20" s="65"/>
       <c r="Z20" s="65"/>
@@ -8475,7 +8674,9 @@
       <c r="D21" s="10">
         <v>1.5</v>
       </c>
-      <c r="E21" s="11"/>
+      <c r="E21" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F21" s="37">
         <v>0.53286882000000002</v>
       </c>
@@ -8513,9 +8714,21 @@
         <v>7.1940000000000004E-2</v>
       </c>
       <c r="R21" s="67"/>
-      <c r="S21" s="78"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
+      <c r="S21" s="66">
+        <v>17</v>
+      </c>
+      <c r="T21" s="66">
+        <v>34</v>
+      </c>
+      <c r="U21" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V21" s="66">
+        <v>19</v>
+      </c>
+      <c r="W21" s="66">
+        <v>17</v>
+      </c>
       <c r="X21" s="65"/>
       <c r="Y21" s="65"/>
       <c r="Z21" s="65"/>
@@ -8624,7 +8837,9 @@
       <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="11"/>
+      <c r="E22" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F22" s="37">
         <v>0.50605091199999985</v>
       </c>
@@ -8662,9 +8877,21 @@
         <v>3.9199999999999999E-2</v>
       </c>
       <c r="R22" s="67"/>
-      <c r="S22" s="78"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
+      <c r="S22" s="66">
+        <v>18</v>
+      </c>
+      <c r="T22" s="66">
+        <v>35</v>
+      </c>
+      <c r="U22" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V22" s="66">
+        <v>20</v>
+      </c>
+      <c r="W22" s="66">
+        <v>18</v>
+      </c>
       <c r="X22" s="65"/>
       <c r="Y22" s="65"/>
       <c r="Z22" s="65"/>
@@ -8773,7 +9000,9 @@
       <c r="D23" s="10">
         <v>4.7</v>
       </c>
-      <c r="E23" s="11"/>
+      <c r="E23" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F23" s="37">
         <v>0.50433440000000007</v>
       </c>
@@ -8811,9 +9040,21 @@
         <v>7.5719999999999996E-2</v>
       </c>
       <c r="R23" s="67"/>
-      <c r="S23" s="78"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
+      <c r="S23" s="66">
+        <v>19</v>
+      </c>
+      <c r="T23" s="66">
+        <v>36</v>
+      </c>
+      <c r="U23" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V23" s="66">
+        <v>21</v>
+      </c>
+      <c r="W23" s="66">
+        <v>19</v>
+      </c>
       <c r="X23" s="65"/>
       <c r="Y23" s="65"/>
       <c r="Z23" s="65"/>
@@ -8922,7 +9163,9 @@
       <c r="D24" s="53">
         <v>1.6</v>
       </c>
-      <c r="E24" s="54"/>
+      <c r="E24" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F24" s="37">
         <v>0.56857786399999999</v>
       </c>
@@ -8960,9 +9203,21 @@
         <v>3.134E-2</v>
       </c>
       <c r="R24" s="67"/>
-      <c r="S24" s="78"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
+      <c r="S24" s="66">
+        <v>20</v>
+      </c>
+      <c r="T24" s="66">
+        <v>37</v>
+      </c>
+      <c r="U24" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V24" s="66">
+        <v>22</v>
+      </c>
+      <c r="W24" s="66">
+        <v>20</v>
+      </c>
       <c r="X24" s="65"/>
       <c r="Y24" s="65"/>
       <c r="Z24" s="65"/>
@@ -9071,7 +9326,9 @@
       <c r="D25" s="10">
         <v>1</v>
       </c>
-      <c r="E25" s="11"/>
+      <c r="E25" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F25" s="37">
         <v>0.53895838699999998</v>
       </c>
@@ -9109,9 +9366,21 @@
         <v>7.5310000000000002E-2</v>
       </c>
       <c r="R25" s="67"/>
-      <c r="S25" s="78"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
+      <c r="S25" s="66">
+        <v>21</v>
+      </c>
+      <c r="T25" s="66">
+        <v>38</v>
+      </c>
+      <c r="U25" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V25" s="66">
+        <v>23</v>
+      </c>
+      <c r="W25" s="66">
+        <v>21</v>
+      </c>
       <c r="X25" s="65"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
@@ -9220,7 +9489,9 @@
       <c r="D26" s="10">
         <v>2.9</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="74">
+        <v>0.05</v>
+      </c>
       <c r="F26" s="37">
         <v>0.47339246400000007</v>
       </c>
@@ -9258,9 +9529,21 @@
         <v>120</v>
       </c>
       <c r="R26" s="67"/>
-      <c r="S26" s="78"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
+      <c r="S26" s="66">
+        <v>22</v>
+      </c>
+      <c r="T26" s="66">
+        <v>39</v>
+      </c>
+      <c r="U26" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="V26" s="66">
+        <v>24</v>
+      </c>
+      <c r="W26" s="66">
+        <v>22</v>
+      </c>
       <c r="X26" s="19"/>
       <c r="Y26" s="19"/>
       <c r="Z26" s="19"/>
@@ -20599,13 +20882,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="BD3:BF3"/>
-    <mergeCell ref="AW5:BG5"/>
-    <mergeCell ref="BM1:BM3"/>
-    <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="BL1:BL3"/>
-    <mergeCell ref="BH1:BH3"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="AM1:AR2"/>
+    <mergeCell ref="AS1:AV2"/>
+    <mergeCell ref="X1:AL2"/>
+    <mergeCell ref="S1:S3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="BJ1:BJ3"/>
     <mergeCell ref="K1:K3"/>
@@ -20622,16 +20905,16 @@
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="L1:L3"/>
     <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="V1:W2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="AM1:AR2"/>
-    <mergeCell ref="AS1:AV2"/>
-    <mergeCell ref="X1:AL2"/>
+    <mergeCell ref="BK1:BK3"/>
+    <mergeCell ref="BD3:BF3"/>
+    <mergeCell ref="AW5:BG5"/>
+    <mergeCell ref="BM1:BM3"/>
+    <mergeCell ref="BN1:BN3"/>
+    <mergeCell ref="BL1:BL3"/>
+    <mergeCell ref="BH1:BH3"/>
     <mergeCell ref="AW1:BG2"/>
     <mergeCell ref="AX3:AY3"/>
     <mergeCell ref="AZ3:BC3"/>
-    <mergeCell ref="S1:S3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20672,172 +20955,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="115" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="108" t="s">
+      <c r="F1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="136" t="s">
+      <c r="G1" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="101" t="s">
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="108" t="s">
+      <c r="K1" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="108" t="s">
+      <c r="L1" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="112" t="s">
+      <c r="M1" s="127" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="105" t="s">
+      <c r="N1" s="127"/>
+      <c r="O1" s="122" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="105" t="s">
+      <c r="P1" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="105" t="s">
+      <c r="Q1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="128" t="s">
+      <c r="R1" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="128" t="s">
+      <c r="S1" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="110" t="s">
+      <c r="T1" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110" t="s">
+      <c r="U1" s="125"/>
+      <c r="V1" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110" t="s">
+      <c r="W1" s="125"/>
+      <c r="X1" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="110" t="s">
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="110"/>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110" t="s">
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="125"/>
+      <c r="AJ1" s="125"/>
+      <c r="AK1" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="110"/>
-      <c r="AM1" s="110"/>
-      <c r="AN1" s="110"/>
-      <c r="AO1" s="110"/>
-      <c r="AP1" s="110"/>
-      <c r="AQ1" s="110" t="s">
+      <c r="AL1" s="125"/>
+      <c r="AM1" s="125"/>
+      <c r="AN1" s="125"/>
+      <c r="AO1" s="125"/>
+      <c r="AP1" s="125"/>
+      <c r="AQ1" s="125" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="110"/>
-      <c r="AS1" s="110"/>
-      <c r="AT1" s="110"/>
-      <c r="AU1" s="130" t="s">
+      <c r="AR1" s="125"/>
+      <c r="AS1" s="125"/>
+      <c r="AT1" s="125"/>
+      <c r="AU1" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="103" t="s">
+      <c r="AV1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="103" t="s">
+      <c r="AW1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="103" t="s">
+      <c r="AX1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="103" t="s">
+      <c r="AY1" s="101" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="128"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="101"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="112"/>
-      <c r="N2" s="112"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="128"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="110"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="110"/>
-      <c r="Z2" s="110"/>
-      <c r="AA2" s="110"/>
-      <c r="AB2" s="110"/>
-      <c r="AC2" s="110"/>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="110"/>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="110"/>
-      <c r="AO2" s="110"/>
-      <c r="AP2" s="110"/>
-      <c r="AQ2" s="110"/>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="110"/>
-      <c r="AT2" s="110"/>
-      <c r="AU2" s="130"/>
-      <c r="AV2" s="103"/>
-      <c r="AW2" s="103"/>
-      <c r="AX2" s="103"/>
-      <c r="AY2" s="103"/>
+      <c r="A2" s="117"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="125"/>
+      <c r="AJ2" s="125"/>
+      <c r="AK2" s="125"/>
+      <c r="AL2" s="125"/>
+      <c r="AM2" s="125"/>
+      <c r="AN2" s="125"/>
+      <c r="AO2" s="125"/>
+      <c r="AP2" s="125"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="125"/>
+      <c r="AS2" s="125"/>
+      <c r="AT2" s="125"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="101"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -20847,20 +21130,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="108"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="115"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="106"/>
-      <c r="P3" s="105"/>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="128"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
+      <c r="R3" s="110"/>
+      <c r="S3" s="110"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -20942,11 +21225,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="130"/>
-      <c r="AV3" s="103"/>
-      <c r="AW3" s="103"/>
-      <c r="AX3" s="103"/>
-      <c r="AY3" s="103"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -55910,15 +56193,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -55931,12 +56211,15 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBAAC7AE-FED5-4F6F-BB2B-A748EE6C4861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1757AA-B0CE-478B-A9A4-B78EC418ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4674,86 +4674,11 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4797,6 +4722,51 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -4805,6 +4775,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="381">
@@ -5540,8 +5540,8 @@
   <dimension ref="A1:BO377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Y11" sqref="Y10:Y11"/>
+      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AU10" sqref="AU10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5569,210 +5569,210 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="121" t="s">
+      <c r="G1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="123" t="s">
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="114" t="s">
+      <c r="L1" s="116" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="102" t="s">
+      <c r="M1" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="102"/>
-      <c r="O1" s="124" t="s">
+      <c r="N1" s="136"/>
+      <c r="O1" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="124" t="s">
+      <c r="P1" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="124" t="s">
+      <c r="Q1" s="128" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="110" t="s">
+      <c r="R1" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="110" t="s">
+      <c r="S1" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="100" t="s">
+      <c r="T1" s="134" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="100"/>
-      <c r="V1" s="100" t="s">
+      <c r="U1" s="134"/>
+      <c r="V1" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="100"/>
-      <c r="X1" s="141" t="s">
+      <c r="W1" s="134"/>
+      <c r="X1" s="131" t="s">
         <v>1040</v>
       </c>
-      <c r="Y1" s="104" t="s">
+      <c r="Y1" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="105"/>
-      <c r="AB1" s="105"/>
-      <c r="AC1" s="105"/>
-      <c r="AD1" s="105"/>
-      <c r="AE1" s="105"/>
-      <c r="AF1" s="105"/>
-      <c r="AG1" s="105"/>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="105"/>
-      <c r="AJ1" s="105"/>
-      <c r="AK1" s="105"/>
-      <c r="AL1" s="105"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="100" t="s">
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="139"/>
+      <c r="AB1" s="139"/>
+      <c r="AC1" s="139"/>
+      <c r="AD1" s="139"/>
+      <c r="AE1" s="139"/>
+      <c r="AF1" s="139"/>
+      <c r="AG1" s="139"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="139"/>
+      <c r="AJ1" s="139"/>
+      <c r="AK1" s="139"/>
+      <c r="AL1" s="139"/>
+      <c r="AM1" s="140"/>
+      <c r="AN1" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="100"/>
-      <c r="AP1" s="100"/>
-      <c r="AQ1" s="100"/>
-      <c r="AR1" s="100"/>
-      <c r="AS1" s="100"/>
-      <c r="AT1" s="100" t="s">
+      <c r="AO1" s="134"/>
+      <c r="AP1" s="134"/>
+      <c r="AQ1" s="134"/>
+      <c r="AR1" s="134"/>
+      <c r="AS1" s="134"/>
+      <c r="AT1" s="134" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" s="100"/>
-      <c r="AV1" s="100"/>
-      <c r="AW1" s="100"/>
-      <c r="AX1" s="134" t="s">
+      <c r="AU1" s="134"/>
+      <c r="AV1" s="134"/>
+      <c r="AW1" s="134"/>
+      <c r="AX1" s="109" t="s">
         <v>1048</v>
       </c>
-      <c r="AY1" s="135"/>
-      <c r="AZ1" s="135"/>
-      <c r="BA1" s="135"/>
-      <c r="BB1" s="135"/>
-      <c r="BC1" s="135"/>
-      <c r="BD1" s="135"/>
-      <c r="BE1" s="135"/>
-      <c r="BF1" s="135"/>
-      <c r="BG1" s="135"/>
-      <c r="BH1" s="136"/>
-      <c r="BI1" s="132" t="s">
+      <c r="AY1" s="110"/>
+      <c r="AZ1" s="110"/>
+      <c r="BA1" s="110"/>
+      <c r="BB1" s="110"/>
+      <c r="BC1" s="110"/>
+      <c r="BD1" s="110"/>
+      <c r="BE1" s="110"/>
+      <c r="BF1" s="110"/>
+      <c r="BG1" s="110"/>
+      <c r="BH1" s="111"/>
+      <c r="BI1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" s="112" t="s">
+      <c r="BJ1" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="112" t="s">
+      <c r="BK1" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="BL1" s="112" t="s">
+      <c r="BL1" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="BM1" s="130" t="s">
+      <c r="BM1" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="BN1" s="128" t="s">
+      <c r="BN1" s="103" t="s">
         <v>1077</v>
       </c>
-      <c r="BO1" s="128" t="s">
+      <c r="BO1" s="103" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A2" s="117"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="142"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="108"/>
-      <c r="AH2" s="108"/>
-      <c r="AI2" s="108"/>
-      <c r="AJ2" s="108"/>
-      <c r="AK2" s="108"/>
-      <c r="AL2" s="108"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="101"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138"/>
-      <c r="BH2" s="139"/>
-      <c r="BI2" s="133"/>
-      <c r="BJ2" s="113"/>
-      <c r="BK2" s="113"/>
-      <c r="BL2" s="113"/>
-      <c r="BM2" s="131"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
+      <c r="A2" s="119"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="132"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="142"/>
+      <c r="AH2" s="142"/>
+      <c r="AI2" s="142"/>
+      <c r="AJ2" s="142"/>
+      <c r="AK2" s="142"/>
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="143"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="135"/>
+      <c r="AV2" s="135"/>
+      <c r="AW2" s="135"/>
+      <c r="AX2" s="112"/>
+      <c r="AY2" s="113"/>
+      <c r="AZ2" s="113"/>
+      <c r="BA2" s="113"/>
+      <c r="BB2" s="113"/>
+      <c r="BC2" s="113"/>
+      <c r="BD2" s="113"/>
+      <c r="BE2" s="113"/>
+      <c r="BF2" s="113"/>
+      <c r="BG2" s="113"/>
+      <c r="BH2" s="114"/>
+      <c r="BI2" s="108"/>
+      <c r="BJ2" s="101"/>
+      <c r="BK2" s="101"/>
+      <c r="BL2" s="101"/>
+      <c r="BM2" s="106"/>
+      <c r="BN2" s="104"/>
+      <c r="BO2" s="104"/>
     </row>
     <row r="3" spans="1:67" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="117"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="115"/>
+      <c r="A3" s="119"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -5782,20 +5782,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="118"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5808,7 +5808,7 @@
       <c r="W3" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="X3" s="143"/>
+      <c r="X3" s="133"/>
       <c r="Y3" s="3" t="s">
         <v>1040</v>
       </c>
@@ -5887,31 +5887,31 @@
       <c r="AX3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="AY3" s="140" t="s">
+      <c r="AY3" s="115" t="s">
         <v>1050</v>
       </c>
-      <c r="AZ3" s="140"/>
-      <c r="BA3" s="127" t="s">
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="102" t="s">
         <v>1051</v>
       </c>
-      <c r="BB3" s="127"/>
-      <c r="BC3" s="127"/>
-      <c r="BD3" s="127"/>
-      <c r="BE3" s="127" t="s">
+      <c r="BB3" s="102"/>
+      <c r="BC3" s="102"/>
+      <c r="BD3" s="102"/>
+      <c r="BE3" s="102" t="s">
         <v>1052</v>
       </c>
-      <c r="BF3" s="127"/>
-      <c r="BG3" s="127"/>
+      <c r="BF3" s="102"/>
+      <c r="BG3" s="102"/>
       <c r="BH3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BI3" s="133"/>
-      <c r="BJ3" s="113"/>
-      <c r="BK3" s="113"/>
-      <c r="BL3" s="113"/>
-      <c r="BM3" s="131"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
+      <c r="BI3" s="108"/>
+      <c r="BJ3" s="101"/>
+      <c r="BK3" s="101"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="106"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
     </row>
     <row r="4" spans="1:67" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
@@ -6262,19 +6262,19 @@
       <c r="AW5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AX5" s="127" t="s">
+      <c r="AX5" s="102" t="s">
         <v>1065</v>
       </c>
-      <c r="AY5" s="127"/>
-      <c r="AZ5" s="127"/>
-      <c r="BA5" s="127"/>
-      <c r="BB5" s="127"/>
-      <c r="BC5" s="127"/>
-      <c r="BD5" s="127"/>
-      <c r="BE5" s="127"/>
-      <c r="BF5" s="127"/>
-      <c r="BG5" s="127"/>
-      <c r="BH5" s="127"/>
+      <c r="AY5" s="102"/>
+      <c r="AZ5" s="102"/>
+      <c r="BA5" s="102"/>
+      <c r="BB5" s="102"/>
+      <c r="BC5" s="102"/>
+      <c r="BD5" s="102"/>
+      <c r="BE5" s="102"/>
+      <c r="BF5" s="102"/>
+      <c r="BG5" s="102"/>
+      <c r="BH5" s="102"/>
       <c r="BI5" s="30"/>
       <c r="BJ5" s="32"/>
       <c r="BK5" s="32"/>
@@ -21120,6 +21120,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AN1:AS2"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="Y1:AM2"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="R1:R3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="BL1:BL3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="AX5:BH5"/>
@@ -21131,29 +21153,7 @@
     <mergeCell ref="AY3:AZ3"/>
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BK1:BK3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="J1:J3"/>
     <mergeCell ref="BJ1:BJ3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="V1:W2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="AN1:AS2"/>
-    <mergeCell ref="AT1:AW2"/>
-    <mergeCell ref="Y1:AM2"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="R1:R3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21194,172 +21194,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="111" t="s">
+      <c r="E1" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="124" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="115" t="s">
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="118" t="s">
+      <c r="K1" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="118" t="s">
+      <c r="L1" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="103"/>
-      <c r="O1" s="125" t="s">
+      <c r="N1" s="137"/>
+      <c r="O1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="125" t="s">
+      <c r="P1" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="125" t="s">
+      <c r="Q1" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="111" t="s">
+      <c r="R1" s="126" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="111" t="s">
+      <c r="S1" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="101" t="s">
+      <c r="T1" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101" t="s">
+      <c r="U1" s="135"/>
+      <c r="V1" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101" t="s">
+      <c r="W1" s="135"/>
+      <c r="X1" s="135" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101" t="s">
+      <c r="Y1" s="135"/>
+      <c r="Z1" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101" t="s">
+      <c r="AA1" s="135"/>
+      <c r="AB1" s="135"/>
+      <c r="AC1" s="135"/>
+      <c r="AD1" s="135"/>
+      <c r="AE1" s="135"/>
+      <c r="AF1" s="135"/>
+      <c r="AG1" s="135"/>
+      <c r="AH1" s="135"/>
+      <c r="AI1" s="135"/>
+      <c r="AJ1" s="135"/>
+      <c r="AK1" s="135" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="101"/>
-      <c r="AP1" s="101"/>
-      <c r="AQ1" s="101" t="s">
+      <c r="AL1" s="135"/>
+      <c r="AM1" s="135"/>
+      <c r="AN1" s="135"/>
+      <c r="AO1" s="135"/>
+      <c r="AP1" s="135"/>
+      <c r="AQ1" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="101"/>
-      <c r="AS1" s="101"/>
-      <c r="AT1" s="101"/>
-      <c r="AU1" s="133" t="s">
+      <c r="AR1" s="135"/>
+      <c r="AS1" s="135"/>
+      <c r="AT1" s="135"/>
+      <c r="AU1" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="113" t="s">
+      <c r="AV1" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="113" t="s">
+      <c r="AW1" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="113" t="s">
+      <c r="AX1" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="113" t="s">
+      <c r="AY1" s="101" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="120"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="126"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="101"/>
-      <c r="AD2" s="101"/>
-      <c r="AE2" s="101"/>
-      <c r="AF2" s="101"/>
-      <c r="AG2" s="101"/>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="101"/>
-      <c r="AJ2" s="101"/>
-      <c r="AK2" s="101"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="101"/>
-      <c r="AN2" s="101"/>
-      <c r="AO2" s="101"/>
-      <c r="AP2" s="101"/>
-      <c r="AQ2" s="101"/>
-      <c r="AR2" s="101"/>
-      <c r="AS2" s="101"/>
-      <c r="AT2" s="101"/>
-      <c r="AU2" s="133"/>
-      <c r="AV2" s="113"/>
-      <c r="AW2" s="113"/>
-      <c r="AX2" s="113"/>
-      <c r="AY2" s="113"/>
+      <c r="A2" s="122"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="137"/>
+      <c r="N2" s="137"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="129"/>
+      <c r="Q2" s="129"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="135"/>
+      <c r="U2" s="135"/>
+      <c r="V2" s="135"/>
+      <c r="W2" s="135"/>
+      <c r="X2" s="135"/>
+      <c r="Y2" s="135"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="135"/>
+      <c r="AB2" s="135"/>
+      <c r="AC2" s="135"/>
+      <c r="AD2" s="135"/>
+      <c r="AE2" s="135"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="135"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="135"/>
+      <c r="AL2" s="135"/>
+      <c r="AM2" s="135"/>
+      <c r="AN2" s="135"/>
+      <c r="AO2" s="135"/>
+      <c r="AP2" s="135"/>
+      <c r="AQ2" s="135"/>
+      <c r="AR2" s="135"/>
+      <c r="AS2" s="135"/>
+      <c r="AT2" s="135"/>
+      <c r="AU2" s="108"/>
+      <c r="AV2" s="101"/>
+      <c r="AW2" s="101"/>
+      <c r="AX2" s="101"/>
+      <c r="AY2" s="101"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="115"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="122"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
       </c>
@@ -21369,20 +21369,20 @@
       <c r="I3" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="118"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="126"/>
-      <c r="P3" s="125"/>
-      <c r="Q3" s="125"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="129"/>
+      <c r="Q3" s="129"/>
+      <c r="R3" s="126"/>
+      <c r="S3" s="126"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -21464,11 +21464,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="133"/>
-      <c r="AV3" s="113"/>
-      <c r="AW3" s="113"/>
-      <c r="AX3" s="113"/>
-      <c r="AY3" s="113"/>
+      <c r="AU3" s="108"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="101"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -56432,15 +56432,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -56453,12 +56450,15 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1757AA-B0CE-478B-A9A4-B78EC418ECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A083B769-5385-43CF-B7E0-C3023E18A82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$BM$24</definedName>
@@ -3702,7 +3703,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4368,7 +4369,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4609,9 +4610,6 @@
     <xf numFmtId="2" fontId="19" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -4665,14 +4663,92 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4682,12 +4758,6 @@
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4722,89 +4792,17 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="381">
@@ -5540,8 +5538,8 @@
   <dimension ref="A1:BO377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="X1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AU10" sqref="AU10"/>
+      <pane xSplit="1" topLeftCell="AU1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BI8" sqref="BI8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5572,206 +5570,206 @@
       <c r="A1" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="120" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="127" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="136" t="s">
+      <c r="M1" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="136"/>
-      <c r="O1" s="128" t="s">
+      <c r="N1" s="115"/>
+      <c r="O1" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="128" t="s">
+      <c r="P1" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="128" t="s">
+      <c r="Q1" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="125" t="s">
+      <c r="R1" s="105" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="125" t="s">
+      <c r="S1" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="134" t="s">
+      <c r="T1" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="97" t="s">
         <v>56</v>
       </c>
-      <c r="W1" s="134"/>
-      <c r="X1" s="131" t="s">
+      <c r="W1" s="97"/>
+      <c r="X1" s="112" t="s">
         <v>1040</v>
       </c>
-      <c r="Y1" s="138" t="s">
+      <c r="Y1" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="139"/>
-      <c r="AB1" s="139"/>
-      <c r="AC1" s="139"/>
-      <c r="AD1" s="139"/>
-      <c r="AE1" s="139"/>
-      <c r="AF1" s="139"/>
-      <c r="AG1" s="139"/>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="139"/>
-      <c r="AJ1" s="139"/>
-      <c r="AK1" s="139"/>
-      <c r="AL1" s="139"/>
-      <c r="AM1" s="140"/>
-      <c r="AN1" s="134" t="s">
+      <c r="Z1" s="100"/>
+      <c r="AA1" s="100"/>
+      <c r="AB1" s="100"/>
+      <c r="AC1" s="100"/>
+      <c r="AD1" s="100"/>
+      <c r="AE1" s="100"/>
+      <c r="AF1" s="100"/>
+      <c r="AG1" s="100"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="101"/>
+      <c r="AN1" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134" t="s">
+      <c r="AO1" s="97"/>
+      <c r="AP1" s="97"/>
+      <c r="AQ1" s="97"/>
+      <c r="AR1" s="97"/>
+      <c r="AS1" s="97"/>
+      <c r="AT1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
-      <c r="AX1" s="109" t="s">
+      <c r="AU1" s="97"/>
+      <c r="AV1" s="97"/>
+      <c r="AW1" s="97"/>
+      <c r="AX1" s="132" t="s">
         <v>1048</v>
       </c>
-      <c r="AY1" s="110"/>
-      <c r="AZ1" s="110"/>
-      <c r="BA1" s="110"/>
-      <c r="BB1" s="110"/>
-      <c r="BC1" s="110"/>
-      <c r="BD1" s="110"/>
-      <c r="BE1" s="110"/>
-      <c r="BF1" s="110"/>
-      <c r="BG1" s="110"/>
-      <c r="BH1" s="111"/>
-      <c r="BI1" s="107" t="s">
+      <c r="AY1" s="133"/>
+      <c r="AZ1" s="133"/>
+      <c r="BA1" s="133"/>
+      <c r="BB1" s="133"/>
+      <c r="BC1" s="133"/>
+      <c r="BD1" s="133"/>
+      <c r="BE1" s="133"/>
+      <c r="BF1" s="133"/>
+      <c r="BG1" s="133"/>
+      <c r="BH1" s="134"/>
+      <c r="BI1" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="BJ1" s="100" t="s">
+      <c r="BJ1" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="BK1" s="100" t="s">
+      <c r="BK1" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="BL1" s="100" t="s">
+      <c r="BL1" s="125" t="s">
         <v>43</v>
       </c>
-      <c r="BM1" s="105" t="s">
+      <c r="BM1" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="BN1" s="103" t="s">
+      <c r="BN1" s="139" t="s">
         <v>1077</v>
       </c>
-      <c r="BO1" s="103" t="s">
+      <c r="BO1" s="139" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" s="119"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="126"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="117"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="117"/>
       <c r="K2" s="117"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="132"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="142"/>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="142"/>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="142"/>
-      <c r="AG2" s="142"/>
-      <c r="AH2" s="142"/>
-      <c r="AI2" s="142"/>
-      <c r="AJ2" s="142"/>
-      <c r="AK2" s="142"/>
-      <c r="AL2" s="142"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="112"/>
-      <c r="AY2" s="113"/>
-      <c r="AZ2" s="113"/>
-      <c r="BA2" s="113"/>
-      <c r="BB2" s="113"/>
-      <c r="BC2" s="113"/>
-      <c r="BD2" s="113"/>
-      <c r="BE2" s="113"/>
-      <c r="BF2" s="113"/>
-      <c r="BG2" s="113"/>
-      <c r="BH2" s="114"/>
-      <c r="BI2" s="108"/>
-      <c r="BJ2" s="101"/>
-      <c r="BK2" s="101"/>
-      <c r="BL2" s="101"/>
-      <c r="BM2" s="106"/>
-      <c r="BN2" s="104"/>
-      <c r="BO2" s="104"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="102"/>
+      <c r="Z2" s="103"/>
+      <c r="AA2" s="103"/>
+      <c r="AB2" s="103"/>
+      <c r="AC2" s="103"/>
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="103"/>
+      <c r="AG2" s="103"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="103"/>
+      <c r="AJ2" s="103"/>
+      <c r="AK2" s="103"/>
+      <c r="AL2" s="103"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="98"/>
+      <c r="AV2" s="98"/>
+      <c r="AW2" s="98"/>
+      <c r="AX2" s="135"/>
+      <c r="AY2" s="136"/>
+      <c r="AZ2" s="136"/>
+      <c r="BA2" s="136"/>
+      <c r="BB2" s="136"/>
+      <c r="BC2" s="136"/>
+      <c r="BD2" s="136"/>
+      <c r="BE2" s="136"/>
+      <c r="BF2" s="136"/>
+      <c r="BG2" s="136"/>
+      <c r="BH2" s="137"/>
+      <c r="BI2" s="131"/>
+      <c r="BJ2" s="126"/>
+      <c r="BK2" s="126"/>
+      <c r="BL2" s="126"/>
+      <c r="BM2" s="129"/>
+      <c r="BN2" s="140"/>
+      <c r="BO2" s="140"/>
     </row>
     <row r="3" spans="1:67" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="119"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="126"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
@@ -5784,18 +5782,18 @@
       </c>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="120"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="130"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -5808,7 +5806,7 @@
       <c r="W3" s="3" t="s">
         <v>1083</v>
       </c>
-      <c r="X3" s="133"/>
+      <c r="X3" s="114"/>
       <c r="Y3" s="3" t="s">
         <v>1040</v>
       </c>
@@ -5887,34 +5885,34 @@
       <c r="AX3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="AY3" s="115" t="s">
+      <c r="AY3" s="138" t="s">
         <v>1050</v>
       </c>
-      <c r="AZ3" s="115"/>
-      <c r="BA3" s="102" t="s">
+      <c r="AZ3" s="138"/>
+      <c r="BA3" s="127" t="s">
         <v>1051</v>
       </c>
-      <c r="BB3" s="102"/>
-      <c r="BC3" s="102"/>
-      <c r="BD3" s="102"/>
-      <c r="BE3" s="102" t="s">
+      <c r="BB3" s="127"/>
+      <c r="BC3" s="127"/>
+      <c r="BD3" s="127"/>
+      <c r="BE3" s="127" t="s">
         <v>1052</v>
       </c>
-      <c r="BF3" s="102"/>
-      <c r="BG3" s="102"/>
+      <c r="BF3" s="127"/>
+      <c r="BG3" s="127"/>
       <c r="BH3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BI3" s="108"/>
-      <c r="BJ3" s="101"/>
-      <c r="BK3" s="101"/>
-      <c r="BL3" s="101"/>
-      <c r="BM3" s="106"/>
-      <c r="BN3" s="104"/>
-      <c r="BO3" s="104"/>
+      <c r="BI3" s="131"/>
+      <c r="BJ3" s="126"/>
+      <c r="BK3" s="126"/>
+      <c r="BL3" s="126"/>
+      <c r="BM3" s="129"/>
+      <c r="BN3" s="140"/>
+      <c r="BO3" s="140"/>
     </row>
     <row r="4" spans="1:67" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="84" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -6104,18 +6102,18 @@
       <c r="BL4" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BM4" s="86" t="s">
+      <c r="BM4" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="BN4" s="98" t="s">
+      <c r="BN4" s="141" t="s">
         <v>1079</v>
       </c>
-      <c r="BO4" s="98" t="s">
+      <c r="BO4" s="141" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="5" spans="1:67" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="84" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -6262,227 +6260,227 @@
       <c r="AW5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AX5" s="102" t="s">
+      <c r="AX5" s="127" t="s">
         <v>1065</v>
       </c>
-      <c r="AY5" s="102"/>
-      <c r="AZ5" s="102"/>
-      <c r="BA5" s="102"/>
-      <c r="BB5" s="102"/>
-      <c r="BC5" s="102"/>
-      <c r="BD5" s="102"/>
-      <c r="BE5" s="102"/>
-      <c r="BF5" s="102"/>
-      <c r="BG5" s="102"/>
-      <c r="BH5" s="102"/>
+      <c r="AY5" s="127"/>
+      <c r="AZ5" s="127"/>
+      <c r="BA5" s="127"/>
+      <c r="BB5" s="127"/>
+      <c r="BC5" s="127"/>
+      <c r="BD5" s="127"/>
+      <c r="BE5" s="127"/>
+      <c r="BF5" s="127"/>
+      <c r="BG5" s="127"/>
+      <c r="BH5" s="127"/>
       <c r="BI5" s="30"/>
       <c r="BJ5" s="32"/>
       <c r="BK5" s="32"/>
       <c r="BL5" s="32"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="97"/>
-      <c r="BO5" s="97"/>
+      <c r="BM5" s="86"/>
+      <c r="BN5" s="142"/>
+      <c r="BO5" s="142"/>
     </row>
     <row r="6" spans="1:67" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="87" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C6" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="89" t="s">
+      <c r="D6" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="89" t="s">
+      <c r="G6" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="91" t="s">
+      <c r="I6" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="91" t="s">
+      <c r="J6" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="91" t="s">
+      <c r="K6" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="91" t="s">
+      <c r="L6" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="92" t="s">
+      <c r="M6" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="92" t="s">
+      <c r="N6" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="92" t="s">
+      <c r="O6" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="P6" s="92" t="s">
+      <c r="P6" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="92" t="s">
+      <c r="Q6" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="R6" s="93" t="s">
+      <c r="R6" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="93" t="s">
+      <c r="S6" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="T6" s="92" t="s">
+      <c r="T6" s="91" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="92" t="s">
+      <c r="U6" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="94" t="s">
+      <c r="V6" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="W6" s="94" t="s">
+      <c r="W6" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="X6" s="94" t="s">
+      <c r="X6" s="93" t="s">
         <v>1086</v>
       </c>
-      <c r="Y6" s="94" t="s">
+      <c r="Y6" s="93" t="s">
         <v>1084</v>
       </c>
-      <c r="Z6" s="94" t="s">
+      <c r="Z6" s="93" t="s">
         <v>1042</v>
       </c>
-      <c r="AA6" s="94" t="s">
+      <c r="AA6" s="93" t="s">
         <v>1045</v>
       </c>
-      <c r="AB6" s="94" t="s">
+      <c r="AB6" s="93" t="s">
         <v>1047</v>
       </c>
-      <c r="AC6" s="94" t="s">
+      <c r="AC6" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="AD6" s="94" t="s">
+      <c r="AD6" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="AE6" s="94" t="s">
+      <c r="AE6" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="94" t="s">
+      <c r="AF6" s="93" t="s">
         <v>105</v>
       </c>
-      <c r="AG6" s="94" t="s">
+      <c r="AG6" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="AH6" s="94" t="s">
+      <c r="AH6" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="AI6" s="94" t="s">
+      <c r="AI6" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="AJ6" s="94" t="s">
+      <c r="AJ6" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="AK6" s="94" t="s">
+      <c r="AK6" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="AL6" s="94" t="s">
+      <c r="AL6" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="AM6" s="94" t="s">
+      <c r="AM6" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="AN6" s="94" t="s">
+      <c r="AN6" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="AO6" s="94" t="s">
+      <c r="AO6" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="AP6" s="94" t="s">
+      <c r="AP6" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="AQ6" s="94" t="s">
+      <c r="AQ6" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="AR6" s="94" t="s">
+      <c r="AR6" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="AS6" s="94" t="s">
+      <c r="AS6" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="AT6" s="94" t="s">
+      <c r="AT6" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="AU6" s="94" t="s">
+      <c r="AU6" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="AV6" s="94" t="s">
+      <c r="AV6" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="AW6" s="94" t="s">
+      <c r="AW6" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="AX6" s="94" t="s">
+      <c r="AX6" s="93" t="s">
         <v>1066</v>
       </c>
-      <c r="AY6" s="94" t="s">
+      <c r="AY6" s="93" t="s">
         <v>1067</v>
       </c>
-      <c r="AZ6" s="94" t="s">
+      <c r="AZ6" s="93" t="s">
         <v>1068</v>
       </c>
-      <c r="BA6" s="94" t="s">
+      <c r="BA6" s="93" t="s">
         <v>1069</v>
       </c>
-      <c r="BB6" s="94" t="s">
+      <c r="BB6" s="93" t="s">
         <v>1070</v>
       </c>
-      <c r="BC6" s="94" t="s">
+      <c r="BC6" s="93" t="s">
         <v>1071</v>
       </c>
-      <c r="BD6" s="94" t="s">
+      <c r="BD6" s="93" t="s">
         <v>1072</v>
       </c>
-      <c r="BE6" s="94" t="s">
+      <c r="BE6" s="93" t="s">
         <v>1073</v>
       </c>
-      <c r="BF6" s="94" t="s">
+      <c r="BF6" s="93" t="s">
         <v>1074</v>
       </c>
-      <c r="BG6" s="94" t="s">
+      <c r="BG6" s="93" t="s">
         <v>1075</v>
       </c>
-      <c r="BH6" s="94" t="s">
+      <c r="BH6" s="93" t="s">
         <v>1076</v>
       </c>
-      <c r="BI6" s="91" t="s">
+      <c r="BI6" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="BJ6" s="95" t="s">
+      <c r="BJ6" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="BK6" s="95" t="s">
+      <c r="BK6" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="BL6" s="95" t="s">
+      <c r="BL6" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="BM6" s="96" t="s">
+      <c r="BM6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BN6" s="98" t="s">
+      <c r="BN6" s="141" t="s">
         <v>1079</v>
       </c>
-      <c r="BO6" s="98" t="s">
+      <c r="BO6" s="141" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -6583,12 +6581,22 @@
       <c r="AM7" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="78"/>
-      <c r="AP7" s="78"/>
+      <c r="AN7" s="78">
+        <v>0.05</v>
+      </c>
+      <c r="AO7" s="78">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP7" s="78">
+        <v>0.25</v>
+      </c>
       <c r="AQ7" s="78"/>
-      <c r="AR7" s="79"/>
-      <c r="AS7" s="78"/>
+      <c r="AR7" s="66">
+        <v>20</v>
+      </c>
+      <c r="AS7" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT7" s="78"/>
       <c r="AU7" s="78"/>
       <c r="AV7" s="78"/>
@@ -6626,25 +6634,25 @@
       <c r="BH7" s="17">
         <v>6.95</v>
       </c>
-      <c r="BI7" s="80" t="s">
+      <c r="BI7" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="BJ7" s="81" t="s">
+      <c r="BJ7" s="80" t="s">
         <v>281</v>
       </c>
-      <c r="BK7" s="82" t="s">
+      <c r="BK7" s="81" t="s">
         <v>282</v>
       </c>
-      <c r="BL7" s="83">
+      <c r="BL7" s="82">
         <v>44885</v>
       </c>
-      <c r="BM7" s="84" t="s">
+      <c r="BM7" s="83" t="s">
         <v>283</v>
       </c>
-      <c r="BN7" s="99" t="s">
+      <c r="BN7" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO7" s="99" t="s">
+      <c r="BO7" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6737,12 +6745,22 @@
       <c r="AM8" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN8" s="15"/>
-      <c r="AO8" s="15"/>
-      <c r="AP8" s="15"/>
+      <c r="AN8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO8" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP8" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ8" s="15"/>
-      <c r="AR8" s="20"/>
-      <c r="AS8" s="15"/>
+      <c r="AR8" s="66">
+        <v>21</v>
+      </c>
+      <c r="AS8" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT8" s="15"/>
       <c r="AU8" s="15"/>
       <c r="AV8" s="15"/>
@@ -6795,10 +6813,10 @@
       <c r="BM8" s="26" t="s">
         <v>287</v>
       </c>
-      <c r="BN8" s="99" t="s">
+      <c r="BN8" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO8" s="99" t="s">
+      <c r="BO8" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -6893,12 +6911,22 @@
       <c r="AM9" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN9" s="15"/>
-      <c r="AO9" s="15"/>
-      <c r="AP9" s="15"/>
+      <c r="AN9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO9" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP9" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ9" s="15"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="15"/>
+      <c r="AR9" s="66">
+        <v>22</v>
+      </c>
+      <c r="AS9" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT9" s="15"/>
       <c r="AU9" s="15"/>
       <c r="AV9" s="15"/>
@@ -6951,10 +6979,10 @@
       <c r="BM9" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="BN9" s="99" t="s">
+      <c r="BN9" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO9" s="99" t="s">
+      <c r="BO9" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7055,12 +7083,22 @@
       <c r="AM10" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN10" s="15"/>
-      <c r="AO10" s="15"/>
-      <c r="AP10" s="15"/>
+      <c r="AN10" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ10" s="15"/>
-      <c r="AR10" s="20"/>
-      <c r="AS10" s="15"/>
+      <c r="AR10" s="66">
+        <v>23</v>
+      </c>
+      <c r="AS10" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT10" s="15"/>
       <c r="AU10" s="15"/>
       <c r="AV10" s="15"/>
@@ -7113,10 +7151,10 @@
       <c r="BM10" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="BN10" s="99" t="s">
+      <c r="BN10" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO10" s="99" t="s">
+      <c r="BO10" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7211,12 +7249,22 @@
       <c r="AM11" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN11" s="15"/>
-      <c r="AO11" s="15"/>
-      <c r="AP11" s="15"/>
+      <c r="AN11" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO11" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP11" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ11" s="15"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="15"/>
+      <c r="AR11" s="66">
+        <v>24</v>
+      </c>
+      <c r="AS11" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT11" s="15"/>
       <c r="AU11" s="15"/>
       <c r="AV11" s="15"/>
@@ -7269,10 +7317,10 @@
       <c r="BM11" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="BN11" s="99" t="s">
+      <c r="BN11" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO11" s="99" t="s">
+      <c r="BO11" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7369,12 +7417,22 @@
       <c r="AM12" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN12" s="15"/>
-      <c r="AO12" s="15"/>
-      <c r="AP12" s="15"/>
+      <c r="AN12" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO12" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP12" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ12" s="15"/>
-      <c r="AR12" s="20"/>
-      <c r="AS12" s="15"/>
+      <c r="AR12" s="66">
+        <v>25</v>
+      </c>
+      <c r="AS12" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT12" s="15"/>
       <c r="AU12" s="15"/>
       <c r="AV12" s="15"/>
@@ -7427,10 +7485,10 @@
       <c r="BM12" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="BN12" s="99" t="s">
+      <c r="BN12" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO12" s="99" t="s">
+      <c r="BO12" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7533,12 +7591,22 @@
       <c r="AM13" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN13" s="15"/>
-      <c r="AO13" s="15"/>
-      <c r="AP13" s="15"/>
+      <c r="AN13" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO13" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP13" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ13" s="15"/>
-      <c r="AR13" s="20"/>
-      <c r="AS13" s="15"/>
+      <c r="AR13" s="66">
+        <v>26</v>
+      </c>
+      <c r="AS13" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT13" s="15"/>
       <c r="AU13" s="15"/>
       <c r="AV13" s="15"/>
@@ -7591,10 +7659,10 @@
       <c r="BM13" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="BN13" s="99" t="s">
+      <c r="BN13" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO13" s="99" t="s">
+      <c r="BO13" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7697,12 +7765,22 @@
       <c r="AM14" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN14" s="15"/>
-      <c r="AO14" s="15"/>
-      <c r="AP14" s="15"/>
+      <c r="AN14" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO14" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP14" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ14" s="15"/>
-      <c r="AR14" s="20"/>
-      <c r="AS14" s="15"/>
+      <c r="AR14" s="66">
+        <v>27</v>
+      </c>
+      <c r="AS14" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT14" s="15"/>
       <c r="AU14" s="15"/>
       <c r="AV14" s="15"/>
@@ -7755,10 +7833,10 @@
       <c r="BM14" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="BN14" s="99" t="s">
+      <c r="BN14" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO14" s="99" t="s">
+      <c r="BO14" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -7855,12 +7933,22 @@
       <c r="AM15" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN15" s="15"/>
-      <c r="AO15" s="15"/>
-      <c r="AP15" s="15"/>
+      <c r="AN15" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO15" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP15" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ15" s="15"/>
-      <c r="AR15" s="20"/>
-      <c r="AS15" s="15"/>
+      <c r="AR15" s="66">
+        <v>28</v>
+      </c>
+      <c r="AS15" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT15" s="15"/>
       <c r="AU15" s="15"/>
       <c r="AV15" s="15"/>
@@ -7913,10 +8001,10 @@
       <c r="BM15" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="BN15" s="99" t="s">
+      <c r="BN15" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO15" s="99" t="s">
+      <c r="BO15" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8019,12 +8107,22 @@
       <c r="AM16" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN16" s="15"/>
-      <c r="AO16" s="15"/>
-      <c r="AP16" s="15"/>
+      <c r="AN16" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO16" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP16" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ16" s="15"/>
-      <c r="AR16" s="20"/>
-      <c r="AS16" s="15"/>
+      <c r="AR16" s="66">
+        <v>29</v>
+      </c>
+      <c r="AS16" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT16" s="15"/>
       <c r="AU16" s="15"/>
       <c r="AV16" s="15"/>
@@ -8077,10 +8175,10 @@
       <c r="BM16" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="BN16" s="99" t="s">
+      <c r="BN16" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO16" s="99" t="s">
+      <c r="BO16" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8183,12 +8281,22 @@
       <c r="AM17" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN17" s="15"/>
-      <c r="AO17" s="15"/>
-      <c r="AP17" s="15"/>
+      <c r="AN17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO17" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP17" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ17" s="15"/>
-      <c r="AR17" s="20"/>
-      <c r="AS17" s="15"/>
+      <c r="AR17" s="66">
+        <v>30</v>
+      </c>
+      <c r="AS17" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT17" s="15"/>
       <c r="AU17" s="15"/>
       <c r="AV17" s="15"/>
@@ -8241,10 +8349,10 @@
       <c r="BM17" s="26" t="s">
         <v>311</v>
       </c>
-      <c r="BN17" s="99" t="s">
+      <c r="BN17" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO17" s="99" t="s">
+      <c r="BO17" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8347,12 +8455,22 @@
       <c r="AM18" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN18" s="15"/>
-      <c r="AO18" s="15"/>
-      <c r="AP18" s="15"/>
+      <c r="AN18" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO18" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP18" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ18" s="15"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="15"/>
+      <c r="AR18" s="66">
+        <v>31</v>
+      </c>
+      <c r="AS18" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT18" s="15"/>
       <c r="AU18" s="15"/>
       <c r="AV18" s="15"/>
@@ -8405,10 +8523,10 @@
       <c r="BM18" s="26" t="s">
         <v>313</v>
       </c>
-      <c r="BN18" s="99" t="s">
+      <c r="BN18" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO18" s="99" t="s">
+      <c r="BO18" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8511,12 +8629,22 @@
       <c r="AM19" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN19" s="15"/>
-      <c r="AO19" s="15"/>
-      <c r="AP19" s="15"/>
+      <c r="AN19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO19" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP19" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ19" s="15"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="15"/>
+      <c r="AR19" s="66">
+        <v>32</v>
+      </c>
+      <c r="AS19" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT19" s="15"/>
       <c r="AU19" s="15"/>
       <c r="AV19" s="15"/>
@@ -8569,10 +8697,10 @@
       <c r="BM19" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="BN19" s="99" t="s">
+      <c r="BN19" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO19" s="99" t="s">
+      <c r="BO19" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8675,12 +8803,22 @@
       <c r="AM20" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN20" s="15"/>
-      <c r="AO20" s="15"/>
-      <c r="AP20" s="15"/>
+      <c r="AN20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO20" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP20" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ20" s="15"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="15"/>
+      <c r="AR20" s="66">
+        <v>33</v>
+      </c>
+      <c r="AS20" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT20" s="15"/>
       <c r="AU20" s="15"/>
       <c r="AV20" s="15"/>
@@ -8733,10 +8871,10 @@
       <c r="BM20" s="26" t="s">
         <v>318</v>
       </c>
-      <c r="BN20" s="99" t="s">
+      <c r="BN20" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO20" s="99" t="s">
+      <c r="BO20" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -8839,12 +8977,22 @@
       <c r="AM21" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN21" s="15"/>
-      <c r="AO21" s="15"/>
-      <c r="AP21" s="15"/>
+      <c r="AN21" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO21" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP21" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ21" s="15"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="15"/>
+      <c r="AR21" s="66">
+        <v>34</v>
+      </c>
+      <c r="AS21" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT21" s="15"/>
       <c r="AU21" s="15"/>
       <c r="AV21" s="15"/>
@@ -8897,10 +9045,10 @@
       <c r="BM21" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="BN21" s="99" t="s">
+      <c r="BN21" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO21" s="99" t="s">
+      <c r="BO21" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9003,12 +9151,22 @@
       <c r="AM22" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN22" s="15"/>
-      <c r="AO22" s="15"/>
-      <c r="AP22" s="15"/>
+      <c r="AN22" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO22" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP22" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ22" s="15"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="15"/>
+      <c r="AR22" s="66">
+        <v>35</v>
+      </c>
+      <c r="AS22" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT22" s="15"/>
       <c r="AU22" s="15"/>
       <c r="AV22" s="15"/>
@@ -9061,10 +9219,10 @@
       <c r="BM22" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="BN22" s="99" t="s">
+      <c r="BN22" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO22" s="99" t="s">
+      <c r="BO22" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9167,12 +9325,22 @@
       <c r="AM23" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN23" s="15"/>
-      <c r="AO23" s="15"/>
-      <c r="AP23" s="15"/>
+      <c r="AN23" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO23" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP23" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ23" s="15"/>
-      <c r="AR23" s="20"/>
-      <c r="AS23" s="15"/>
+      <c r="AR23" s="66">
+        <v>36</v>
+      </c>
+      <c r="AS23" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT23" s="15"/>
       <c r="AU23" s="15"/>
       <c r="AV23" s="15"/>
@@ -9225,10 +9393,10 @@
       <c r="BM23" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="BN23" s="99" t="s">
+      <c r="BN23" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO23" s="99" t="s">
+      <c r="BO23" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9331,12 +9499,22 @@
       <c r="AM24" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN24" s="56"/>
-      <c r="AO24" s="56"/>
-      <c r="AP24" s="56"/>
+      <c r="AN24" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="AO24" s="56">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP24" s="56">
+        <v>0.25</v>
+      </c>
       <c r="AQ24" s="56"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="56"/>
+      <c r="AR24" s="66">
+        <v>37</v>
+      </c>
+      <c r="AS24" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT24" s="56"/>
       <c r="AU24" s="56"/>
       <c r="AV24" s="56"/>
@@ -9389,10 +9567,10 @@
       <c r="BM24" s="62" t="s">
         <v>326</v>
       </c>
-      <c r="BN24" s="99" t="s">
+      <c r="BN24" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO24" s="99" t="s">
+      <c r="BO24" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9495,12 +9673,22 @@
       <c r="AM25" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN25" s="15"/>
-      <c r="AO25" s="15"/>
-      <c r="AP25" s="15"/>
+      <c r="AN25" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO25" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP25" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ25" s="15"/>
-      <c r="AR25" s="20"/>
-      <c r="AS25" s="15"/>
+      <c r="AR25" s="66">
+        <v>38</v>
+      </c>
+      <c r="AS25" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT25" s="15"/>
       <c r="AU25" s="15"/>
       <c r="AV25" s="15"/>
@@ -9553,10 +9741,10 @@
       <c r="BM25" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="BN25" s="99" t="s">
+      <c r="BN25" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO25" s="99" t="s">
+      <c r="BO25" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -9659,12 +9847,22 @@
       <c r="AM26" s="66">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="15"/>
-      <c r="AP26" s="15"/>
+      <c r="AN26" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AO26" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AP26" s="15">
+        <v>0.25</v>
+      </c>
       <c r="AQ26" s="15"/>
-      <c r="AR26" s="20"/>
-      <c r="AS26" s="15"/>
+      <c r="AR26" s="66">
+        <v>39</v>
+      </c>
+      <c r="AS26" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AT26" s="15"/>
       <c r="AU26" s="15"/>
       <c r="AV26" s="15"/>
@@ -9717,10 +9915,10 @@
       <c r="BM26" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="BN26" s="99" t="s">
+      <c r="BN26" s="96" t="s">
         <v>1082</v>
       </c>
-      <c r="BO26" s="99" t="s">
+      <c r="BO26" s="96" t="s">
         <v>1081</v>
       </c>
     </row>
@@ -21120,28 +21318,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AN1:AS2"/>
-    <mergeCell ref="AT1:AW2"/>
-    <mergeCell ref="Y1:AM2"/>
-    <mergeCell ref="S1:S3"/>
-    <mergeCell ref="R1:R3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="X1:X3"/>
-    <mergeCell ref="V1:W2"/>
-    <mergeCell ref="T1:U2"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="J1:J3"/>
     <mergeCell ref="BL1:BL3"/>
     <mergeCell ref="BE3:BG3"/>
     <mergeCell ref="AX5:BH5"/>
@@ -21154,6 +21330,28 @@
     <mergeCell ref="BA3:BD3"/>
     <mergeCell ref="BK1:BK3"/>
     <mergeCell ref="BJ1:BJ3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="X1:X3"/>
+    <mergeCell ref="V1:W2"/>
+    <mergeCell ref="T1:U2"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="AN1:AS2"/>
+    <mergeCell ref="AT1:AW2"/>
+    <mergeCell ref="Y1:AM2"/>
+    <mergeCell ref="S1:S3"/>
+    <mergeCell ref="R1:R3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21162,6 +21360,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A06F2D-47BB-495E-A558-7BAA238D8D66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:U25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48D2D4F-22DC-4FD5-96C9-2DF095040BD8}">
   <dimension ref="A1:AY377"/>
   <sheetViews>
@@ -21194,171 +21406,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="121" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="111" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="126" t="s">
+      <c r="E1" s="106" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="124" t="s">
+      <c r="G1" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
       <c r="J1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="120" t="s">
+      <c r="K1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="120" t="s">
+      <c r="L1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="M1" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="137"/>
-      <c r="O1" s="129" t="s">
+      <c r="N1" s="116"/>
+      <c r="O1" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="129" t="s">
+      <c r="P1" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="129" t="s">
+      <c r="Q1" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="126" t="s">
+      <c r="R1" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="126" t="s">
+      <c r="S1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="135" t="s">
+      <c r="T1" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135" t="s">
+      <c r="U1" s="98"/>
+      <c r="V1" s="98" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135" t="s">
+      <c r="W1" s="98"/>
+      <c r="X1" s="98" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="135"/>
-      <c r="Z1" s="135" t="s">
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="135"/>
-      <c r="AE1" s="135"/>
-      <c r="AF1" s="135"/>
-      <c r="AG1" s="135"/>
-      <c r="AH1" s="135"/>
-      <c r="AI1" s="135"/>
-      <c r="AJ1" s="135"/>
-      <c r="AK1" s="135" t="s">
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="98"/>
+      <c r="AD1" s="98"/>
+      <c r="AE1" s="98"/>
+      <c r="AF1" s="98"/>
+      <c r="AG1" s="98"/>
+      <c r="AH1" s="98"/>
+      <c r="AI1" s="98"/>
+      <c r="AJ1" s="98"/>
+      <c r="AK1" s="98" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="135"/>
-      <c r="AM1" s="135"/>
-      <c r="AN1" s="135"/>
-      <c r="AO1" s="135"/>
-      <c r="AP1" s="135"/>
-      <c r="AQ1" s="135" t="s">
+      <c r="AL1" s="98"/>
+      <c r="AM1" s="98"/>
+      <c r="AN1" s="98"/>
+      <c r="AO1" s="98"/>
+      <c r="AP1" s="98"/>
+      <c r="AQ1" s="98" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="135"/>
-      <c r="AS1" s="135"/>
-      <c r="AT1" s="135"/>
-      <c r="AU1" s="108" t="s">
+      <c r="AR1" s="98"/>
+      <c r="AS1" s="98"/>
+      <c r="AT1" s="98"/>
+      <c r="AU1" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="101" t="s">
+      <c r="AV1" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="101" t="s">
+      <c r="AW1" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="101" t="s">
+      <c r="AX1" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="101" t="s">
+      <c r="AY1" s="126" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="122"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="126"/>
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="106"/>
       <c r="F2" s="117"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
       <c r="J2" s="117"/>
       <c r="K2" s="117"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="108"/>
-      <c r="AV2" s="101"/>
-      <c r="AW2" s="101"/>
-      <c r="AX2" s="101"/>
-      <c r="AY2" s="101"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="98"/>
+      <c r="X2" s="98"/>
+      <c r="Y2" s="98"/>
+      <c r="Z2" s="98"/>
+      <c r="AA2" s="98"/>
+      <c r="AB2" s="98"/>
+      <c r="AC2" s="98"/>
+      <c r="AD2" s="98"/>
+      <c r="AE2" s="98"/>
+      <c r="AF2" s="98"/>
+      <c r="AG2" s="98"/>
+      <c r="AH2" s="98"/>
+      <c r="AI2" s="98"/>
+      <c r="AJ2" s="98"/>
+      <c r="AK2" s="98"/>
+      <c r="AL2" s="98"/>
+      <c r="AM2" s="98"/>
+      <c r="AN2" s="98"/>
+      <c r="AO2" s="98"/>
+      <c r="AP2" s="98"/>
+      <c r="AQ2" s="98"/>
+      <c r="AR2" s="98"/>
+      <c r="AS2" s="98"/>
+      <c r="AT2" s="98"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="126"/>
+      <c r="AW2" s="126"/>
+      <c r="AX2" s="126"/>
+      <c r="AY2" s="126"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122"/>
-      <c r="B3" s="122"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="126"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="106"/>
       <c r="F3" s="117"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
@@ -21371,18 +21583,18 @@
       </c>
       <c r="J3" s="117"/>
       <c r="K3" s="117"/>
-      <c r="L3" s="120"/>
+      <c r="L3" s="111"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="130"/>
-      <c r="P3" s="129"/>
-      <c r="Q3" s="129"/>
-      <c r="R3" s="126"/>
-      <c r="S3" s="126"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="106"/>
+      <c r="S3" s="106"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -21464,11 +21676,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="108"/>
-      <c r="AV3" s="101"/>
-      <c r="AW3" s="101"/>
-      <c r="AX3" s="101"/>
-      <c r="AY3" s="101"/>
+      <c r="AU3" s="131"/>
+      <c r="AV3" s="126"/>
+      <c r="AW3" s="126"/>
+      <c r="AX3" s="126"/>
+      <c r="AY3" s="126"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -56432,12 +56644,15 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -56450,15 +56665,12 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI GP66\PycharmProjects\dj_project\GEOF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9702091F-F31D-469B-8782-9D5415AB4EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928FE6C6-EF00-4326-AF9C-FC978A503CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4782,81 +4782,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4905,6 +4830,57 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4917,13 +4893,37 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5660,8 +5660,8 @@
   <dimension ref="A1:BS377"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AP1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="BM8" sqref="BM8"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD21" sqref="AD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5692,208 +5692,208 @@
       <c r="A1" s="121" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="123" t="s">
+      <c r="B1" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="119" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="116" t="s">
+      <c r="E1" s="128"/>
+      <c r="F1" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="125" t="s">
+      <c r="G1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="127" t="s">
+      <c r="H1" s="126"/>
+      <c r="I1" s="126"/>
+      <c r="J1" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="116" t="s">
+      <c r="L1" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="118" t="s">
+      <c r="M1" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="118"/>
-      <c r="O1" s="113" t="s">
+      <c r="N1" s="134"/>
+      <c r="O1" s="131" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="113" t="s">
+      <c r="P1" s="131" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="113" t="s">
+      <c r="Q1" s="131" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="144" t="s">
+      <c r="R1" s="136" t="s">
         <v>1115</v>
       </c>
-      <c r="S1" s="145"/>
-      <c r="T1" s="105" t="s">
+      <c r="S1" s="137"/>
+      <c r="T1" s="140" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="106"/>
-      <c r="V1" s="106"/>
-      <c r="W1" s="106"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="105" t="s">
+      <c r="U1" s="141"/>
+      <c r="V1" s="141"/>
+      <c r="W1" s="141"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" s="106"/>
-      <c r="AA1" s="106"/>
-      <c r="AB1" s="106"/>
-      <c r="AC1" s="107"/>
-      <c r="AD1" s="105" t="s">
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="141"/>
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="142"/>
+      <c r="AD1" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="106"/>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106"/>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="106"/>
-      <c r="AO1" s="106"/>
-      <c r="AP1" s="106"/>
-      <c r="AQ1" s="106"/>
-      <c r="AR1" s="107"/>
-      <c r="AS1" s="103" t="s">
+      <c r="AE1" s="141"/>
+      <c r="AF1" s="141"/>
+      <c r="AG1" s="141"/>
+      <c r="AH1" s="141"/>
+      <c r="AI1" s="141"/>
+      <c r="AJ1" s="141"/>
+      <c r="AK1" s="141"/>
+      <c r="AL1" s="141"/>
+      <c r="AM1" s="141"/>
+      <c r="AN1" s="141"/>
+      <c r="AO1" s="141"/>
+      <c r="AP1" s="141"/>
+      <c r="AQ1" s="141"/>
+      <c r="AR1" s="142"/>
+      <c r="AS1" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
-      <c r="AX1" s="103" t="s">
+      <c r="AT1" s="146"/>
+      <c r="AU1" s="146"/>
+      <c r="AV1" s="146"/>
+      <c r="AW1" s="146"/>
+      <c r="AX1" s="146" t="s">
         <v>89</v>
       </c>
-      <c r="AY1" s="103"/>
-      <c r="AZ1" s="103"/>
-      <c r="BA1" s="103"/>
-      <c r="BB1" s="137" t="s">
+      <c r="AY1" s="146"/>
+      <c r="AZ1" s="146"/>
+      <c r="BA1" s="146"/>
+      <c r="BB1" s="112" t="s">
         <v>1048</v>
       </c>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138"/>
-      <c r="BH1" s="138"/>
-      <c r="BI1" s="138"/>
-      <c r="BJ1" s="138"/>
-      <c r="BK1" s="138"/>
-      <c r="BL1" s="139"/>
-      <c r="BM1" s="135" t="s">
+      <c r="BC1" s="113"/>
+      <c r="BD1" s="113"/>
+      <c r="BE1" s="113"/>
+      <c r="BF1" s="113"/>
+      <c r="BG1" s="113"/>
+      <c r="BH1" s="113"/>
+      <c r="BI1" s="113"/>
+      <c r="BJ1" s="113"/>
+      <c r="BK1" s="113"/>
+      <c r="BL1" s="114"/>
+      <c r="BM1" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="BN1" s="128" t="s">
+      <c r="BN1" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="BO1" s="128" t="s">
+      <c r="BO1" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="BP1" s="128" t="s">
+      <c r="BP1" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="BQ1" s="133" t="s">
+      <c r="BQ1" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="BR1" s="131" t="s">
+      <c r="BR1" s="106" t="s">
         <v>1066</v>
       </c>
-      <c r="BS1" s="131" t="s">
+      <c r="BS1" s="106" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="2" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="122"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="112"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="120"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="120"/>
       <c r="K2" s="120"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="146"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="109"/>
-      <c r="V2" s="109"/>
-      <c r="W2" s="109"/>
-      <c r="X2" s="110"/>
-      <c r="Y2" s="148"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="150"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="109"/>
-      <c r="AG2" s="109"/>
-      <c r="AH2" s="109"/>
-      <c r="AI2" s="109"/>
-      <c r="AJ2" s="109"/>
-      <c r="AK2" s="109"/>
-      <c r="AL2" s="109"/>
-      <c r="AM2" s="109"/>
-      <c r="AN2" s="109"/>
-      <c r="AO2" s="109"/>
-      <c r="AP2" s="109"/>
-      <c r="AQ2" s="109"/>
-      <c r="AR2" s="110"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="104"/>
-      <c r="AV2" s="104"/>
-      <c r="AW2" s="104"/>
-      <c r="AX2" s="104"/>
-      <c r="AY2" s="104"/>
-      <c r="AZ2" s="104"/>
-      <c r="BA2" s="104"/>
-      <c r="BB2" s="140"/>
-      <c r="BC2" s="141"/>
-      <c r="BD2" s="141"/>
-      <c r="BE2" s="141"/>
-      <c r="BF2" s="141"/>
-      <c r="BG2" s="141"/>
-      <c r="BH2" s="141"/>
-      <c r="BI2" s="141"/>
-      <c r="BJ2" s="141"/>
-      <c r="BK2" s="141"/>
-      <c r="BL2" s="142"/>
-      <c r="BM2" s="136"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="134"/>
-      <c r="BR2" s="132"/>
-      <c r="BS2" s="132"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="139"/>
+      <c r="T2" s="148"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="150"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="144"/>
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="145"/>
+      <c r="AD2" s="148"/>
+      <c r="AE2" s="149"/>
+      <c r="AF2" s="149"/>
+      <c r="AG2" s="149"/>
+      <c r="AH2" s="149"/>
+      <c r="AI2" s="149"/>
+      <c r="AJ2" s="149"/>
+      <c r="AK2" s="149"/>
+      <c r="AL2" s="149"/>
+      <c r="AM2" s="149"/>
+      <c r="AN2" s="149"/>
+      <c r="AO2" s="149"/>
+      <c r="AP2" s="149"/>
+      <c r="AQ2" s="149"/>
+      <c r="AR2" s="150"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="147"/>
+      <c r="AV2" s="147"/>
+      <c r="AW2" s="147"/>
+      <c r="AX2" s="147"/>
+      <c r="AY2" s="147"/>
+      <c r="AZ2" s="147"/>
+      <c r="BA2" s="147"/>
+      <c r="BB2" s="115"/>
+      <c r="BC2" s="116"/>
+      <c r="BD2" s="116"/>
+      <c r="BE2" s="116"/>
+      <c r="BF2" s="116"/>
+      <c r="BG2" s="116"/>
+      <c r="BH2" s="116"/>
+      <c r="BI2" s="116"/>
+      <c r="BJ2" s="116"/>
+      <c r="BK2" s="116"/>
+      <c r="BL2" s="117"/>
+      <c r="BM2" s="111"/>
+      <c r="BN2" s="104"/>
+      <c r="BO2" s="104"/>
+      <c r="BP2" s="104"/>
+      <c r="BQ2" s="109"/>
+      <c r="BR2" s="107"/>
+      <c r="BS2" s="107"/>
     </row>
     <row r="3" spans="1:71" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="122"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="112"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="120"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
@@ -5906,16 +5906,16 @@
       </c>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
-      <c r="L3" s="117"/>
+      <c r="L3" s="123"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
       <c r="R3" s="97" t="s">
         <v>34</v>
       </c>
@@ -6027,31 +6027,31 @@
       <c r="BB3" s="68" t="s">
         <v>1049</v>
       </c>
-      <c r="BC3" s="143" t="s">
+      <c r="BC3" s="118" t="s">
         <v>1050</v>
       </c>
-      <c r="BD3" s="143"/>
-      <c r="BE3" s="130" t="s">
+      <c r="BD3" s="118"/>
+      <c r="BE3" s="105" t="s">
         <v>1051</v>
       </c>
-      <c r="BF3" s="130"/>
-      <c r="BG3" s="130"/>
-      <c r="BH3" s="130"/>
-      <c r="BI3" s="130" t="s">
+      <c r="BF3" s="105"/>
+      <c r="BG3" s="105"/>
+      <c r="BH3" s="105"/>
+      <c r="BI3" s="105" t="s">
         <v>1052</v>
       </c>
-      <c r="BJ3" s="130"/>
-      <c r="BK3" s="130"/>
+      <c r="BJ3" s="105"/>
+      <c r="BK3" s="105"/>
       <c r="BL3" s="69" t="s">
         <v>1053</v>
       </c>
-      <c r="BM3" s="136"/>
-      <c r="BN3" s="129"/>
-      <c r="BO3" s="129"/>
-      <c r="BP3" s="129"/>
-      <c r="BQ3" s="134"/>
-      <c r="BR3" s="132"/>
-      <c r="BS3" s="132"/>
+      <c r="BM3" s="111"/>
+      <c r="BN3" s="104"/>
+      <c r="BO3" s="104"/>
+      <c r="BP3" s="104"/>
+      <c r="BQ3" s="109"/>
+      <c r="BR3" s="107"/>
+      <c r="BS3" s="107"/>
     </row>
     <row r="4" spans="1:71" s="102" customFormat="1" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="85" t="s">
@@ -6418,19 +6418,19 @@
       <c r="BA5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BB5" s="130" t="s">
+      <c r="BB5" s="105" t="s">
         <v>1054</v>
       </c>
-      <c r="BC5" s="130"/>
-      <c r="BD5" s="130"/>
-      <c r="BE5" s="130"/>
-      <c r="BF5" s="130"/>
-      <c r="BG5" s="130"/>
-      <c r="BH5" s="130"/>
-      <c r="BI5" s="130"/>
-      <c r="BJ5" s="130"/>
-      <c r="BK5" s="130"/>
-      <c r="BL5" s="130"/>
+      <c r="BC5" s="105"/>
+      <c r="BD5" s="105"/>
+      <c r="BE5" s="105"/>
+      <c r="BF5" s="105"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="105"/>
+      <c r="BI5" s="105"/>
+      <c r="BJ5" s="105"/>
+      <c r="BK5" s="105"/>
+      <c r="BL5" s="105"/>
       <c r="BM5" s="30"/>
       <c r="BN5" s="32"/>
       <c r="BO5" s="32"/>
@@ -6700,27 +6700,15 @@
       <c r="Q7" s="75">
         <v>6.7349999999999993E-2</v>
       </c>
-      <c r="R7" s="66">
-        <v>3</v>
-      </c>
-      <c r="S7" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R7" s="66"/>
+      <c r="S7" s="73"/>
       <c r="T7" s="66"/>
       <c r="U7" s="66"/>
       <c r="V7" s="66"/>
-      <c r="W7" s="66">
-        <v>20</v>
-      </c>
-      <c r="X7" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y7" s="66">
-        <v>5</v>
-      </c>
-      <c r="Z7" s="66">
-        <v>3</v>
-      </c>
+      <c r="W7" s="66"/>
+      <c r="X7" s="66"/>
+      <c r="Y7" s="66"/>
+      <c r="Z7" s="66"/>
       <c r="AA7" s="66"/>
       <c r="AB7" s="66"/>
       <c r="AC7" s="66"/>
@@ -6738,11 +6726,21 @@
       <c r="AP7" s="66"/>
       <c r="AQ7" s="66"/>
       <c r="AR7" s="66"/>
-      <c r="AS7" s="77"/>
-      <c r="AT7" s="77"/>
-      <c r="AU7" s="77"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
+      <c r="AS7" s="77">
+        <v>0.05</v>
+      </c>
+      <c r="AT7" s="77">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU7" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV7" s="66">
+        <v>20</v>
+      </c>
+      <c r="AW7" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX7" s="77"/>
       <c r="AY7" s="77"/>
       <c r="AZ7" s="77"/>
@@ -6842,27 +6840,15 @@
         <v>0.89200000000000002</v>
       </c>
       <c r="Q8" s="40"/>
-      <c r="R8" s="66">
-        <v>4</v>
-      </c>
-      <c r="S8" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R8" s="66"/>
+      <c r="S8" s="73"/>
       <c r="T8" s="66"/>
       <c r="U8" s="66"/>
       <c r="V8" s="66"/>
-      <c r="W8" s="66">
-        <v>21</v>
-      </c>
-      <c r="X8" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y8" s="66">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="66">
-        <v>4</v>
-      </c>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
       <c r="AA8" s="66"/>
       <c r="AB8" s="66"/>
       <c r="AC8" s="66"/>
@@ -6880,11 +6866,21 @@
       <c r="AP8" s="66"/>
       <c r="AQ8" s="66"/>
       <c r="AR8" s="66"/>
-      <c r="AS8" s="15"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="15"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
+      <c r="AS8" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT8" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU8" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV8" s="66">
+        <v>21</v>
+      </c>
+      <c r="AW8" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX8" s="15"/>
       <c r="AY8" s="15"/>
       <c r="AZ8" s="15"/>
@@ -6986,27 +6982,15 @@
       <c r="Q9" s="40">
         <v>9.8729999999999998E-2</v>
       </c>
-      <c r="R9" s="66">
-        <v>5</v>
-      </c>
-      <c r="S9" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R9" s="66"/>
+      <c r="S9" s="73"/>
       <c r="T9" s="66"/>
       <c r="U9" s="66"/>
       <c r="V9" s="66"/>
-      <c r="W9" s="66">
-        <v>22</v>
-      </c>
-      <c r="X9" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y9" s="66">
-        <v>7</v>
-      </c>
-      <c r="Z9" s="66">
-        <v>5</v>
-      </c>
+      <c r="W9" s="66"/>
+      <c r="X9" s="66"/>
+      <c r="Y9" s="66"/>
+      <c r="Z9" s="66"/>
       <c r="AA9" s="66"/>
       <c r="AB9" s="66"/>
       <c r="AC9" s="66"/>
@@ -7024,11 +7008,21 @@
       <c r="AP9" s="66"/>
       <c r="AQ9" s="66"/>
       <c r="AR9" s="66"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="15"/>
-      <c r="AV9" s="66"/>
-      <c r="AW9" s="66"/>
+      <c r="AS9" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT9" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU9" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV9" s="66">
+        <v>22</v>
+      </c>
+      <c r="AW9" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX9" s="15"/>
       <c r="AY9" s="15"/>
       <c r="AZ9" s="15"/>
@@ -7136,27 +7130,15 @@
       <c r="Q10" s="40">
         <v>7.5109999999999996E-2</v>
       </c>
-      <c r="R10" s="66">
-        <v>6</v>
-      </c>
-      <c r="S10" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R10" s="66"/>
+      <c r="S10" s="73"/>
       <c r="T10" s="66"/>
       <c r="U10" s="66"/>
       <c r="V10" s="66"/>
-      <c r="W10" s="66">
-        <v>23</v>
-      </c>
-      <c r="X10" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y10" s="66">
-        <v>8</v>
-      </c>
-      <c r="Z10" s="66">
-        <v>6</v>
-      </c>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
       <c r="AA10" s="66"/>
       <c r="AB10" s="66"/>
       <c r="AC10" s="66"/>
@@ -7174,11 +7156,21 @@
       <c r="AP10" s="66"/>
       <c r="AQ10" s="66"/>
       <c r="AR10" s="66"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="15"/>
-      <c r="AU10" s="15"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
+      <c r="AS10" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT10" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU10" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV10" s="66">
+        <v>23</v>
+      </c>
+      <c r="AW10" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX10" s="15"/>
       <c r="AY10" s="15"/>
       <c r="AZ10" s="15"/>
@@ -7280,27 +7272,15 @@
       <c r="Q11" s="40">
         <v>7.0250000000000007E-2</v>
       </c>
-      <c r="R11" s="66">
-        <v>7</v>
-      </c>
-      <c r="S11" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R11" s="66"/>
+      <c r="S11" s="73"/>
       <c r="T11" s="66"/>
       <c r="U11" s="66"/>
       <c r="V11" s="66"/>
-      <c r="W11" s="66">
-        <v>24</v>
-      </c>
-      <c r="X11" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y11" s="66">
-        <v>9</v>
-      </c>
-      <c r="Z11" s="66">
-        <v>7</v>
-      </c>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="66"/>
       <c r="AA11" s="66"/>
       <c r="AB11" s="66"/>
       <c r="AC11" s="66"/>
@@ -7318,11 +7298,21 @@
       <c r="AP11" s="66"/>
       <c r="AQ11" s="66"/>
       <c r="AR11" s="66"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="15"/>
-      <c r="AU11" s="15"/>
-      <c r="AV11" s="66"/>
-      <c r="AW11" s="66"/>
+      <c r="AS11" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT11" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU11" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV11" s="66">
+        <v>24</v>
+      </c>
+      <c r="AW11" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX11" s="15"/>
       <c r="AY11" s="15"/>
       <c r="AZ11" s="15"/>
@@ -7426,27 +7416,15 @@
       <c r="Q12" s="40">
         <v>3.5180000000000003E-2</v>
       </c>
-      <c r="R12" s="66">
-        <v>8</v>
-      </c>
-      <c r="S12" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R12" s="66"/>
+      <c r="S12" s="73"/>
       <c r="T12" s="66"/>
       <c r="U12" s="66"/>
       <c r="V12" s="66"/>
-      <c r="W12" s="66">
-        <v>25</v>
-      </c>
-      <c r="X12" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y12" s="66">
-        <v>10</v>
-      </c>
-      <c r="Z12" s="66">
-        <v>8</v>
-      </c>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
       <c r="AA12" s="66"/>
       <c r="AB12" s="66"/>
       <c r="AC12" s="66"/>
@@ -7464,11 +7442,21 @@
       <c r="AP12" s="66"/>
       <c r="AQ12" s="66"/>
       <c r="AR12" s="66"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="15"/>
-      <c r="AU12" s="15"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
+      <c r="AS12" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT12" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU12" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV12" s="66">
+        <v>25</v>
+      </c>
+      <c r="AW12" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX12" s="15"/>
       <c r="AY12" s="15"/>
       <c r="AZ12" s="15"/>
@@ -7578,27 +7566,15 @@
       <c r="Q13" s="40">
         <v>6.9349999999999995E-2</v>
       </c>
-      <c r="R13" s="66">
-        <v>9</v>
-      </c>
-      <c r="S13" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R13" s="66"/>
+      <c r="S13" s="73"/>
       <c r="T13" s="66"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
-      <c r="W13" s="66">
-        <v>26</v>
-      </c>
-      <c r="X13" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y13" s="66">
-        <v>11</v>
-      </c>
-      <c r="Z13" s="66">
-        <v>9</v>
-      </c>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
       <c r="AA13" s="66"/>
       <c r="AB13" s="66"/>
       <c r="AC13" s="66"/>
@@ -7616,11 +7592,21 @@
       <c r="AP13" s="66"/>
       <c r="AQ13" s="66"/>
       <c r="AR13" s="66"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="15"/>
-      <c r="AU13" s="15"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
+      <c r="AS13" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT13" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU13" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV13" s="66">
+        <v>26</v>
+      </c>
+      <c r="AW13" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX13" s="15"/>
       <c r="AY13" s="15"/>
       <c r="AZ13" s="15"/>
@@ -7730,27 +7716,15 @@
       <c r="Q14" s="40">
         <v>4.317E-2</v>
       </c>
-      <c r="R14" s="66">
-        <v>10</v>
-      </c>
-      <c r="S14" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R14" s="66"/>
+      <c r="S14" s="73"/>
       <c r="T14" s="66"/>
       <c r="U14" s="66"/>
       <c r="V14" s="66"/>
-      <c r="W14" s="66">
-        <v>27</v>
-      </c>
-      <c r="X14" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y14" s="66">
-        <v>12</v>
-      </c>
-      <c r="Z14" s="66">
-        <v>10</v>
-      </c>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
       <c r="AA14" s="66"/>
       <c r="AB14" s="66"/>
       <c r="AC14" s="66"/>
@@ -7768,11 +7742,21 @@
       <c r="AP14" s="66"/>
       <c r="AQ14" s="66"/>
       <c r="AR14" s="66"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="15"/>
-      <c r="AU14" s="15"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
+      <c r="AS14" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT14" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU14" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV14" s="66">
+        <v>27</v>
+      </c>
+      <c r="AW14" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX14" s="15"/>
       <c r="AY14" s="15"/>
       <c r="AZ14" s="15"/>
@@ -7876,27 +7860,15 @@
       <c r="Q15" s="40">
         <v>4.8779999999999997E-2</v>
       </c>
-      <c r="R15" s="66">
-        <v>11</v>
-      </c>
-      <c r="S15" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R15" s="66"/>
+      <c r="S15" s="73"/>
       <c r="T15" s="66"/>
       <c r="U15" s="66"/>
       <c r="V15" s="66"/>
-      <c r="W15" s="66">
-        <v>28</v>
-      </c>
-      <c r="X15" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y15" s="66">
-        <v>13</v>
-      </c>
-      <c r="Z15" s="66">
-        <v>11</v>
-      </c>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
       <c r="AA15" s="66"/>
       <c r="AB15" s="66"/>
       <c r="AC15" s="66"/>
@@ -7914,11 +7886,21 @@
       <c r="AP15" s="66"/>
       <c r="AQ15" s="66"/>
       <c r="AR15" s="66"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="15"/>
-      <c r="AU15" s="15"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
+      <c r="AS15" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT15" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU15" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV15" s="66">
+        <v>28</v>
+      </c>
+      <c r="AW15" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX15" s="15"/>
       <c r="AY15" s="15"/>
       <c r="AZ15" s="15"/>
@@ -8028,27 +8010,15 @@
       <c r="Q16" s="40">
         <v>6.6449999999999995E-2</v>
       </c>
-      <c r="R16" s="66">
-        <v>12</v>
-      </c>
-      <c r="S16" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R16" s="66"/>
+      <c r="S16" s="73"/>
       <c r="T16" s="66"/>
       <c r="U16" s="66"/>
       <c r="V16" s="66"/>
-      <c r="W16" s="66">
-        <v>29</v>
-      </c>
-      <c r="X16" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y16" s="66">
-        <v>14</v>
-      </c>
-      <c r="Z16" s="66">
-        <v>12</v>
-      </c>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
       <c r="AA16" s="66"/>
       <c r="AB16" s="66"/>
       <c r="AC16" s="66"/>
@@ -8066,11 +8036,21 @@
       <c r="AP16" s="66"/>
       <c r="AQ16" s="66"/>
       <c r="AR16" s="66"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="15"/>
-      <c r="AU16" s="15"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
+      <c r="AS16" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT16" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU16" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV16" s="66">
+        <v>29</v>
+      </c>
+      <c r="AW16" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX16" s="15"/>
       <c r="AY16" s="15"/>
       <c r="AZ16" s="15"/>
@@ -8180,27 +8160,15 @@
       <c r="Q17" s="40">
         <v>8.974E-2</v>
       </c>
-      <c r="R17" s="66">
-        <v>13</v>
-      </c>
-      <c r="S17" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R17" s="66"/>
+      <c r="S17" s="73"/>
       <c r="T17" s="66"/>
       <c r="U17" s="66"/>
       <c r="V17" s="66"/>
-      <c r="W17" s="66">
-        <v>30</v>
-      </c>
-      <c r="X17" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y17" s="66">
-        <v>15</v>
-      </c>
-      <c r="Z17" s="66">
-        <v>13</v>
-      </c>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="66"/>
       <c r="AC17" s="66"/>
@@ -8218,11 +8186,21 @@
       <c r="AP17" s="66"/>
       <c r="AQ17" s="66"/>
       <c r="AR17" s="66"/>
-      <c r="AS17" s="15"/>
-      <c r="AT17" s="15"/>
-      <c r="AU17" s="15"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
+      <c r="AS17" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT17" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU17" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV17" s="66">
+        <v>30</v>
+      </c>
+      <c r="AW17" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX17" s="15"/>
       <c r="AY17" s="15"/>
       <c r="AZ17" s="15"/>
@@ -8332,27 +8310,15 @@
       <c r="Q18" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R18" s="66">
-        <v>14</v>
-      </c>
-      <c r="S18" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R18" s="66"/>
+      <c r="S18" s="73"/>
       <c r="T18" s="66"/>
       <c r="U18" s="66"/>
       <c r="V18" s="66"/>
-      <c r="W18" s="66">
-        <v>31</v>
-      </c>
-      <c r="X18" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y18" s="66">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="66">
-        <v>14</v>
-      </c>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="66"/>
       <c r="AA18" s="66"/>
       <c r="AB18" s="66"/>
       <c r="AC18" s="66"/>
@@ -8370,11 +8336,21 @@
       <c r="AP18" s="66"/>
       <c r="AQ18" s="66"/>
       <c r="AR18" s="66"/>
-      <c r="AS18" s="15"/>
-      <c r="AT18" s="15"/>
-      <c r="AU18" s="15"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
+      <c r="AS18" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT18" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU18" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV18" s="66">
+        <v>31</v>
+      </c>
+      <c r="AW18" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX18" s="15"/>
       <c r="AY18" s="15"/>
       <c r="AZ18" s="15"/>
@@ -8484,27 +8460,15 @@
       <c r="Q19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R19" s="66">
-        <v>15</v>
-      </c>
-      <c r="S19" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R19" s="66"/>
+      <c r="S19" s="73"/>
       <c r="T19" s="66"/>
       <c r="U19" s="66"/>
       <c r="V19" s="66"/>
-      <c r="W19" s="66">
-        <v>32</v>
-      </c>
-      <c r="X19" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y19" s="66">
-        <v>17</v>
-      </c>
-      <c r="Z19" s="66">
-        <v>15</v>
-      </c>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
       <c r="AA19" s="66"/>
       <c r="AB19" s="66"/>
       <c r="AC19" s="66"/>
@@ -8522,11 +8486,21 @@
       <c r="AP19" s="66"/>
       <c r="AQ19" s="66"/>
       <c r="AR19" s="66"/>
-      <c r="AS19" s="15"/>
-      <c r="AT19" s="15"/>
-      <c r="AU19" s="15"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
+      <c r="AS19" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT19" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU19" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV19" s="66">
+        <v>32</v>
+      </c>
+      <c r="AW19" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX19" s="15"/>
       <c r="AY19" s="15"/>
       <c r="AZ19" s="15"/>
@@ -8636,27 +8610,15 @@
       <c r="Q20" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R20" s="66">
-        <v>16</v>
-      </c>
-      <c r="S20" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R20" s="66"/>
+      <c r="S20" s="73"/>
       <c r="T20" s="66"/>
       <c r="U20" s="66"/>
       <c r="V20" s="66"/>
-      <c r="W20" s="66">
-        <v>33</v>
-      </c>
-      <c r="X20" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y20" s="66">
-        <v>18</v>
-      </c>
-      <c r="Z20" s="66">
-        <v>16</v>
-      </c>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
       <c r="AA20" s="66"/>
       <c r="AB20" s="66"/>
       <c r="AC20" s="66"/>
@@ -8674,11 +8636,21 @@
       <c r="AP20" s="66"/>
       <c r="AQ20" s="66"/>
       <c r="AR20" s="66"/>
-      <c r="AS20" s="15"/>
-      <c r="AT20" s="15"/>
-      <c r="AU20" s="15"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
+      <c r="AS20" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT20" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU20" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV20" s="66">
+        <v>33</v>
+      </c>
+      <c r="AW20" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX20" s="15"/>
       <c r="AY20" s="15"/>
       <c r="AZ20" s="15"/>
@@ -8788,27 +8760,15 @@
       <c r="Q21" s="40">
         <v>7.1940000000000004E-2</v>
       </c>
-      <c r="R21" s="66">
-        <v>17</v>
-      </c>
-      <c r="S21" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R21" s="66"/>
+      <c r="S21" s="73"/>
       <c r="T21" s="66"/>
       <c r="U21" s="66"/>
       <c r="V21" s="66"/>
-      <c r="W21" s="66">
-        <v>34</v>
-      </c>
-      <c r="X21" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y21" s="66">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="66">
-        <v>17</v>
-      </c>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
       <c r="AA21" s="66"/>
       <c r="AB21" s="66"/>
       <c r="AC21" s="66"/>
@@ -8826,11 +8786,21 @@
       <c r="AP21" s="66"/>
       <c r="AQ21" s="66"/>
       <c r="AR21" s="66"/>
-      <c r="AS21" s="15"/>
-      <c r="AT21" s="15"/>
-      <c r="AU21" s="15"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
+      <c r="AS21" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT21" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU21" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV21" s="66">
+        <v>34</v>
+      </c>
+      <c r="AW21" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX21" s="15"/>
       <c r="AY21" s="15"/>
       <c r="AZ21" s="15"/>
@@ -8940,27 +8910,15 @@
       <c r="Q22" s="40">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="R22" s="66">
-        <v>18</v>
-      </c>
-      <c r="S22" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R22" s="66"/>
+      <c r="S22" s="73"/>
       <c r="T22" s="66"/>
       <c r="U22" s="66"/>
       <c r="V22" s="66"/>
-      <c r="W22" s="66">
-        <v>35</v>
-      </c>
-      <c r="X22" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y22" s="66">
-        <v>20</v>
-      </c>
-      <c r="Z22" s="66">
-        <v>18</v>
-      </c>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
       <c r="AA22" s="66"/>
       <c r="AB22" s="66"/>
       <c r="AC22" s="66"/>
@@ -8978,11 +8936,21 @@
       <c r="AP22" s="66"/>
       <c r="AQ22" s="66"/>
       <c r="AR22" s="66"/>
-      <c r="AS22" s="15"/>
-      <c r="AT22" s="15"/>
-      <c r="AU22" s="15"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
+      <c r="AS22" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT22" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU22" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV22" s="66">
+        <v>35</v>
+      </c>
+      <c r="AW22" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX22" s="15"/>
       <c r="AY22" s="15"/>
       <c r="AZ22" s="15"/>
@@ -9092,27 +9060,15 @@
       <c r="Q23" s="40">
         <v>7.5719999999999996E-2</v>
       </c>
-      <c r="R23" s="66">
-        <v>19</v>
-      </c>
-      <c r="S23" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R23" s="66"/>
+      <c r="S23" s="73"/>
       <c r="T23" s="66"/>
       <c r="U23" s="66"/>
       <c r="V23" s="66"/>
-      <c r="W23" s="66">
-        <v>36</v>
-      </c>
-      <c r="X23" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y23" s="66">
-        <v>21</v>
-      </c>
-      <c r="Z23" s="66">
-        <v>19</v>
-      </c>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
       <c r="AA23" s="66"/>
       <c r="AB23" s="66"/>
       <c r="AC23" s="66"/>
@@ -9130,11 +9086,21 @@
       <c r="AP23" s="66"/>
       <c r="AQ23" s="66"/>
       <c r="AR23" s="66"/>
-      <c r="AS23" s="15"/>
-      <c r="AT23" s="15"/>
-      <c r="AU23" s="15"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
+      <c r="AS23" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT23" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU23" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV23" s="66">
+        <v>36</v>
+      </c>
+      <c r="AW23" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX23" s="15"/>
       <c r="AY23" s="15"/>
       <c r="AZ23" s="15"/>
@@ -9244,27 +9210,15 @@
       <c r="Q24" s="55">
         <v>3.134E-2</v>
       </c>
-      <c r="R24" s="66">
-        <v>20</v>
-      </c>
-      <c r="S24" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="73"/>
       <c r="T24" s="66"/>
       <c r="U24" s="66"/>
       <c r="V24" s="66"/>
-      <c r="W24" s="66">
-        <v>37</v>
-      </c>
-      <c r="X24" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y24" s="66">
-        <v>22</v>
-      </c>
-      <c r="Z24" s="66">
-        <v>20</v>
-      </c>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
       <c r="AA24" s="66"/>
       <c r="AB24" s="66"/>
       <c r="AC24" s="66"/>
@@ -9282,11 +9236,21 @@
       <c r="AP24" s="66"/>
       <c r="AQ24" s="66"/>
       <c r="AR24" s="66"/>
-      <c r="AS24" s="56"/>
-      <c r="AT24" s="56"/>
-      <c r="AU24" s="56"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
+      <c r="AS24" s="56">
+        <v>0.05</v>
+      </c>
+      <c r="AT24" s="56">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU24" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV24" s="66">
+        <v>37</v>
+      </c>
+      <c r="AW24" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX24" s="56"/>
       <c r="AY24" s="56"/>
       <c r="AZ24" s="56"/>
@@ -9396,27 +9360,15 @@
       <c r="Q25" s="40">
         <v>7.5310000000000002E-2</v>
       </c>
-      <c r="R25" s="66">
-        <v>21</v>
-      </c>
-      <c r="S25" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R25" s="66"/>
+      <c r="S25" s="73"/>
       <c r="T25" s="66"/>
       <c r="U25" s="66"/>
       <c r="V25" s="66"/>
-      <c r="W25" s="66">
-        <v>38</v>
-      </c>
-      <c r="X25" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y25" s="66">
-        <v>23</v>
-      </c>
-      <c r="Z25" s="66">
-        <v>21</v>
-      </c>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
       <c r="AA25" s="66"/>
       <c r="AB25" s="66"/>
       <c r="AC25" s="66"/>
@@ -9434,11 +9386,21 @@
       <c r="AP25" s="66"/>
       <c r="AQ25" s="66"/>
       <c r="AR25" s="66"/>
-      <c r="AS25" s="15"/>
-      <c r="AT25" s="15"/>
-      <c r="AU25" s="15"/>
-      <c r="AV25" s="66"/>
-      <c r="AW25" s="66"/>
+      <c r="AS25" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT25" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU25" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV25" s="66">
+        <v>38</v>
+      </c>
+      <c r="AW25" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX25" s="15"/>
       <c r="AY25" s="15"/>
       <c r="AZ25" s="15"/>
@@ -9548,27 +9510,15 @@
       <c r="Q26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="66">
-        <v>22</v>
-      </c>
-      <c r="S26" s="73">
-        <v>0.05</v>
-      </c>
+      <c r="R26" s="66"/>
+      <c r="S26" s="73"/>
       <c r="T26" s="66"/>
       <c r="U26" s="66"/>
       <c r="V26" s="66"/>
-      <c r="W26" s="66">
-        <v>39</v>
-      </c>
-      <c r="X26" s="66">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="Y26" s="66">
-        <v>24</v>
-      </c>
-      <c r="Z26" s="66">
-        <v>22</v>
-      </c>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
       <c r="AA26" s="66"/>
       <c r="AB26" s="66"/>
       <c r="AC26" s="66"/>
@@ -9586,11 +9536,21 @@
       <c r="AP26" s="66"/>
       <c r="AQ26" s="66"/>
       <c r="AR26" s="66"/>
-      <c r="AS26" s="15"/>
-      <c r="AT26" s="15"/>
-      <c r="AU26" s="15"/>
-      <c r="AV26" s="66"/>
-      <c r="AW26" s="66"/>
+      <c r="AS26" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="AT26" s="15">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AU26" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="AV26" s="66">
+        <v>39</v>
+      </c>
+      <c r="AW26" s="66">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="AX26" s="15"/>
       <c r="AY26" s="15"/>
       <c r="AZ26" s="15"/>
@@ -21856,6 +21816,26 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="R1:S2"/>
+    <mergeCell ref="Y1:AC2"/>
+    <mergeCell ref="AS1:AW2"/>
+    <mergeCell ref="AX1:BA2"/>
+    <mergeCell ref="AD1:AR2"/>
+    <mergeCell ref="T1:X2"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="L1:L3"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="M1:N2"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="G1:I2"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="J1:J3"/>
     <mergeCell ref="BP1:BP3"/>
     <mergeCell ref="BI3:BK3"/>
     <mergeCell ref="BB5:BL5"/>
@@ -21868,26 +21848,6 @@
     <mergeCell ref="BE3:BH3"/>
     <mergeCell ref="BO1:BO3"/>
     <mergeCell ref="BN1:BN3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="G1:I2"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="O1:O3"/>
-    <mergeCell ref="L1:L3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="M1:N2"/>
-    <mergeCell ref="R1:S2"/>
-    <mergeCell ref="Y1:AC2"/>
-    <mergeCell ref="AS1:AW2"/>
-    <mergeCell ref="AX1:BA2"/>
-    <mergeCell ref="AD1:AR2"/>
-    <mergeCell ref="T1:X2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23225,171 +23185,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="117" t="s">
+      <c r="C1" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="117" t="s">
+      <c r="D1" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="112" t="s">
+      <c r="E1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="117" t="s">
+      <c r="F1" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="126" t="s">
+      <c r="G1" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="126"/>
-      <c r="I1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
       <c r="J1" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="117" t="s">
+      <c r="K1" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="117" t="s">
+      <c r="L1" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="119" t="s">
+      <c r="M1" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="119"/>
-      <c r="O1" s="114" t="s">
+      <c r="N1" s="135"/>
+      <c r="O1" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="114" t="s">
+      <c r="P1" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="114" t="s">
+      <c r="Q1" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="112" t="s">
+      <c r="R1" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="112" t="s">
+      <c r="S1" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="104" t="s">
+      <c r="T1" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104" t="s">
+      <c r="U1" s="147"/>
+      <c r="V1" s="147" t="s">
         <v>71</v>
       </c>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104" t="s">
+      <c r="W1" s="147"/>
+      <c r="X1" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104" t="s">
+      <c r="Y1" s="147"/>
+      <c r="Z1" s="147" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="104"/>
-      <c r="AK1" s="104" t="s">
+      <c r="AA1" s="147"/>
+      <c r="AB1" s="147"/>
+      <c r="AC1" s="147"/>
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="147"/>
+      <c r="AG1" s="147"/>
+      <c r="AH1" s="147"/>
+      <c r="AI1" s="147"/>
+      <c r="AJ1" s="147"/>
+      <c r="AK1" s="147" t="s">
         <v>72</v>
       </c>
-      <c r="AL1" s="104"/>
-      <c r="AM1" s="104"/>
-      <c r="AN1" s="104"/>
-      <c r="AO1" s="104"/>
-      <c r="AP1" s="104"/>
-      <c r="AQ1" s="104" t="s">
+      <c r="AL1" s="147"/>
+      <c r="AM1" s="147"/>
+      <c r="AN1" s="147"/>
+      <c r="AO1" s="147"/>
+      <c r="AP1" s="147"/>
+      <c r="AQ1" s="147" t="s">
         <v>89</v>
       </c>
-      <c r="AR1" s="104"/>
-      <c r="AS1" s="104"/>
-      <c r="AT1" s="104"/>
-      <c r="AU1" s="136" t="s">
+      <c r="AR1" s="147"/>
+      <c r="AS1" s="147"/>
+      <c r="AT1" s="147"/>
+      <c r="AU1" s="111" t="s">
         <v>31</v>
       </c>
-      <c r="AV1" s="129" t="s">
+      <c r="AV1" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="129" t="s">
+      <c r="AW1" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="129" t="s">
+      <c r="AX1" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="129" t="s">
+      <c r="AY1" s="104" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="124"/>
-      <c r="B2" s="124"/>
-      <c r="C2" s="117"/>
-      <c r="D2" s="117"/>
-      <c r="E2" s="112"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="129"/>
       <c r="F2" s="120"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
       <c r="J2" s="120"/>
       <c r="K2" s="120"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="115"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="112"/>
-      <c r="S2" s="112"/>
-      <c r="T2" s="104"/>
-      <c r="U2" s="104"/>
-      <c r="V2" s="104"/>
-      <c r="W2" s="104"/>
-      <c r="X2" s="104"/>
-      <c r="Y2" s="104"/>
-      <c r="Z2" s="104"/>
-      <c r="AA2" s="104"/>
-      <c r="AB2" s="104"/>
-      <c r="AC2" s="104"/>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="104"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="104"/>
-      <c r="AK2" s="104"/>
-      <c r="AL2" s="104"/>
-      <c r="AM2" s="104"/>
-      <c r="AN2" s="104"/>
-      <c r="AO2" s="104"/>
-      <c r="AP2" s="104"/>
-      <c r="AQ2" s="104"/>
-      <c r="AR2" s="104"/>
-      <c r="AS2" s="104"/>
-      <c r="AT2" s="104"/>
-      <c r="AU2" s="136"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="129"/>
+      <c r="S2" s="129"/>
+      <c r="T2" s="147"/>
+      <c r="U2" s="147"/>
+      <c r="V2" s="147"/>
+      <c r="W2" s="147"/>
+      <c r="X2" s="147"/>
+      <c r="Y2" s="147"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="147"/>
+      <c r="AB2" s="147"/>
+      <c r="AC2" s="147"/>
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="147"/>
+      <c r="AG2" s="147"/>
+      <c r="AH2" s="147"/>
+      <c r="AI2" s="147"/>
+      <c r="AJ2" s="147"/>
+      <c r="AK2" s="147"/>
+      <c r="AL2" s="147"/>
+      <c r="AM2" s="147"/>
+      <c r="AN2" s="147"/>
+      <c r="AO2" s="147"/>
+      <c r="AP2" s="147"/>
+      <c r="AQ2" s="147"/>
+      <c r="AR2" s="147"/>
+      <c r="AS2" s="147"/>
+      <c r="AT2" s="147"/>
+      <c r="AU2" s="111"/>
+      <c r="AV2" s="104"/>
+      <c r="AW2" s="104"/>
+      <c r="AX2" s="104"/>
+      <c r="AY2" s="104"/>
     </row>
     <row r="3" spans="1:51" ht="92.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="112"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="123"/>
+      <c r="D3" s="123"/>
+      <c r="E3" s="129"/>
       <c r="F3" s="120"/>
       <c r="G3" s="28" t="s">
         <v>10</v>
@@ -23402,18 +23362,18 @@
       </c>
       <c r="J3" s="120"/>
       <c r="K3" s="120"/>
-      <c r="L3" s="117"/>
+      <c r="L3" s="123"/>
       <c r="M3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="112"/>
-      <c r="S3" s="112"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="132"/>
+      <c r="Q3" s="132"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="129"/>
       <c r="T3" s="3" t="s">
         <v>63</v>
       </c>
@@ -23495,11 +23455,11 @@
       <c r="AT3" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="129"/>
-      <c r="AW3" s="129"/>
-      <c r="AX3" s="129"/>
-      <c r="AY3" s="129"/>
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="104"/>
+      <c r="AW3" s="104"/>
+      <c r="AX3" s="104"/>
+      <c r="AY3" s="104"/>
     </row>
     <row r="4" spans="1:51" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="27" t="s">
@@ -58463,15 +58423,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="AW1:AW3"/>
-    <mergeCell ref="AX1:AX3"/>
-    <mergeCell ref="AY1:AY3"/>
-    <mergeCell ref="X1:Y2"/>
-    <mergeCell ref="Z1:AJ2"/>
-    <mergeCell ref="AK1:AP2"/>
-    <mergeCell ref="AQ1:AT2"/>
-    <mergeCell ref="AU1:AU3"/>
-    <mergeCell ref="AV1:AV3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
     <mergeCell ref="V1:W2"/>
     <mergeCell ref="G1:I2"/>
     <mergeCell ref="J1:J3"/>
@@ -58484,12 +58441,15 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="T1:U2"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="AW1:AW3"/>
+    <mergeCell ref="AX1:AX3"/>
+    <mergeCell ref="AY1:AY3"/>
+    <mergeCell ref="X1:Y2"/>
+    <mergeCell ref="Z1:AJ2"/>
+    <mergeCell ref="AK1:AP2"/>
+    <mergeCell ref="AQ1:AT2"/>
+    <mergeCell ref="AU1:AU3"/>
+    <mergeCell ref="AV1:AV3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
